--- a/Design/01_管理/WBS.xlsx
+++ b/Design/01_管理/WBS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shose\Desktop\開発事業\工場管理システム\Git\Design\01_管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shose\Desktop\開発事業\工場管理システム\Dummy\Design\01_管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="127">
   <si>
     <t>NO</t>
     <phoneticPr fontId="2"/>
@@ -1079,6 +1079,14 @@
     <rPh sb="0" eb="2">
       <t>マツセ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DB</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1327,6 +1335,12 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1354,718 +1368,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="328">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="228">
     <dxf>
       <fill>
         <patternFill>
@@ -3944,10 +3252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q277"/>
+  <dimension ref="A1:Q278"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3966,56 +3274,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="12" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="14" t="s">
+      <c r="M1" s="15"/>
+      <c r="N1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="14"/>
-      <c r="P1" s="12" t="s">
+      <c r="O1" s="16"/>
+      <c r="P1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
       <c r="L2" s="2" t="s">
         <v>6</v>
       </c>
@@ -4028,8 +3336,8 @@
       <c r="O2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
@@ -4059,7 +3367,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
-        <f t="shared" ref="A4:A277" si="0">ROW()-2</f>
+        <f t="shared" ref="A4:A278" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="5"/>
@@ -4365,14 +3673,18 @@
       <c r="J12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="10"/>
+      <c r="K12" s="10">
+        <v>0.8</v>
+      </c>
       <c r="L12" s="11">
         <v>44380</v>
       </c>
       <c r="M12" s="11">
         <v>44387</v>
       </c>
-      <c r="N12" s="11"/>
+      <c r="N12" s="11">
+        <v>44380</v>
+      </c>
       <c r="O12" s="11"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="4"/>
@@ -4399,14 +3711,18 @@
       <c r="J13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="10"/>
+      <c r="K13" s="10">
+        <v>0.8</v>
+      </c>
       <c r="L13" s="11">
         <v>44380</v>
       </c>
       <c r="M13" s="11">
         <v>44387</v>
       </c>
-      <c r="N13" s="11"/>
+      <c r="N13" s="11">
+        <v>44380</v>
+      </c>
       <c r="O13" s="11"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="4"/>
@@ -4635,7 +3951,7 @@
       <c r="J20" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="12">
         <v>0.5</v>
       </c>
       <c r="L20" s="11">
@@ -4673,7 +3989,7 @@
       <c r="J21" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="21"/>
+      <c r="K21" s="12"/>
       <c r="L21" s="11">
         <v>44394</v>
       </c>
@@ -4707,7 +4023,7 @@
       <c r="J22" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="21"/>
+      <c r="K22" s="12"/>
       <c r="L22" s="11">
         <v>44394</v>
       </c>
@@ -4741,7 +4057,7 @@
       <c r="J23" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="21"/>
+      <c r="K23" s="12"/>
       <c r="L23" s="11">
         <v>44394</v>
       </c>
@@ -4771,7 +4087,7 @@
         <v>13</v>
       </c>
       <c r="J24" s="9"/>
-      <c r="K24" s="21"/>
+      <c r="K24" s="12"/>
       <c r="L24" s="11">
         <v>44401</v>
       </c>
@@ -4805,7 +4121,7 @@
       <c r="J25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="21"/>
+      <c r="K25" s="12"/>
       <c r="L25" s="11">
         <v>44401</v>
       </c>
@@ -4839,7 +4155,7 @@
       <c r="J26" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K26" s="21"/>
+      <c r="K26" s="12"/>
       <c r="L26" s="11">
         <v>44401</v>
       </c>
@@ -4873,7 +4189,7 @@
       <c r="J27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K27" s="21"/>
+      <c r="K27" s="12"/>
       <c r="L27" s="11">
         <v>44401</v>
       </c>
@@ -4907,7 +4223,7 @@
       <c r="J28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K28" s="21"/>
+      <c r="K28" s="12"/>
       <c r="L28" s="11">
         <v>44401</v>
       </c>
@@ -4941,7 +4257,7 @@
       <c r="J29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K29" s="21"/>
+      <c r="K29" s="12"/>
       <c r="L29" s="11">
         <v>44401</v>
       </c>
@@ -4975,7 +4291,7 @@
       <c r="J30" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K30" s="21"/>
+      <c r="K30" s="12"/>
       <c r="L30" s="11">
         <v>44401</v>
       </c>
@@ -5009,7 +4325,7 @@
       <c r="J31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K31" s="21"/>
+      <c r="K31" s="12"/>
       <c r="L31" s="11">
         <v>44401</v>
       </c>
@@ -5041,7 +4357,7 @@
         <v>14</v>
       </c>
       <c r="J32" s="9"/>
-      <c r="K32" s="21"/>
+      <c r="K32" s="12"/>
       <c r="L32" s="11">
         <v>44401</v>
       </c>
@@ -5071,7 +4387,7 @@
         <v>13</v>
       </c>
       <c r="J33" s="9"/>
-      <c r="K33" s="21"/>
+      <c r="K33" s="12"/>
       <c r="L33" s="11">
         <v>44380</v>
       </c>
@@ -5103,7 +4419,7 @@
       <c r="J34" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K34" s="21"/>
+      <c r="K34" s="12"/>
       <c r="L34" s="11">
         <v>44380</v>
       </c>
@@ -5139,7 +4455,7 @@
       <c r="J35" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K35" s="21"/>
+      <c r="K35" s="12"/>
       <c r="L35" s="11">
         <v>44380</v>
       </c>
@@ -5175,7 +4491,7 @@
         <v>13</v>
       </c>
       <c r="J36" s="9"/>
-      <c r="K36" s="22"/>
+      <c r="K36" s="13"/>
       <c r="L36" s="11">
         <v>44409</v>
       </c>
@@ -5209,7 +4525,7 @@
         <v>13</v>
       </c>
       <c r="J37" s="9"/>
-      <c r="K37" s="21"/>
+      <c r="K37" s="12"/>
       <c r="L37" s="11">
         <v>44409</v>
       </c>
@@ -5240,10 +4556,8 @@
       <c r="I38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J38" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K38" s="21"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="12"/>
       <c r="L38" s="11">
         <v>44409</v>
       </c>
@@ -5275,7 +4589,7 @@
         <v>13</v>
       </c>
       <c r="J39" s="9"/>
-      <c r="K39" s="21"/>
+      <c r="K39" s="12"/>
       <c r="L39" s="11">
         <v>44409</v>
       </c>
@@ -5306,10 +4620,8 @@
       <c r="I40" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K40" s="21"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="12"/>
       <c r="L40" s="11">
         <v>44409</v>
       </c>
@@ -5341,7 +4653,7 @@
         <v>13</v>
       </c>
       <c r="J41" s="9"/>
-      <c r="K41" s="21"/>
+      <c r="K41" s="12"/>
       <c r="L41" s="11">
         <v>44409</v>
       </c>
@@ -5372,10 +4684,8 @@
       <c r="I42" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J42" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K42" s="21"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="12"/>
       <c r="L42" s="11">
         <v>44409</v>
       </c>
@@ -5405,7 +4715,7 @@
         <v>13</v>
       </c>
       <c r="J43" s="9"/>
-      <c r="K43" s="21"/>
+      <c r="K43" s="12"/>
       <c r="L43" s="11">
         <v>44437</v>
       </c>
@@ -5428,18 +4738,18 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="7"/>
       <c r="H44" s="4" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J44" s="9"/>
-      <c r="K44" s="22"/>
+      <c r="K44" s="13"/>
       <c r="L44" s="11"/>
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
@@ -5456,7 +4766,7 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="7"/>
@@ -5467,7 +4777,7 @@
         <v>14</v>
       </c>
       <c r="J45" s="9"/>
-      <c r="K45" s="21"/>
+      <c r="K45" s="13"/>
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
@@ -5484,7 +4794,7 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="7"/>
@@ -5495,7 +4805,7 @@
         <v>14</v>
       </c>
       <c r="J46" s="9"/>
-      <c r="K46" s="22"/>
+      <c r="K46" s="12"/>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
@@ -5512,7 +4822,7 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="7"/>
@@ -5523,7 +4833,7 @@
         <v>14</v>
       </c>
       <c r="J47" s="9"/>
-      <c r="K47" s="21"/>
+      <c r="K47" s="13"/>
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
@@ -5540,7 +4850,7 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="7"/>
@@ -5551,7 +4861,7 @@
         <v>14</v>
       </c>
       <c r="J48" s="9"/>
-      <c r="K48" s="22"/>
+      <c r="K48" s="12"/>
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
@@ -5568,7 +4878,7 @@
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="7"/>
@@ -5579,7 +4889,7 @@
         <v>14</v>
       </c>
       <c r="J49" s="9"/>
-      <c r="K49" s="22"/>
+      <c r="K49" s="13"/>
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
       <c r="N49" s="11"/>
@@ -5596,7 +4906,7 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="7"/>
@@ -5607,7 +4917,7 @@
         <v>14</v>
       </c>
       <c r="J50" s="9"/>
-      <c r="K50" s="21"/>
+      <c r="K50" s="13"/>
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
@@ -5624,7 +4934,7 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="7"/>
@@ -5635,7 +4945,7 @@
         <v>14</v>
       </c>
       <c r="J51" s="9"/>
-      <c r="K51" s="22"/>
+      <c r="K51" s="12"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
       <c r="N51" s="11"/>
@@ -5650,24 +4960,22 @@
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="F52" s="6"/>
       <c r="G52" s="7"/>
-      <c r="H52" s="4"/>
+      <c r="H52" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="I52" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J52" s="9"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="11">
-        <v>44500</v>
-      </c>
-      <c r="M52" s="11">
-        <v>44541</v>
-      </c>
+      <c r="K52" s="13"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
       <c r="N52" s="11"/>
       <c r="O52" s="11"/>
       <c r="P52" s="9"/>
@@ -5680,10 +4988,10 @@
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="D53" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="7"/>
       <c r="H53" s="4"/>
@@ -5691,12 +4999,12 @@
         <v>13</v>
       </c>
       <c r="J53" s="9"/>
-      <c r="K53" s="22"/>
+      <c r="K53" s="12"/>
       <c r="L53" s="11">
         <v>44500</v>
       </c>
       <c r="M53" s="11">
-        <v>44513</v>
+        <v>44541</v>
       </c>
       <c r="N53" s="11"/>
       <c r="O53" s="11"/>
@@ -5711,21 +5019,23 @@
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="E54" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F54" s="6"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="H54" s="4"/>
       <c r="I54" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J54" s="9"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="11">
+        <v>44500</v>
+      </c>
+      <c r="M54" s="11">
+        <v>44513</v>
+      </c>
       <c r="N54" s="11"/>
       <c r="O54" s="11"/>
       <c r="P54" s="9"/>
@@ -5741,7 +5051,7 @@
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="4" t="s">
@@ -5751,7 +5061,7 @@
         <v>14</v>
       </c>
       <c r="J55" s="9"/>
-      <c r="K55" s="21"/>
+      <c r="K55" s="13"/>
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
@@ -5769,7 +5079,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="4" t="s">
@@ -5779,7 +5089,7 @@
         <v>14</v>
       </c>
       <c r="J56" s="9"/>
-      <c r="K56" s="22"/>
+      <c r="K56" s="12"/>
       <c r="L56" s="11"/>
       <c r="M56" s="11"/>
       <c r="N56" s="11"/>
@@ -5797,7 +5107,7 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="4" t="s">
@@ -5807,7 +5117,7 @@
         <v>14</v>
       </c>
       <c r="J57" s="9"/>
-      <c r="K57" s="21"/>
+      <c r="K57" s="13"/>
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
       <c r="N57" s="11"/>
@@ -5825,7 +5135,7 @@
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="4" t="s">
@@ -5835,7 +5145,7 @@
         <v>14</v>
       </c>
       <c r="J58" s="9"/>
-      <c r="K58" s="22"/>
+      <c r="K58" s="12"/>
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
       <c r="N58" s="11"/>
@@ -5853,7 +5163,7 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="4" t="s">
@@ -5863,7 +5173,7 @@
         <v>14</v>
       </c>
       <c r="J59" s="9"/>
-      <c r="K59" s="22"/>
+      <c r="K59" s="13"/>
       <c r="L59" s="11"/>
       <c r="M59" s="11"/>
       <c r="N59" s="11"/>
@@ -5881,7 +5191,7 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="4" t="s">
@@ -5891,7 +5201,7 @@
         <v>14</v>
       </c>
       <c r="J60" s="9"/>
-      <c r="K60" s="21"/>
+      <c r="K60" s="13"/>
       <c r="L60" s="11"/>
       <c r="M60" s="11"/>
       <c r="N60" s="11"/>
@@ -5909,7 +5219,7 @@
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="4" t="s">
@@ -5919,7 +5229,7 @@
         <v>14</v>
       </c>
       <c r="J61" s="9"/>
-      <c r="K61" s="22"/>
+      <c r="K61" s="12"/>
       <c r="L61" s="11"/>
       <c r="M61" s="11"/>
       <c r="N61" s="11"/>
@@ -5935,23 +5245,21 @@
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="G62" s="7"/>
-      <c r="H62" s="4"/>
+      <c r="H62" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="I62" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J62" s="9"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="11">
-        <v>44514</v>
-      </c>
-      <c r="M62" s="11">
-        <v>44527</v>
-      </c>
+      <c r="K62" s="13"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
       <c r="N62" s="11"/>
       <c r="O62" s="11"/>
       <c r="P62" s="9"/>
@@ -5965,21 +5273,23 @@
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="E63" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63" s="6"/>
       <c r="G63" s="7"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J63" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K63" s="22"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="J63" s="9"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="11">
+        <v>44514</v>
+      </c>
+      <c r="M63" s="11">
+        <v>44527</v>
+      </c>
       <c r="N63" s="11"/>
       <c r="O63" s="11"/>
       <c r="P63" s="9"/>
@@ -5995,7 +5305,7 @@
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="4"/>
@@ -6005,7 +5315,7 @@
       <c r="J64" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K64" s="21"/>
+      <c r="K64" s="13"/>
       <c r="L64" s="11"/>
       <c r="M64" s="11"/>
       <c r="N64" s="11"/>
@@ -6023,7 +5333,7 @@
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="4"/>
@@ -6033,7 +5343,7 @@
       <c r="J65" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K65" s="22"/>
+      <c r="K65" s="12"/>
       <c r="L65" s="11"/>
       <c r="M65" s="11"/>
       <c r="N65" s="11"/>
@@ -6051,7 +5361,7 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="4"/>
@@ -6061,7 +5371,7 @@
       <c r="J66" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K66" s="21"/>
+      <c r="K66" s="13"/>
       <c r="L66" s="11"/>
       <c r="M66" s="11"/>
       <c r="N66" s="11"/>
@@ -6079,7 +5389,7 @@
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="4"/>
@@ -6089,7 +5399,7 @@
       <c r="J67" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K67" s="22"/>
+      <c r="K67" s="12"/>
       <c r="L67" s="11"/>
       <c r="M67" s="11"/>
       <c r="N67" s="11"/>
@@ -6107,7 +5417,7 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="4"/>
@@ -6117,7 +5427,7 @@
       <c r="J68" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K68" s="22"/>
+      <c r="K68" s="13"/>
       <c r="L68" s="11"/>
       <c r="M68" s="11"/>
       <c r="N68" s="11"/>
@@ -6135,7 +5445,7 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="4"/>
@@ -6145,7 +5455,7 @@
       <c r="J69" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K69" s="21"/>
+      <c r="K69" s="13"/>
       <c r="L69" s="11"/>
       <c r="M69" s="11"/>
       <c r="N69" s="11"/>
@@ -6163,7 +5473,7 @@
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="4"/>
@@ -6173,7 +5483,7 @@
       <c r="J70" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K70" s="22"/>
+      <c r="K70" s="12"/>
       <c r="L70" s="11"/>
       <c r="M70" s="11"/>
       <c r="N70" s="11"/>
@@ -6189,23 +5499,21 @@
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="G71" s="7"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J71" s="9"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="11">
-        <v>44528</v>
-      </c>
-      <c r="M71" s="11">
-        <v>44541</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K71" s="13"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
       <c r="N71" s="11"/>
       <c r="O71" s="11"/>
       <c r="P71" s="9"/>
@@ -6219,19 +5527,23 @@
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="E72" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F72" s="6"/>
       <c r="G72" s="7"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J72" s="9"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="11">
+        <v>44528</v>
+      </c>
+      <c r="M72" s="11">
+        <v>44541</v>
+      </c>
       <c r="N72" s="11"/>
       <c r="O72" s="11"/>
       <c r="P72" s="9"/>
@@ -6247,7 +5559,7 @@
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="4"/>
@@ -6255,7 +5567,7 @@
         <v>14</v>
       </c>
       <c r="J73" s="9"/>
-      <c r="K73" s="22"/>
+      <c r="K73" s="12"/>
       <c r="L73" s="11"/>
       <c r="M73" s="11"/>
       <c r="N73" s="11"/>
@@ -6273,7 +5585,7 @@
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="4"/>
@@ -6281,7 +5593,7 @@
         <v>14</v>
       </c>
       <c r="J74" s="9"/>
-      <c r="K74" s="21"/>
+      <c r="K74" s="13"/>
       <c r="L74" s="11"/>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -6299,7 +5611,7 @@
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="4"/>
@@ -6307,7 +5619,7 @@
         <v>14</v>
       </c>
       <c r="J75" s="9"/>
-      <c r="K75" s="22"/>
+      <c r="K75" s="12"/>
       <c r="L75" s="11"/>
       <c r="M75" s="11"/>
       <c r="N75" s="11"/>
@@ -6325,7 +5637,7 @@
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="4"/>
@@ -6333,7 +5645,7 @@
         <v>14</v>
       </c>
       <c r="J76" s="9"/>
-      <c r="K76" s="22"/>
+      <c r="K76" s="13"/>
       <c r="L76" s="11"/>
       <c r="M76" s="11"/>
       <c r="N76" s="11"/>
@@ -6351,7 +5663,7 @@
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G77" s="7"/>
       <c r="H77" s="4"/>
@@ -6359,7 +5671,7 @@
         <v>14</v>
       </c>
       <c r="J77" s="9"/>
-      <c r="K77" s="21"/>
+      <c r="K77" s="13"/>
       <c r="L77" s="11"/>
       <c r="M77" s="11"/>
       <c r="N77" s="11"/>
@@ -6377,7 +5689,7 @@
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="4"/>
@@ -6385,7 +5697,7 @@
         <v>14</v>
       </c>
       <c r="J78" s="9"/>
-      <c r="K78" s="22"/>
+      <c r="K78" s="12"/>
       <c r="L78" s="11"/>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
@@ -6403,7 +5715,7 @@
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="4"/>
@@ -6411,7 +5723,7 @@
         <v>14</v>
       </c>
       <c r="J79" s="9"/>
-      <c r="K79" s="21"/>
+      <c r="K79" s="13"/>
       <c r="L79" s="11"/>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
@@ -6426,24 +5738,20 @@
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
-      <c r="D80" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="D80" s="6"/>
       <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
+      <c r="F80" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="G80" s="7"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J80" s="9"/>
-      <c r="K80" s="21"/>
-      <c r="L80" s="11">
-        <v>44542</v>
-      </c>
-      <c r="M80" s="11">
-        <v>44225</v>
-      </c>
+      <c r="K80" s="12"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
       <c r="N80" s="11"/>
       <c r="O80" s="11"/>
       <c r="P80" s="9"/>
@@ -6456,10 +5764,10 @@
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="D81" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="7"/>
       <c r="H81" s="4"/>
@@ -6467,12 +5775,12 @@
         <v>13</v>
       </c>
       <c r="J81" s="9"/>
-      <c r="K81" s="22"/>
+      <c r="K81" s="12"/>
       <c r="L81" s="11">
         <v>44542</v>
       </c>
       <c r="M81" s="11">
-        <v>44556</v>
+        <v>44225</v>
       </c>
       <c r="N81" s="11"/>
       <c r="O81" s="11"/>
@@ -6487,19 +5795,23 @@
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="E82" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F82" s="6"/>
       <c r="G82" s="7"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J82" s="9"/>
-      <c r="K82" s="22"/>
-      <c r="L82" s="11"/>
-      <c r="M82" s="11"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="11">
+        <v>44542</v>
+      </c>
+      <c r="M82" s="11">
+        <v>44556</v>
+      </c>
       <c r="N82" s="11"/>
       <c r="O82" s="11"/>
       <c r="P82" s="9"/>
@@ -6515,7 +5827,7 @@
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="4"/>
@@ -6523,7 +5835,7 @@
         <v>14</v>
       </c>
       <c r="J83" s="9"/>
-      <c r="K83" s="21"/>
+      <c r="K83" s="13"/>
       <c r="L83" s="11"/>
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
@@ -6541,7 +5853,7 @@
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G84" s="7"/>
       <c r="H84" s="4"/>
@@ -6549,7 +5861,7 @@
         <v>14</v>
       </c>
       <c r="J84" s="9"/>
-      <c r="K84" s="22"/>
+      <c r="K84" s="12"/>
       <c r="L84" s="11"/>
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
@@ -6567,7 +5879,7 @@
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="4"/>
@@ -6575,7 +5887,7 @@
         <v>14</v>
       </c>
       <c r="J85" s="9"/>
-      <c r="K85" s="21"/>
+      <c r="K85" s="13"/>
       <c r="L85" s="11"/>
       <c r="M85" s="11"/>
       <c r="N85" s="11"/>
@@ -6585,7 +5897,7 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="8">
-        <f t="shared" ref="A86:A107" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="B86" s="5"/>
@@ -6593,7 +5905,7 @@
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="4"/>
@@ -6601,7 +5913,7 @@
         <v>14</v>
       </c>
       <c r="J86" s="9"/>
-      <c r="K86" s="22"/>
+      <c r="K86" s="12"/>
       <c r="L86" s="11"/>
       <c r="M86" s="11"/>
       <c r="N86" s="11"/>
@@ -6611,7 +5923,7 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A87:A108" si="1">ROW()-2</f>
         <v>85</v>
       </c>
       <c r="B87" s="5"/>
@@ -6619,7 +5931,7 @@
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="4"/>
@@ -6627,7 +5939,7 @@
         <v>14</v>
       </c>
       <c r="J87" s="9"/>
-      <c r="K87" s="22"/>
+      <c r="K87" s="13"/>
       <c r="L87" s="11"/>
       <c r="M87" s="11"/>
       <c r="N87" s="11"/>
@@ -6645,7 +5957,7 @@
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G88" s="7"/>
       <c r="H88" s="4"/>
@@ -6653,7 +5965,7 @@
         <v>14</v>
       </c>
       <c r="J88" s="9"/>
-      <c r="K88" s="21"/>
+      <c r="K88" s="13"/>
       <c r="L88" s="11"/>
       <c r="M88" s="11"/>
       <c r="N88" s="11"/>
@@ -6671,7 +5983,7 @@
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G89" s="7"/>
       <c r="H89" s="4"/>
@@ -6679,7 +5991,7 @@
         <v>14</v>
       </c>
       <c r="J89" s="9"/>
-      <c r="K89" s="22"/>
+      <c r="K89" s="12"/>
       <c r="L89" s="11"/>
       <c r="M89" s="11"/>
       <c r="N89" s="11"/>
@@ -6695,23 +6007,19 @@
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="G90" s="7"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J90" s="9"/>
-      <c r="K90" s="22"/>
-      <c r="L90" s="11">
-        <v>44556</v>
-      </c>
-      <c r="M90" s="11">
-        <v>44576</v>
-      </c>
+      <c r="K90" s="13"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
       <c r="N90" s="11"/>
       <c r="O90" s="11"/>
       <c r="P90" s="9"/>
@@ -6725,21 +6033,23 @@
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="E91" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F91" s="6"/>
       <c r="G91" s="7"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J91" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K91" s="22"/>
-      <c r="L91" s="11"/>
-      <c r="M91" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="J91" s="9"/>
+      <c r="K91" s="13"/>
+      <c r="L91" s="11">
+        <v>44556</v>
+      </c>
+      <c r="M91" s="11">
+        <v>44576</v>
+      </c>
       <c r="N91" s="11"/>
       <c r="O91" s="11"/>
       <c r="P91" s="9"/>
@@ -6755,7 +6065,7 @@
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G92" s="7"/>
       <c r="H92" s="4"/>
@@ -6765,7 +6075,7 @@
       <c r="J92" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K92" s="21"/>
+      <c r="K92" s="13"/>
       <c r="L92" s="11"/>
       <c r="M92" s="11"/>
       <c r="N92" s="11"/>
@@ -6783,7 +6093,7 @@
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G93" s="7"/>
       <c r="H93" s="4"/>
@@ -6793,7 +6103,7 @@
       <c r="J93" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K93" s="22"/>
+      <c r="K93" s="12"/>
       <c r="L93" s="11"/>
       <c r="M93" s="11"/>
       <c r="N93" s="11"/>
@@ -6811,7 +6121,7 @@
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G94" s="7"/>
       <c r="H94" s="4"/>
@@ -6821,7 +6131,7 @@
       <c r="J94" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K94" s="21"/>
+      <c r="K94" s="13"/>
       <c r="L94" s="11"/>
       <c r="M94" s="11"/>
       <c r="N94" s="11"/>
@@ -6839,7 +6149,7 @@
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G95" s="7"/>
       <c r="H95" s="4"/>
@@ -6849,7 +6159,7 @@
       <c r="J95" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K95" s="22"/>
+      <c r="K95" s="12"/>
       <c r="L95" s="11"/>
       <c r="M95" s="11"/>
       <c r="N95" s="11"/>
@@ -6867,7 +6177,7 @@
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G96" s="7"/>
       <c r="H96" s="4"/>
@@ -6877,7 +6187,7 @@
       <c r="J96" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K96" s="22"/>
+      <c r="K96" s="13"/>
       <c r="L96" s="11"/>
       <c r="M96" s="11"/>
       <c r="N96" s="11"/>
@@ -6895,7 +6205,7 @@
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G97" s="7"/>
       <c r="H97" s="4"/>
@@ -6905,7 +6215,7 @@
       <c r="J97" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K97" s="21"/>
+      <c r="K97" s="13"/>
       <c r="L97" s="11"/>
       <c r="M97" s="11"/>
       <c r="N97" s="11"/>
@@ -6923,7 +6233,7 @@
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G98" s="7"/>
       <c r="H98" s="4"/>
@@ -6933,7 +6243,7 @@
       <c r="J98" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K98" s="22"/>
+      <c r="K98" s="12"/>
       <c r="L98" s="11"/>
       <c r="M98" s="11"/>
       <c r="N98" s="11"/>
@@ -6949,23 +6259,21 @@
       <c r="B99" s="5"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
-      <c r="E99" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="G99" s="7"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J99" s="9"/>
-      <c r="K99" s="22"/>
-      <c r="L99" s="11">
-        <v>44576</v>
-      </c>
-      <c r="M99" s="11">
-        <v>44590</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K99" s="13"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
       <c r="N99" s="11"/>
       <c r="O99" s="11"/>
       <c r="P99" s="9"/>
@@ -6979,19 +6287,23 @@
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="E100" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F100" s="6"/>
       <c r="G100" s="7"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J100" s="9"/>
-      <c r="K100" s="21"/>
-      <c r="L100" s="11"/>
-      <c r="M100" s="11"/>
+      <c r="K100" s="13"/>
+      <c r="L100" s="11">
+        <v>44576</v>
+      </c>
+      <c r="M100" s="11">
+        <v>44590</v>
+      </c>
       <c r="N100" s="11"/>
       <c r="O100" s="11"/>
       <c r="P100" s="9"/>
@@ -7007,7 +6319,7 @@
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G101" s="7"/>
       <c r="H101" s="4"/>
@@ -7015,7 +6327,7 @@
         <v>14</v>
       </c>
       <c r="J101" s="9"/>
-      <c r="K101" s="22"/>
+      <c r="K101" s="12"/>
       <c r="L101" s="11"/>
       <c r="M101" s="11"/>
       <c r="N101" s="11"/>
@@ -7033,7 +6345,7 @@
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G102" s="7"/>
       <c r="H102" s="4"/>
@@ -7041,7 +6353,7 @@
         <v>14</v>
       </c>
       <c r="J102" s="9"/>
-      <c r="K102" s="21"/>
+      <c r="K102" s="13"/>
       <c r="L102" s="11"/>
       <c r="M102" s="11"/>
       <c r="N102" s="11"/>
@@ -7059,7 +6371,7 @@
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G103" s="7"/>
       <c r="H103" s="4"/>
@@ -7067,7 +6379,7 @@
         <v>14</v>
       </c>
       <c r="J103" s="9"/>
-      <c r="K103" s="22"/>
+      <c r="K103" s="12"/>
       <c r="L103" s="11"/>
       <c r="M103" s="11"/>
       <c r="N103" s="11"/>
@@ -7085,7 +6397,7 @@
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G104" s="7"/>
       <c r="H104" s="4"/>
@@ -7093,7 +6405,7 @@
         <v>14</v>
       </c>
       <c r="J104" s="9"/>
-      <c r="K104" s="22"/>
+      <c r="K104" s="13"/>
       <c r="L104" s="11"/>
       <c r="M104" s="11"/>
       <c r="N104" s="11"/>
@@ -7111,7 +6423,7 @@
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G105" s="7"/>
       <c r="H105" s="4"/>
@@ -7119,7 +6431,7 @@
         <v>14</v>
       </c>
       <c r="J105" s="9"/>
-      <c r="K105" s="21"/>
+      <c r="K105" s="13"/>
       <c r="L105" s="11"/>
       <c r="M105" s="11"/>
       <c r="N105" s="11"/>
@@ -7137,7 +6449,7 @@
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G106" s="7"/>
       <c r="H106" s="4"/>
@@ -7145,7 +6457,7 @@
         <v>14</v>
       </c>
       <c r="J106" s="9"/>
-      <c r="K106" s="22"/>
+      <c r="K106" s="12"/>
       <c r="L106" s="11"/>
       <c r="M106" s="11"/>
       <c r="N106" s="11"/>
@@ -7163,7 +6475,7 @@
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
       <c r="F107" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G107" s="7"/>
       <c r="H107" s="4"/>
@@ -7171,7 +6483,7 @@
         <v>14</v>
       </c>
       <c r="J107" s="9"/>
-      <c r="K107" s="21"/>
+      <c r="K107" s="13"/>
       <c r="L107" s="11"/>
       <c r="M107" s="11"/>
       <c r="N107" s="11"/>
@@ -7181,29 +6493,25 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="6"/>
-      <c r="D108" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="D108" s="6"/>
       <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
+      <c r="F108" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="G108" s="7"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J108" s="9"/>
-      <c r="K108" s="21"/>
-      <c r="L108" s="11">
-        <v>44591</v>
-      </c>
-      <c r="M108" s="11">
-        <v>44632</v>
-      </c>
+      <c r="K108" s="12"/>
+      <c r="L108" s="11"/>
+      <c r="M108" s="11"/>
       <c r="N108" s="11"/>
       <c r="O108" s="11"/>
       <c r="P108" s="9"/>
@@ -7216,10 +6524,10 @@
       </c>
       <c r="B109" s="5"/>
       <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="D109" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="6"/>
       <c r="F109" s="6"/>
       <c r="G109" s="7"/>
       <c r="H109" s="4"/>
@@ -7227,12 +6535,12 @@
         <v>13</v>
       </c>
       <c r="J109" s="9"/>
-      <c r="K109" s="22"/>
+      <c r="K109" s="12"/>
       <c r="L109" s="11">
         <v>44591</v>
       </c>
       <c r="M109" s="11">
-        <v>44604</v>
+        <v>44632</v>
       </c>
       <c r="N109" s="11"/>
       <c r="O109" s="11"/>
@@ -7247,19 +6555,23 @@
       <c r="B110" s="5"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="E110" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F110" s="6"/>
       <c r="G110" s="7"/>
       <c r="H110" s="4"/>
       <c r="I110" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J110" s="9"/>
-      <c r="K110" s="22"/>
-      <c r="L110" s="11"/>
-      <c r="M110" s="11"/>
+      <c r="K110" s="13"/>
+      <c r="L110" s="11">
+        <v>44591</v>
+      </c>
+      <c r="M110" s="11">
+        <v>44604</v>
+      </c>
       <c r="N110" s="11"/>
       <c r="O110" s="11"/>
       <c r="P110" s="9"/>
@@ -7275,7 +6587,7 @@
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G111" s="7"/>
       <c r="H111" s="4"/>
@@ -7283,7 +6595,7 @@
         <v>14</v>
       </c>
       <c r="J111" s="9"/>
-      <c r="K111" s="21"/>
+      <c r="K111" s="13"/>
       <c r="L111" s="11"/>
       <c r="M111" s="11"/>
       <c r="N111" s="11"/>
@@ -7301,7 +6613,7 @@
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
       <c r="F112" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G112" s="7"/>
       <c r="H112" s="4"/>
@@ -7309,7 +6621,7 @@
         <v>14</v>
       </c>
       <c r="J112" s="9"/>
-      <c r="K112" s="22"/>
+      <c r="K112" s="12"/>
       <c r="L112" s="11"/>
       <c r="M112" s="11"/>
       <c r="N112" s="11"/>
@@ -7327,7 +6639,7 @@
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
       <c r="F113" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G113" s="7"/>
       <c r="H113" s="4"/>
@@ -7335,7 +6647,7 @@
         <v>14</v>
       </c>
       <c r="J113" s="9"/>
-      <c r="K113" s="21"/>
+      <c r="K113" s="13"/>
       <c r="L113" s="11"/>
       <c r="M113" s="11"/>
       <c r="N113" s="11"/>
@@ -7353,7 +6665,7 @@
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G114" s="7"/>
       <c r="H114" s="4"/>
@@ -7361,7 +6673,7 @@
         <v>14</v>
       </c>
       <c r="J114" s="9"/>
-      <c r="K114" s="22"/>
+      <c r="K114" s="12"/>
       <c r="L114" s="11"/>
       <c r="M114" s="11"/>
       <c r="N114" s="11"/>
@@ -7377,25 +6689,19 @@
       <c r="B115" s="5"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
-      <c r="E115" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="G115" s="7"/>
       <c r="H115" s="4"/>
       <c r="I115" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J115" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K115" s="22"/>
-      <c r="L115" s="11">
-        <v>44605</v>
-      </c>
-      <c r="M115" s="11">
-        <v>44612</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="J115" s="9"/>
+      <c r="K115" s="13"/>
+      <c r="L115" s="11"/>
+      <c r="M115" s="11"/>
       <c r="N115" s="11"/>
       <c r="O115" s="11"/>
       <c r="P115" s="9"/>
@@ -7409,21 +6715,25 @@
       <c r="B116" s="5"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="E116" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F116" s="6"/>
       <c r="G116" s="7"/>
       <c r="H116" s="4"/>
       <c r="I116" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J116" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K116" s="22"/>
-      <c r="L116" s="11"/>
-      <c r="M116" s="11"/>
+      <c r="K116" s="13"/>
+      <c r="L116" s="11">
+        <v>44605</v>
+      </c>
+      <c r="M116" s="11">
+        <v>44612</v>
+      </c>
       <c r="N116" s="11"/>
       <c r="O116" s="11"/>
       <c r="P116" s="9"/>
@@ -7439,7 +6749,7 @@
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G117" s="7"/>
       <c r="H117" s="4"/>
@@ -7449,7 +6759,7 @@
       <c r="J117" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K117" s="21"/>
+      <c r="K117" s="13"/>
       <c r="L117" s="11"/>
       <c r="M117" s="11"/>
       <c r="N117" s="11"/>
@@ -7467,7 +6777,7 @@
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G118" s="7"/>
       <c r="H118" s="4"/>
@@ -7477,7 +6787,7 @@
       <c r="J118" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K118" s="22"/>
+      <c r="K118" s="12"/>
       <c r="L118" s="11"/>
       <c r="M118" s="11"/>
       <c r="N118" s="11"/>
@@ -7495,7 +6805,7 @@
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G119" s="7"/>
       <c r="H119" s="4"/>
@@ -7505,7 +6815,7 @@
       <c r="J119" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K119" s="21"/>
+      <c r="K119" s="13"/>
       <c r="L119" s="11"/>
       <c r="M119" s="11"/>
       <c r="N119" s="11"/>
@@ -7523,7 +6833,7 @@
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G120" s="7"/>
       <c r="H120" s="4"/>
@@ -7533,7 +6843,7 @@
       <c r="J120" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K120" s="22"/>
+      <c r="K120" s="12"/>
       <c r="L120" s="11"/>
       <c r="M120" s="11"/>
       <c r="N120" s="11"/>
@@ -7549,23 +6859,21 @@
       <c r="B121" s="5"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
-      <c r="E121" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="G121" s="7"/>
       <c r="H121" s="4"/>
       <c r="I121" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J121" s="9"/>
-      <c r="K121" s="22"/>
-      <c r="L121" s="11">
-        <v>44613</v>
-      </c>
-      <c r="M121" s="11">
-        <v>44632</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="J121" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K121" s="13"/>
+      <c r="L121" s="11"/>
+      <c r="M121" s="11"/>
       <c r="N121" s="11"/>
       <c r="O121" s="11"/>
       <c r="P121" s="9"/>
@@ -7579,19 +6887,23 @@
       <c r="B122" s="5"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="E122" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F122" s="6"/>
       <c r="G122" s="7"/>
       <c r="H122" s="4"/>
       <c r="I122" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J122" s="9"/>
-      <c r="K122" s="21"/>
-      <c r="L122" s="11"/>
-      <c r="M122" s="11"/>
+      <c r="K122" s="13"/>
+      <c r="L122" s="11">
+        <v>44613</v>
+      </c>
+      <c r="M122" s="11">
+        <v>44632</v>
+      </c>
       <c r="N122" s="11"/>
       <c r="O122" s="11"/>
       <c r="P122" s="9"/>
@@ -7607,7 +6919,7 @@
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G123" s="7"/>
       <c r="H123" s="4"/>
@@ -7615,7 +6927,7 @@
         <v>14</v>
       </c>
       <c r="J123" s="9"/>
-      <c r="K123" s="22"/>
+      <c r="K123" s="12"/>
       <c r="L123" s="11"/>
       <c r="M123" s="11"/>
       <c r="N123" s="11"/>
@@ -7633,7 +6945,7 @@
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
       <c r="F124" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G124" s="7"/>
       <c r="H124" s="4"/>
@@ -7641,7 +6953,7 @@
         <v>14</v>
       </c>
       <c r="J124" s="9"/>
-      <c r="K124" s="21"/>
+      <c r="K124" s="13"/>
       <c r="L124" s="11"/>
       <c r="M124" s="11"/>
       <c r="N124" s="11"/>
@@ -7659,7 +6971,7 @@
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
       <c r="F125" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G125" s="7"/>
       <c r="H125" s="4"/>
@@ -7667,7 +6979,7 @@
         <v>14</v>
       </c>
       <c r="J125" s="9"/>
-      <c r="K125" s="22"/>
+      <c r="K125" s="12"/>
       <c r="L125" s="11"/>
       <c r="M125" s="11"/>
       <c r="N125" s="11"/>
@@ -7685,7 +6997,7 @@
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
       <c r="F126" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G126" s="7"/>
       <c r="H126" s="4"/>
@@ -7693,7 +7005,7 @@
         <v>14</v>
       </c>
       <c r="J126" s="9"/>
-      <c r="K126" s="22"/>
+      <c r="K126" s="13"/>
       <c r="L126" s="11"/>
       <c r="M126" s="11"/>
       <c r="N126" s="11"/>
@@ -7708,24 +7020,20 @@
       </c>
       <c r="B127" s="5"/>
       <c r="C127" s="6"/>
-      <c r="D127" s="6" t="s">
-        <v>74</v>
-      </c>
+      <c r="D127" s="6"/>
       <c r="E127" s="6"/>
-      <c r="F127" s="6"/>
+      <c r="F127" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="G127" s="7"/>
       <c r="H127" s="4"/>
       <c r="I127" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J127" s="9"/>
-      <c r="K127" s="21"/>
-      <c r="L127" s="11">
-        <v>44633</v>
-      </c>
-      <c r="M127" s="11">
-        <v>44681</v>
-      </c>
+      <c r="K127" s="13"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="11"/>
       <c r="N127" s="11"/>
       <c r="O127" s="11"/>
       <c r="P127" s="9"/>
@@ -7733,25 +7041,29 @@
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" s="8">
-        <f t="shared" ref="A128" si="2">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>126</v>
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6" t="s">
-        <v>75</v>
-      </c>
+      <c r="D128" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E128" s="6"/>
       <c r="F128" s="6"/>
       <c r="G128" s="7"/>
       <c r="H128" s="4"/>
       <c r="I128" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J128" s="9"/>
-      <c r="K128" s="21"/>
-      <c r="L128" s="11"/>
-      <c r="M128" s="11"/>
+      <c r="K128" s="12"/>
+      <c r="L128" s="11">
+        <v>44633</v>
+      </c>
+      <c r="M128" s="11">
+        <v>44681</v>
+      </c>
       <c r="N128" s="11"/>
       <c r="O128" s="11"/>
       <c r="P128" s="9"/>
@@ -7759,14 +7071,14 @@
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A129" si="2">ROW()-2</f>
         <v>127</v>
       </c>
       <c r="B129" s="5"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
       <c r="E129" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F129" s="6"/>
       <c r="G129" s="7"/>
@@ -7775,7 +7087,7 @@
         <v>14</v>
       </c>
       <c r="J129" s="9"/>
-      <c r="K129" s="22"/>
+      <c r="K129" s="12"/>
       <c r="L129" s="11"/>
       <c r="M129" s="11"/>
       <c r="N129" s="11"/>
@@ -7792,7 +7104,7 @@
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
       <c r="E130" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F130" s="6"/>
       <c r="G130" s="7"/>
@@ -7800,10 +7112,8 @@
       <c r="I130" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J130" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="K130" s="22"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="13"/>
       <c r="L130" s="11"/>
       <c r="M130" s="11"/>
       <c r="N130" s="11"/>
@@ -7819,13 +7129,19 @@
       <c r="B131" s="5"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
+      <c r="E131" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="F131" s="6"/>
       <c r="G131" s="7"/>
       <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
-      <c r="J131" s="9"/>
-      <c r="K131" s="10"/>
+      <c r="I131" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J131" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K131" s="13"/>
       <c r="L131" s="11"/>
       <c r="M131" s="11"/>
       <c r="N131" s="11"/>
@@ -7847,7 +7163,7 @@
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
       <c r="J132" s="9"/>
-      <c r="K132" s="9"/>
+      <c r="K132" s="10"/>
       <c r="L132" s="11"/>
       <c r="M132" s="11"/>
       <c r="N132" s="11"/>
@@ -7869,7 +7185,7 @@
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
       <c r="J133" s="9"/>
-      <c r="K133" s="10"/>
+      <c r="K133" s="9"/>
       <c r="L133" s="11"/>
       <c r="M133" s="11"/>
       <c r="N133" s="11"/>
@@ -7891,7 +7207,7 @@
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
       <c r="J134" s="9"/>
-      <c r="K134" s="9"/>
+      <c r="K134" s="10"/>
       <c r="L134" s="11"/>
       <c r="M134" s="11"/>
       <c r="N134" s="11"/>
@@ -7905,19 +7221,15 @@
         <v>133</v>
       </c>
       <c r="B135" s="5"/>
-      <c r="C135" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="C135" s="6"/>
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
       <c r="G135" s="7"/>
       <c r="H135" s="4"/>
-      <c r="I135" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="I135" s="4"/>
       <c r="J135" s="9"/>
-      <c r="K135" s="21"/>
+      <c r="K135" s="9"/>
       <c r="L135" s="11"/>
       <c r="M135" s="11"/>
       <c r="N135" s="11"/>
@@ -7931,10 +7243,10 @@
         <v>134</v>
       </c>
       <c r="B136" s="5"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="C136" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D136" s="6"/>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
       <c r="G136" s="7"/>
@@ -7943,13 +7255,9 @@
         <v>13</v>
       </c>
       <c r="J136" s="9"/>
-      <c r="K136" s="21"/>
-      <c r="L136" s="11">
-        <v>44394</v>
-      </c>
-      <c r="M136" s="11">
-        <v>44465</v>
-      </c>
+      <c r="K136" s="12"/>
+      <c r="L136" s="11"/>
+      <c r="M136" s="11"/>
       <c r="N136" s="11"/>
       <c r="O136" s="11"/>
       <c r="P136" s="9"/>
@@ -7962,35 +7270,27 @@
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="D137" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E137" s="6"/>
       <c r="F137" s="6"/>
       <c r="G137" s="7"/>
       <c r="H137" s="4"/>
       <c r="I137" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J137" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="K137" s="22">
-        <v>0.8</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J137" s="9"/>
+      <c r="K137" s="12"/>
       <c r="L137" s="11">
         <v>44394</v>
       </c>
       <c r="M137" s="11">
         <v>44465</v>
       </c>
-      <c r="N137" s="11">
-        <v>44394</v>
-      </c>
+      <c r="N137" s="11"/>
       <c r="O137" s="11"/>
-      <c r="P137" s="9">
-        <v>6</v>
-      </c>
+      <c r="P137" s="9"/>
       <c r="Q137" s="4"/>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.2">
@@ -8002,7 +7302,7 @@
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
       <c r="E138" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="7"/>
@@ -8013,7 +7313,9 @@
       <c r="J138" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="K138" s="21"/>
+      <c r="K138" s="13">
+        <v>0.8</v>
+      </c>
       <c r="L138" s="11">
         <v>44394</v>
       </c>
@@ -8025,7 +7327,7 @@
       </c>
       <c r="O138" s="11"/>
       <c r="P138" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q138" s="4"/>
     </row>
@@ -8036,27 +7338,33 @@
       </c>
       <c r="B139" s="5"/>
       <c r="C139" s="6"/>
-      <c r="D139" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="F139" s="6"/>
       <c r="G139" s="7"/>
       <c r="H139" s="4"/>
       <c r="I139" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J139" s="9"/>
-      <c r="K139" s="22"/>
+        <v>14</v>
+      </c>
+      <c r="J139" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K139" s="12"/>
       <c r="L139" s="11">
-        <v>44466</v>
+        <v>44394</v>
       </c>
       <c r="M139" s="11">
-        <v>44528</v>
-      </c>
-      <c r="N139" s="11"/>
+        <v>44465</v>
+      </c>
+      <c r="N139" s="11">
+        <v>44394</v>
+      </c>
       <c r="O139" s="11"/>
-      <c r="P139" s="9"/>
+      <c r="P139" s="9">
+        <v>2</v>
+      </c>
       <c r="Q139" s="4"/>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.2">
@@ -8066,34 +7374,28 @@
       </c>
       <c r="B140" s="5"/>
       <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6" t="s">
-        <v>109</v>
-      </c>
+      <c r="D140" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" s="6"/>
       <c r="F140" s="6"/>
       <c r="G140" s="7"/>
-      <c r="H140" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="H140" s="4"/>
       <c r="I140" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J140" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K140" s="21"/>
+        <v>13</v>
+      </c>
+      <c r="J140" s="9"/>
+      <c r="K140" s="13"/>
       <c r="L140" s="11">
         <v>44466</v>
       </c>
       <c r="M140" s="11">
-        <v>44514</v>
+        <v>44528</v>
       </c>
       <c r="N140" s="11"/>
       <c r="O140" s="11"/>
       <c r="P140" s="9"/>
-      <c r="Q140" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="Q140" s="4"/>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" s="8">
@@ -8104,7 +7406,7 @@
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
       <c r="E141" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F141" s="6"/>
       <c r="G141" s="7"/>
@@ -8117,17 +7419,19 @@
       <c r="J141" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K141" s="21"/>
+      <c r="K141" s="12"/>
       <c r="L141" s="11">
+        <v>44466</v>
+      </c>
+      <c r="M141" s="11">
         <v>44514</v>
-      </c>
-      <c r="M141" s="11">
-        <v>44528</v>
       </c>
       <c r="N141" s="11"/>
       <c r="O141" s="11"/>
       <c r="P141" s="9"/>
-      <c r="Q141" s="4"/>
+      <c r="Q141" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" s="8">
@@ -8138,7 +7442,7 @@
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
       <c r="E142" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F142" s="6"/>
       <c r="G142" s="7"/>
@@ -8151,19 +7455,17 @@
       <c r="J142" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K142" s="22"/>
+      <c r="K142" s="12"/>
       <c r="L142" s="11">
-        <v>44466</v>
+        <v>44514</v>
       </c>
       <c r="M142" s="11">
-        <v>44514</v>
+        <v>44528</v>
       </c>
       <c r="N142" s="11"/>
       <c r="O142" s="11"/>
       <c r="P142" s="9"/>
-      <c r="Q142" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="Q142" s="4"/>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" s="8">
@@ -8174,7 +7476,7 @@
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
       <c r="E143" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="7"/>
@@ -8187,17 +7489,19 @@
       <c r="J143" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K143" s="21"/>
+      <c r="K143" s="13"/>
       <c r="L143" s="11">
+        <v>44466</v>
+      </c>
+      <c r="M143" s="11">
         <v>44514</v>
-      </c>
-      <c r="M143" s="11">
-        <v>44528</v>
       </c>
       <c r="N143" s="11"/>
       <c r="O143" s="11"/>
       <c r="P143" s="9"/>
-      <c r="Q143" s="4"/>
+      <c r="Q143" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" s="8">
@@ -8206,23 +7510,27 @@
       </c>
       <c r="B144" s="5"/>
       <c r="C144" s="6"/>
-      <c r="D144" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="F144" s="6"/>
       <c r="G144" s="7"/>
-      <c r="H144" s="4"/>
+      <c r="H144" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="I144" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J144" s="9"/>
-      <c r="K144" s="22"/>
+        <v>14</v>
+      </c>
+      <c r="J144" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K144" s="12"/>
       <c r="L144" s="11">
-        <v>44466</v>
+        <v>44514</v>
       </c>
       <c r="M144" s="11">
-        <v>44499</v>
+        <v>44528</v>
       </c>
       <c r="N144" s="11"/>
       <c r="O144" s="11"/>
@@ -8236,25 +7544,23 @@
       </c>
       <c r="B145" s="5"/>
       <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="D145" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E145" s="6"/>
       <c r="F145" s="6"/>
       <c r="G145" s="7"/>
       <c r="H145" s="4"/>
       <c r="I145" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J145" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="K145" s="21"/>
+        <v>13</v>
+      </c>
+      <c r="J145" s="9"/>
+      <c r="K145" s="13"/>
       <c r="L145" s="11">
         <v>44466</v>
       </c>
       <c r="M145" s="11">
-        <v>44483</v>
+        <v>44499</v>
       </c>
       <c r="N145" s="11"/>
       <c r="O145" s="11"/>
@@ -8270,7 +7576,7 @@
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
       <c r="E146" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="7"/>
@@ -8279,14 +7585,14 @@
         <v>14</v>
       </c>
       <c r="J146" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K146" s="22"/>
+        <v>124</v>
+      </c>
+      <c r="K146" s="12"/>
       <c r="L146" s="11">
-        <v>44484</v>
+        <v>44466</v>
       </c>
       <c r="M146" s="11">
-        <v>44491</v>
+        <v>44483</v>
       </c>
       <c r="N146" s="11"/>
       <c r="O146" s="11"/>
@@ -8302,7 +7608,7 @@
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="7"/>
@@ -8311,14 +7617,14 @@
         <v>14</v>
       </c>
       <c r="J147" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="K147" s="21"/>
+        <v>46</v>
+      </c>
+      <c r="K147" s="13"/>
       <c r="L147" s="11">
-        <v>44492</v>
+        <v>44484</v>
       </c>
       <c r="M147" s="11">
-        <v>44499</v>
+        <v>44491</v>
       </c>
       <c r="N147" s="11"/>
       <c r="O147" s="11"/>
@@ -8332,23 +7638,25 @@
       </c>
       <c r="B148" s="5"/>
       <c r="C148" s="6"/>
-      <c r="D148" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="F148" s="6"/>
       <c r="G148" s="7"/>
       <c r="H148" s="4"/>
       <c r="I148" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J148" s="9"/>
-      <c r="K148" s="22"/>
+        <v>14</v>
+      </c>
+      <c r="J148" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="K148" s="12"/>
       <c r="L148" s="11">
-        <v>44529</v>
+        <v>44492</v>
       </c>
       <c r="M148" s="11">
-        <v>44590</v>
+        <v>44499</v>
       </c>
       <c r="N148" s="11"/>
       <c r="O148" s="11"/>
@@ -8362,23 +7670,23 @@
       </c>
       <c r="B149" s="5"/>
       <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="D149" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E149" s="6"/>
       <c r="F149" s="6"/>
       <c r="G149" s="7"/>
       <c r="H149" s="4"/>
       <c r="I149" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J149" s="9"/>
-      <c r="K149" s="21"/>
+      <c r="K149" s="13"/>
       <c r="L149" s="11">
         <v>44529</v>
       </c>
       <c r="M149" s="11">
-        <v>44534</v>
+        <v>44590</v>
       </c>
       <c r="N149" s="11"/>
       <c r="O149" s="11"/>
@@ -8394,7 +7702,7 @@
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
       <c r="E150" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F150" s="6"/>
       <c r="G150" s="7"/>
@@ -8403,12 +7711,12 @@
         <v>14</v>
       </c>
       <c r="J150" s="9"/>
-      <c r="K150" s="22"/>
+      <c r="K150" s="12"/>
       <c r="L150" s="11">
-        <v>44535</v>
+        <v>44529</v>
       </c>
       <c r="M150" s="11">
-        <v>44556</v>
+        <v>44534</v>
       </c>
       <c r="N150" s="11"/>
       <c r="O150" s="11"/>
@@ -8424,7 +7732,7 @@
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
       <c r="E151" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F151" s="6"/>
       <c r="G151" s="7"/>
@@ -8433,12 +7741,12 @@
         <v>14</v>
       </c>
       <c r="J151" s="9"/>
-      <c r="K151" s="21"/>
+      <c r="K151" s="13"/>
       <c r="L151" s="11">
-        <v>44557</v>
+        <v>44535</v>
       </c>
       <c r="M151" s="11">
-        <v>44576</v>
+        <v>44556</v>
       </c>
       <c r="N151" s="11"/>
       <c r="O151" s="11"/>
@@ -8454,7 +7762,7 @@
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
       <c r="E152" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F152" s="6"/>
       <c r="G152" s="7"/>
@@ -8463,7 +7771,7 @@
         <v>14</v>
       </c>
       <c r="J152" s="9"/>
-      <c r="K152" s="22"/>
+      <c r="K152" s="12"/>
       <c r="L152" s="11">
         <v>44557</v>
       </c>
@@ -8484,7 +7792,7 @@
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
       <c r="E153" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F153" s="6"/>
       <c r="G153" s="7"/>
@@ -8493,12 +7801,12 @@
         <v>14</v>
       </c>
       <c r="J153" s="9"/>
-      <c r="K153" s="21"/>
+      <c r="K153" s="13"/>
       <c r="L153" s="11">
+        <v>44557</v>
+      </c>
+      <c r="M153" s="11">
         <v>44576</v>
-      </c>
-      <c r="M153" s="11">
-        <v>44590</v>
       </c>
       <c r="N153" s="11"/>
       <c r="O153" s="11"/>
@@ -8512,23 +7820,23 @@
       </c>
       <c r="B154" s="5"/>
       <c r="C154" s="6"/>
-      <c r="D154" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="F154" s="6"/>
       <c r="G154" s="7"/>
       <c r="H154" s="4"/>
       <c r="I154" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J154" s="9"/>
-      <c r="K154" s="22"/>
+      <c r="K154" s="12"/>
       <c r="L154" s="11">
-        <v>44529</v>
+        <v>44576</v>
       </c>
       <c r="M154" s="11">
-        <v>44605</v>
+        <v>44590</v>
       </c>
       <c r="N154" s="11"/>
       <c r="O154" s="11"/>
@@ -8542,30 +7850,28 @@
       </c>
       <c r="B155" s="5"/>
       <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
-      <c r="E155" s="6" t="s">
-        <v>104</v>
-      </c>
+      <c r="D155" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E155" s="6"/>
       <c r="F155" s="6"/>
       <c r="G155" s="7"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J155" s="9"/>
-      <c r="K155" s="21"/>
+      <c r="K155" s="13"/>
       <c r="L155" s="11">
         <v>44529</v>
       </c>
       <c r="M155" s="11">
-        <v>44534</v>
+        <v>44605</v>
       </c>
       <c r="N155" s="11"/>
       <c r="O155" s="11"/>
       <c r="P155" s="9"/>
-      <c r="Q155" s="4" t="s">
-        <v>105</v>
-      </c>
+      <c r="Q155" s="4"/>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" s="8">
@@ -8576,7 +7882,7 @@
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
       <c r="E156" s="6" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F156" s="6"/>
       <c r="G156" s="7"/>
@@ -8585,17 +7891,19 @@
         <v>14</v>
       </c>
       <c r="J156" s="9"/>
-      <c r="K156" s="21"/>
+      <c r="K156" s="12"/>
       <c r="L156" s="11">
-        <v>44535</v>
+        <v>44529</v>
       </c>
       <c r="M156" s="11">
-        <v>44556</v>
+        <v>44534</v>
       </c>
       <c r="N156" s="11"/>
       <c r="O156" s="11"/>
       <c r="P156" s="9"/>
-      <c r="Q156" s="4"/>
+      <c r="Q156" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" s="8">
@@ -8606,7 +7914,7 @@
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
       <c r="E157" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F157" s="6"/>
       <c r="G157" s="7"/>
@@ -8614,15 +7922,13 @@
       <c r="I157" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J157" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K157" s="22"/>
+      <c r="J157" s="9"/>
+      <c r="K157" s="12"/>
       <c r="L157" s="11">
+        <v>44535</v>
+      </c>
+      <c r="M157" s="11">
         <v>44556</v>
-      </c>
-      <c r="M157" s="11">
-        <v>44212</v>
       </c>
       <c r="N157" s="11"/>
       <c r="O157" s="11"/>
@@ -8638,7 +7944,7 @@
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
       <c r="E158" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F158" s="6"/>
       <c r="G158" s="7"/>
@@ -8646,13 +7952,15 @@
       <c r="I158" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J158" s="9"/>
-      <c r="K158" s="21"/>
+      <c r="J158" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K158" s="13"/>
       <c r="L158" s="11">
-        <v>44213</v>
+        <v>44556</v>
       </c>
       <c r="M158" s="11">
-        <v>44605</v>
+        <v>44212</v>
       </c>
       <c r="N158" s="11"/>
       <c r="O158" s="11"/>
@@ -8666,26 +7974,28 @@
       </c>
       <c r="B159" s="5"/>
       <c r="C159" s="6"/>
-      <c r="D159" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="F159" s="6"/>
       <c r="G159" s="7"/>
       <c r="H159" s="4"/>
       <c r="I159" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J159" s="9"/>
-      <c r="K159" s="22"/>
-      <c r="L159" s="11"/>
-      <c r="M159" s="11"/>
+      <c r="K159" s="12"/>
+      <c r="L159" s="11">
+        <v>44213</v>
+      </c>
+      <c r="M159" s="11">
+        <v>44605</v>
+      </c>
       <c r="N159" s="11"/>
       <c r="O159" s="11"/>
       <c r="P159" s="9"/>
-      <c r="Q159" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="Q159" s="4"/>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" s="8">
@@ -8694,18 +8004,18 @@
       </c>
       <c r="B160" s="5"/>
       <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="6" t="s">
-        <v>96</v>
-      </c>
+      <c r="D160" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E160" s="6"/>
       <c r="F160" s="6"/>
       <c r="G160" s="7"/>
       <c r="H160" s="4"/>
       <c r="I160" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J160" s="9"/>
-      <c r="K160" s="21"/>
+      <c r="K160" s="13"/>
       <c r="L160" s="11"/>
       <c r="M160" s="11"/>
       <c r="N160" s="11"/>
@@ -8724,7 +8034,7 @@
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
       <c r="E161" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F161" s="6"/>
       <c r="G161" s="7"/>
@@ -8732,10 +8042,8 @@
       <c r="I161" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J161" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K161" s="22"/>
+      <c r="J161" s="9"/>
+      <c r="K161" s="12"/>
       <c r="L161" s="11"/>
       <c r="M161" s="11"/>
       <c r="N161" s="11"/>
@@ -8754,7 +8062,7 @@
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
       <c r="E162" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F162" s="6"/>
       <c r="G162" s="7"/>
@@ -8762,8 +8070,10 @@
       <c r="I162" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J162" s="9"/>
-      <c r="K162" s="21"/>
+      <c r="J162" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K162" s="13"/>
       <c r="L162" s="11"/>
       <c r="M162" s="11"/>
       <c r="N162" s="11"/>
@@ -8780,18 +8090,18 @@
       </c>
       <c r="B163" s="5"/>
       <c r="C163" s="6"/>
-      <c r="D163" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="F163" s="6"/>
       <c r="G163" s="7"/>
       <c r="H163" s="4"/>
       <c r="I163" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J163" s="9"/>
-      <c r="K163" s="22"/>
+      <c r="K163" s="12"/>
       <c r="L163" s="11"/>
       <c r="M163" s="11"/>
       <c r="N163" s="11"/>
@@ -8808,18 +8118,18 @@
       </c>
       <c r="B164" s="5"/>
       <c r="C164" s="6"/>
-      <c r="D164" s="6"/>
-      <c r="E164" s="6" t="s">
-        <v>100</v>
-      </c>
+      <c r="D164" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="7"/>
       <c r="H164" s="4"/>
       <c r="I164" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J164" s="9"/>
-      <c r="K164" s="21"/>
+      <c r="K164" s="13"/>
       <c r="L164" s="11"/>
       <c r="M164" s="11"/>
       <c r="N164" s="11"/>
@@ -8838,7 +8148,7 @@
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
       <c r="E165" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F165" s="6"/>
       <c r="G165" s="7"/>
@@ -8846,10 +8156,8 @@
       <c r="I165" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J165" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K165" s="22"/>
+      <c r="J165" s="9"/>
+      <c r="K165" s="12"/>
       <c r="L165" s="11"/>
       <c r="M165" s="11"/>
       <c r="N165" s="11"/>
@@ -8868,7 +8176,7 @@
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
       <c r="E166" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F166" s="6"/>
       <c r="G166" s="7"/>
@@ -8876,8 +8184,10 @@
       <c r="I166" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J166" s="9"/>
-      <c r="K166" s="21"/>
+      <c r="J166" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K166" s="13"/>
       <c r="L166" s="11"/>
       <c r="M166" s="11"/>
       <c r="N166" s="11"/>
@@ -8894,28 +8204,26 @@
       </c>
       <c r="B167" s="5"/>
       <c r="C167" s="6"/>
-      <c r="D167" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="F167" s="6"/>
       <c r="G167" s="7"/>
       <c r="H167" s="4"/>
       <c r="I167" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J167" s="9"/>
-      <c r="K167" s="22"/>
-      <c r="L167" s="11">
-        <v>44591</v>
-      </c>
-      <c r="M167" s="11">
-        <v>44625</v>
-      </c>
+      <c r="K167" s="12"/>
+      <c r="L167" s="11"/>
+      <c r="M167" s="11"/>
       <c r="N167" s="11"/>
       <c r="O167" s="11"/>
       <c r="P167" s="9"/>
-      <c r="Q167" s="4"/>
+      <c r="Q167" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168" s="8">
@@ -8924,23 +8232,23 @@
       </c>
       <c r="B168" s="5"/>
       <c r="C168" s="6"/>
-      <c r="D168" s="6"/>
-      <c r="E168" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="D168" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" s="7"/>
       <c r="H168" s="4"/>
       <c r="I168" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J168" s="9"/>
-      <c r="K168" s="21"/>
+      <c r="K168" s="13"/>
       <c r="L168" s="11">
         <v>44591</v>
       </c>
       <c r="M168" s="11">
-        <v>44604</v>
+        <v>44625</v>
       </c>
       <c r="N168" s="11"/>
       <c r="O168" s="11"/>
@@ -8956,7 +8264,7 @@
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
       <c r="E169" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F169" s="6"/>
       <c r="G169" s="7"/>
@@ -8964,15 +8272,13 @@
       <c r="I169" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J169" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K169" s="22"/>
+      <c r="J169" s="9"/>
+      <c r="K169" s="12"/>
       <c r="L169" s="11">
-        <v>44605</v>
+        <v>44591</v>
       </c>
       <c r="M169" s="11">
-        <v>44618</v>
+        <v>44604</v>
       </c>
       <c r="N169" s="11"/>
       <c r="O169" s="11"/>
@@ -8988,7 +8294,7 @@
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
       <c r="E170" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F170" s="6"/>
       <c r="G170" s="7"/>
@@ -8996,13 +8302,15 @@
       <c r="I170" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J170" s="9"/>
-      <c r="K170" s="21"/>
+      <c r="J170" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K170" s="13"/>
       <c r="L170" s="11">
-        <v>44619</v>
+        <v>44605</v>
       </c>
       <c r="M170" s="11">
-        <v>44625</v>
+        <v>44618</v>
       </c>
       <c r="N170" s="11"/>
       <c r="O170" s="11"/>
@@ -9016,23 +8324,23 @@
       </c>
       <c r="B171" s="5"/>
       <c r="C171" s="6"/>
-      <c r="D171" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="F171" s="6"/>
       <c r="G171" s="7"/>
       <c r="H171" s="4"/>
       <c r="I171" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J171" s="9"/>
-      <c r="K171" s="22"/>
+      <c r="K171" s="12"/>
       <c r="L171" s="11">
-        <v>44654</v>
+        <v>44619</v>
       </c>
       <c r="M171" s="11">
-        <v>44688</v>
+        <v>44625</v>
       </c>
       <c r="N171" s="11"/>
       <c r="O171" s="11"/>
@@ -9046,23 +8354,23 @@
       </c>
       <c r="B172" s="5"/>
       <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-      <c r="E172" s="6" t="s">
-        <v>93</v>
-      </c>
+      <c r="D172" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E172" s="6"/>
       <c r="F172" s="6"/>
       <c r="G172" s="7"/>
       <c r="H172" s="4"/>
       <c r="I172" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J172" s="9"/>
-      <c r="K172" s="21"/>
+      <c r="K172" s="13"/>
       <c r="L172" s="11">
         <v>44654</v>
       </c>
       <c r="M172" s="11">
-        <v>44668</v>
+        <v>44688</v>
       </c>
       <c r="N172" s="11"/>
       <c r="O172" s="11"/>
@@ -9078,7 +8386,7 @@
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
       <c r="E173" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F173" s="6"/>
       <c r="G173" s="7"/>
@@ -9086,15 +8394,13 @@
       <c r="I173" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J173" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K173" s="22"/>
+      <c r="J173" s="9"/>
+      <c r="K173" s="12"/>
       <c r="L173" s="11">
-        <v>44669</v>
+        <v>44654</v>
       </c>
       <c r="M173" s="11">
-        <v>44675</v>
+        <v>44668</v>
       </c>
       <c r="N173" s="11"/>
       <c r="O173" s="11"/>
@@ -9110,7 +8416,7 @@
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
       <c r="E174" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F174" s="6"/>
       <c r="G174" s="7"/>
@@ -9118,13 +8424,15 @@
       <c r="I174" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J174" s="9"/>
-      <c r="K174" s="21"/>
+      <c r="J174" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K174" s="13"/>
       <c r="L174" s="11">
-        <v>44676</v>
+        <v>44669</v>
       </c>
       <c r="M174" s="11">
-        <v>44688</v>
+        <v>44675</v>
       </c>
       <c r="N174" s="11"/>
       <c r="O174" s="11"/>
@@ -9139,15 +8447,23 @@
       <c r="B175" s="5"/>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
-      <c r="E175" s="6"/>
+      <c r="E175" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="F175" s="6"/>
       <c r="G175" s="7"/>
       <c r="H175" s="4"/>
-      <c r="I175" s="4"/>
+      <c r="I175" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="J175" s="9"/>
-      <c r="K175" s="22"/>
-      <c r="L175" s="11"/>
-      <c r="M175" s="11"/>
+      <c r="K175" s="12"/>
+      <c r="L175" s="11">
+        <v>44676</v>
+      </c>
+      <c r="M175" s="11">
+        <v>44688</v>
+      </c>
       <c r="N175" s="11"/>
       <c r="O175" s="11"/>
       <c r="P175" s="9"/>
@@ -9159,19 +8475,15 @@
         <v>174</v>
       </c>
       <c r="B176" s="5"/>
-      <c r="C176" s="6" t="s">
-        <v>112</v>
-      </c>
+      <c r="C176" s="6"/>
       <c r="D176" s="6"/>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
       <c r="G176" s="7"/>
       <c r="H176" s="4"/>
-      <c r="I176" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="I176" s="4"/>
       <c r="J176" s="9"/>
-      <c r="K176" s="21"/>
+      <c r="K176" s="13"/>
       <c r="L176" s="11"/>
       <c r="M176" s="11"/>
       <c r="N176" s="11"/>
@@ -9185,21 +8497,19 @@
         <v>175</v>
       </c>
       <c r="B177" s="5"/>
-      <c r="C177" s="6"/>
-      <c r="D177" s="6" t="s">
-        <v>113</v>
-      </c>
+      <c r="C177" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D177" s="6"/>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
       <c r="G177" s="7"/>
-      <c r="H177" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="H177" s="4"/>
       <c r="I177" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J177" s="9"/>
-      <c r="K177" s="22"/>
+      <c r="K177" s="12"/>
       <c r="L177" s="11"/>
       <c r="M177" s="11"/>
       <c r="N177" s="11"/>
@@ -9215,7 +8525,7 @@
       <c r="B178" s="5"/>
       <c r="C178" s="6"/>
       <c r="D178" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
@@ -9227,7 +8537,7 @@
         <v>14</v>
       </c>
       <c r="J178" s="9"/>
-      <c r="K178" s="21"/>
+      <c r="K178" s="13"/>
       <c r="L178" s="11"/>
       <c r="M178" s="11"/>
       <c r="N178" s="11"/>
@@ -9243,17 +8553,19 @@
       <c r="B179" s="5"/>
       <c r="C179" s="6"/>
       <c r="D179" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
       <c r="G179" s="7"/>
-      <c r="H179" s="4"/>
+      <c r="H179" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="I179" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J179" s="9"/>
-      <c r="K179" s="22"/>
+      <c r="K179" s="12"/>
       <c r="L179" s="11"/>
       <c r="M179" s="11"/>
       <c r="N179" s="11"/>
@@ -9268,14 +8580,18 @@
       </c>
       <c r="B180" s="5"/>
       <c r="C180" s="6"/>
-      <c r="D180" s="6"/>
+      <c r="D180" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
       <c r="G180" s="7"/>
       <c r="H180" s="4"/>
-      <c r="I180" s="4"/>
+      <c r="I180" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="J180" s="9"/>
-      <c r="K180" s="10"/>
+      <c r="K180" s="13"/>
       <c r="L180" s="11"/>
       <c r="M180" s="11"/>
       <c r="N180" s="11"/>
@@ -9297,7 +8613,7 @@
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
       <c r="J181" s="9"/>
-      <c r="K181" s="9"/>
+      <c r="K181" s="10"/>
       <c r="L181" s="11"/>
       <c r="M181" s="11"/>
       <c r="N181" s="11"/>
@@ -9319,7 +8635,7 @@
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
       <c r="J182" s="9"/>
-      <c r="K182" s="10"/>
+      <c r="K182" s="9"/>
       <c r="L182" s="11"/>
       <c r="M182" s="11"/>
       <c r="N182" s="11"/>
@@ -9341,7 +8657,7 @@
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
       <c r="J183" s="9"/>
-      <c r="K183" s="9"/>
+      <c r="K183" s="10"/>
       <c r="L183" s="11"/>
       <c r="M183" s="11"/>
       <c r="N183" s="11"/>
@@ -9363,7 +8679,7 @@
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
       <c r="J184" s="9"/>
-      <c r="K184" s="10"/>
+      <c r="K184" s="9"/>
       <c r="L184" s="11"/>
       <c r="M184" s="11"/>
       <c r="N184" s="11"/>
@@ -9385,7 +8701,7 @@
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
       <c r="J185" s="9"/>
-      <c r="K185" s="9"/>
+      <c r="K185" s="10"/>
       <c r="L185" s="11"/>
       <c r="M185" s="11"/>
       <c r="N185" s="11"/>
@@ -9407,7 +8723,7 @@
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
       <c r="J186" s="9"/>
-      <c r="K186" s="10"/>
+      <c r="K186" s="9"/>
       <c r="L186" s="11"/>
       <c r="M186" s="11"/>
       <c r="N186" s="11"/>
@@ -9429,7 +8745,7 @@
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
       <c r="J187" s="9"/>
-      <c r="K187" s="9"/>
+      <c r="K187" s="10"/>
       <c r="L187" s="11"/>
       <c r="M187" s="11"/>
       <c r="N187" s="11"/>
@@ -9451,7 +8767,7 @@
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
       <c r="J188" s="9"/>
-      <c r="K188" s="10"/>
+      <c r="K188" s="9"/>
       <c r="L188" s="11"/>
       <c r="M188" s="11"/>
       <c r="N188" s="11"/>
@@ -9473,7 +8789,7 @@
       <c r="H189" s="4"/>
       <c r="I189" s="4"/>
       <c r="J189" s="9"/>
-      <c r="K189" s="9"/>
+      <c r="K189" s="10"/>
       <c r="L189" s="11"/>
       <c r="M189" s="11"/>
       <c r="N189" s="11"/>
@@ -9495,7 +8811,7 @@
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
       <c r="J190" s="9"/>
-      <c r="K190" s="10"/>
+      <c r="K190" s="9"/>
       <c r="L190" s="11"/>
       <c r="M190" s="11"/>
       <c r="N190" s="11"/>
@@ -9517,7 +8833,7 @@
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
       <c r="J191" s="9"/>
-      <c r="K191" s="9"/>
+      <c r="K191" s="10"/>
       <c r="L191" s="11"/>
       <c r="M191" s="11"/>
       <c r="N191" s="11"/>
@@ -9539,7 +8855,7 @@
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
       <c r="J192" s="9"/>
-      <c r="K192" s="10"/>
+      <c r="K192" s="9"/>
       <c r="L192" s="11"/>
       <c r="M192" s="11"/>
       <c r="N192" s="11"/>
@@ -9561,7 +8877,7 @@
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
       <c r="J193" s="9"/>
-      <c r="K193" s="9"/>
+      <c r="K193" s="10"/>
       <c r="L193" s="11"/>
       <c r="M193" s="11"/>
       <c r="N193" s="11"/>
@@ -9583,7 +8899,7 @@
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
       <c r="J194" s="9"/>
-      <c r="K194" s="10"/>
+      <c r="K194" s="9"/>
       <c r="L194" s="11"/>
       <c r="M194" s="11"/>
       <c r="N194" s="11"/>
@@ -9605,7 +8921,7 @@
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
       <c r="J195" s="9"/>
-      <c r="K195" s="9"/>
+      <c r="K195" s="10"/>
       <c r="L195" s="11"/>
       <c r="M195" s="11"/>
       <c r="N195" s="11"/>
@@ -9627,7 +8943,7 @@
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
       <c r="J196" s="9"/>
-      <c r="K196" s="10"/>
+      <c r="K196" s="9"/>
       <c r="L196" s="11"/>
       <c r="M196" s="11"/>
       <c r="N196" s="11"/>
@@ -9649,7 +8965,7 @@
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
       <c r="J197" s="9"/>
-      <c r="K197" s="9"/>
+      <c r="K197" s="10"/>
       <c r="L197" s="11"/>
       <c r="M197" s="11"/>
       <c r="N197" s="11"/>
@@ -9671,7 +8987,7 @@
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
       <c r="J198" s="9"/>
-      <c r="K198" s="10"/>
+      <c r="K198" s="9"/>
       <c r="L198" s="11"/>
       <c r="M198" s="11"/>
       <c r="N198" s="11"/>
@@ -9693,7 +9009,7 @@
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
       <c r="J199" s="9"/>
-      <c r="K199" s="9"/>
+      <c r="K199" s="10"/>
       <c r="L199" s="11"/>
       <c r="M199" s="11"/>
       <c r="N199" s="11"/>
@@ -9715,7 +9031,7 @@
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
       <c r="J200" s="9"/>
-      <c r="K200" s="10"/>
+      <c r="K200" s="9"/>
       <c r="L200" s="11"/>
       <c r="M200" s="11"/>
       <c r="N200" s="11"/>
@@ -9737,7 +9053,7 @@
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
       <c r="J201" s="9"/>
-      <c r="K201" s="9"/>
+      <c r="K201" s="10"/>
       <c r="L201" s="11"/>
       <c r="M201" s="11"/>
       <c r="N201" s="11"/>
@@ -9759,7 +9075,7 @@
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
       <c r="J202" s="9"/>
-      <c r="K202" s="10"/>
+      <c r="K202" s="9"/>
       <c r="L202" s="11"/>
       <c r="M202" s="11"/>
       <c r="N202" s="11"/>
@@ -9781,7 +9097,7 @@
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
       <c r="J203" s="9"/>
-      <c r="K203" s="9"/>
+      <c r="K203" s="10"/>
       <c r="L203" s="11"/>
       <c r="M203" s="11"/>
       <c r="N203" s="11"/>
@@ -9803,7 +9119,7 @@
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
       <c r="J204" s="9"/>
-      <c r="K204" s="10"/>
+      <c r="K204" s="9"/>
       <c r="L204" s="11"/>
       <c r="M204" s="11"/>
       <c r="N204" s="11"/>
@@ -9825,7 +9141,7 @@
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
       <c r="J205" s="9"/>
-      <c r="K205" s="9"/>
+      <c r="K205" s="10"/>
       <c r="L205" s="11"/>
       <c r="M205" s="11"/>
       <c r="N205" s="11"/>
@@ -9847,7 +9163,7 @@
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
       <c r="J206" s="9"/>
-      <c r="K206" s="10"/>
+      <c r="K206" s="9"/>
       <c r="L206" s="11"/>
       <c r="M206" s="11"/>
       <c r="N206" s="11"/>
@@ -9869,7 +9185,7 @@
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
       <c r="J207" s="9"/>
-      <c r="K207" s="9"/>
+      <c r="K207" s="10"/>
       <c r="L207" s="11"/>
       <c r="M207" s="11"/>
       <c r="N207" s="11"/>
@@ -9891,7 +9207,7 @@
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
       <c r="J208" s="9"/>
-      <c r="K208" s="10"/>
+      <c r="K208" s="9"/>
       <c r="L208" s="11"/>
       <c r="M208" s="11"/>
       <c r="N208" s="11"/>
@@ -9913,7 +9229,7 @@
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
       <c r="J209" s="9"/>
-      <c r="K209" s="9"/>
+      <c r="K209" s="10"/>
       <c r="L209" s="11"/>
       <c r="M209" s="11"/>
       <c r="N209" s="11"/>
@@ -9935,7 +9251,7 @@
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
       <c r="J210" s="9"/>
-      <c r="K210" s="10"/>
+      <c r="K210" s="9"/>
       <c r="L210" s="11"/>
       <c r="M210" s="11"/>
       <c r="N210" s="11"/>
@@ -9957,7 +9273,7 @@
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
       <c r="J211" s="9"/>
-      <c r="K211" s="9"/>
+      <c r="K211" s="10"/>
       <c r="L211" s="11"/>
       <c r="M211" s="11"/>
       <c r="N211" s="11"/>
@@ -9979,7 +9295,7 @@
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
       <c r="J212" s="9"/>
-      <c r="K212" s="10"/>
+      <c r="K212" s="9"/>
       <c r="L212" s="11"/>
       <c r="M212" s="11"/>
       <c r="N212" s="11"/>
@@ -10001,7 +9317,7 @@
       <c r="H213" s="4"/>
       <c r="I213" s="4"/>
       <c r="J213" s="9"/>
-      <c r="K213" s="9"/>
+      <c r="K213" s="10"/>
       <c r="L213" s="11"/>
       <c r="M213" s="11"/>
       <c r="N213" s="11"/>
@@ -10023,7 +9339,7 @@
       <c r="H214" s="4"/>
       <c r="I214" s="4"/>
       <c r="J214" s="9"/>
-      <c r="K214" s="10"/>
+      <c r="K214" s="9"/>
       <c r="L214" s="11"/>
       <c r="M214" s="11"/>
       <c r="N214" s="11"/>
@@ -10045,7 +9361,7 @@
       <c r="H215" s="4"/>
       <c r="I215" s="4"/>
       <c r="J215" s="9"/>
-      <c r="K215" s="9"/>
+      <c r="K215" s="10"/>
       <c r="L215" s="11"/>
       <c r="M215" s="11"/>
       <c r="N215" s="11"/>
@@ -10067,7 +9383,7 @@
       <c r="H216" s="4"/>
       <c r="I216" s="4"/>
       <c r="J216" s="9"/>
-      <c r="K216" s="10"/>
+      <c r="K216" s="9"/>
       <c r="L216" s="11"/>
       <c r="M216" s="11"/>
       <c r="N216" s="11"/>
@@ -10089,7 +9405,7 @@
       <c r="H217" s="4"/>
       <c r="I217" s="4"/>
       <c r="J217" s="9"/>
-      <c r="K217" s="9"/>
+      <c r="K217" s="10"/>
       <c r="L217" s="11"/>
       <c r="M217" s="11"/>
       <c r="N217" s="11"/>
@@ -10111,7 +9427,7 @@
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
       <c r="J218" s="9"/>
-      <c r="K218" s="10"/>
+      <c r="K218" s="9"/>
       <c r="L218" s="11"/>
       <c r="M218" s="11"/>
       <c r="N218" s="11"/>
@@ -10133,7 +9449,7 @@
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
       <c r="J219" s="9"/>
-      <c r="K219" s="9"/>
+      <c r="K219" s="10"/>
       <c r="L219" s="11"/>
       <c r="M219" s="11"/>
       <c r="N219" s="11"/>
@@ -10155,7 +9471,7 @@
       <c r="H220" s="4"/>
       <c r="I220" s="4"/>
       <c r="J220" s="9"/>
-      <c r="K220" s="10"/>
+      <c r="K220" s="9"/>
       <c r="L220" s="11"/>
       <c r="M220" s="11"/>
       <c r="N220" s="11"/>
@@ -10177,7 +9493,7 @@
       <c r="H221" s="4"/>
       <c r="I221" s="4"/>
       <c r="J221" s="9"/>
-      <c r="K221" s="9"/>
+      <c r="K221" s="10"/>
       <c r="L221" s="11"/>
       <c r="M221" s="11"/>
       <c r="N221" s="11"/>
@@ -10199,7 +9515,7 @@
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
       <c r="J222" s="9"/>
-      <c r="K222" s="10"/>
+      <c r="K222" s="9"/>
       <c r="L222" s="11"/>
       <c r="M222" s="11"/>
       <c r="N222" s="11"/>
@@ -10221,7 +9537,7 @@
       <c r="H223" s="4"/>
       <c r="I223" s="4"/>
       <c r="J223" s="9"/>
-      <c r="K223" s="9"/>
+      <c r="K223" s="10"/>
       <c r="L223" s="11"/>
       <c r="M223" s="11"/>
       <c r="N223" s="11"/>
@@ -10243,7 +9559,7 @@
       <c r="H224" s="4"/>
       <c r="I224" s="4"/>
       <c r="J224" s="9"/>
-      <c r="K224" s="10"/>
+      <c r="K224" s="9"/>
       <c r="L224" s="11"/>
       <c r="M224" s="11"/>
       <c r="N224" s="11"/>
@@ -10265,7 +9581,7 @@
       <c r="H225" s="4"/>
       <c r="I225" s="4"/>
       <c r="J225" s="9"/>
-      <c r="K225" s="9"/>
+      <c r="K225" s="10"/>
       <c r="L225" s="11"/>
       <c r="M225" s="11"/>
       <c r="N225" s="11"/>
@@ -10287,7 +9603,7 @@
       <c r="H226" s="4"/>
       <c r="I226" s="4"/>
       <c r="J226" s="9"/>
-      <c r="K226" s="10"/>
+      <c r="K226" s="9"/>
       <c r="L226" s="11"/>
       <c r="M226" s="11"/>
       <c r="N226" s="11"/>
@@ -10309,7 +9625,7 @@
       <c r="H227" s="4"/>
       <c r="I227" s="4"/>
       <c r="J227" s="9"/>
-      <c r="K227" s="9"/>
+      <c r="K227" s="10"/>
       <c r="L227" s="11"/>
       <c r="M227" s="11"/>
       <c r="N227" s="11"/>
@@ -10331,7 +9647,7 @@
       <c r="H228" s="4"/>
       <c r="I228" s="4"/>
       <c r="J228" s="9"/>
-      <c r="K228" s="10"/>
+      <c r="K228" s="9"/>
       <c r="L228" s="11"/>
       <c r="M228" s="11"/>
       <c r="N228" s="11"/>
@@ -10353,7 +9669,7 @@
       <c r="H229" s="4"/>
       <c r="I229" s="4"/>
       <c r="J229" s="9"/>
-      <c r="K229" s="9"/>
+      <c r="K229" s="10"/>
       <c r="L229" s="11"/>
       <c r="M229" s="11"/>
       <c r="N229" s="11"/>
@@ -10375,7 +9691,7 @@
       <c r="H230" s="4"/>
       <c r="I230" s="4"/>
       <c r="J230" s="9"/>
-      <c r="K230" s="10"/>
+      <c r="K230" s="9"/>
       <c r="L230" s="11"/>
       <c r="M230" s="11"/>
       <c r="N230" s="11"/>
@@ -10397,7 +9713,7 @@
       <c r="H231" s="4"/>
       <c r="I231" s="4"/>
       <c r="J231" s="9"/>
-      <c r="K231" s="9"/>
+      <c r="K231" s="10"/>
       <c r="L231" s="11"/>
       <c r="M231" s="11"/>
       <c r="N231" s="11"/>
@@ -10419,7 +9735,7 @@
       <c r="H232" s="4"/>
       <c r="I232" s="4"/>
       <c r="J232" s="9"/>
-      <c r="K232" s="10"/>
+      <c r="K232" s="9"/>
       <c r="L232" s="11"/>
       <c r="M232" s="11"/>
       <c r="N232" s="11"/>
@@ -10441,7 +9757,7 @@
       <c r="H233" s="4"/>
       <c r="I233" s="4"/>
       <c r="J233" s="9"/>
-      <c r="K233" s="9"/>
+      <c r="K233" s="10"/>
       <c r="L233" s="11"/>
       <c r="M233" s="11"/>
       <c r="N233" s="11"/>
@@ -10463,7 +9779,7 @@
       <c r="H234" s="4"/>
       <c r="I234" s="4"/>
       <c r="J234" s="9"/>
-      <c r="K234" s="10"/>
+      <c r="K234" s="9"/>
       <c r="L234" s="11"/>
       <c r="M234" s="11"/>
       <c r="N234" s="11"/>
@@ -10485,7 +9801,7 @@
       <c r="H235" s="4"/>
       <c r="I235" s="4"/>
       <c r="J235" s="9"/>
-      <c r="K235" s="9"/>
+      <c r="K235" s="10"/>
       <c r="L235" s="11"/>
       <c r="M235" s="11"/>
       <c r="N235" s="11"/>
@@ -10507,7 +9823,7 @@
       <c r="H236" s="4"/>
       <c r="I236" s="4"/>
       <c r="J236" s="9"/>
-      <c r="K236" s="10"/>
+      <c r="K236" s="9"/>
       <c r="L236" s="11"/>
       <c r="M236" s="11"/>
       <c r="N236" s="11"/>
@@ -10529,7 +9845,7 @@
       <c r="H237" s="4"/>
       <c r="I237" s="4"/>
       <c r="J237" s="9"/>
-      <c r="K237" s="9"/>
+      <c r="K237" s="10"/>
       <c r="L237" s="11"/>
       <c r="M237" s="11"/>
       <c r="N237" s="11"/>
@@ -10551,7 +9867,7 @@
       <c r="H238" s="4"/>
       <c r="I238" s="4"/>
       <c r="J238" s="9"/>
-      <c r="K238" s="10"/>
+      <c r="K238" s="9"/>
       <c r="L238" s="11"/>
       <c r="M238" s="11"/>
       <c r="N238" s="11"/>
@@ -10573,7 +9889,7 @@
       <c r="H239" s="4"/>
       <c r="I239" s="4"/>
       <c r="J239" s="9"/>
-      <c r="K239" s="9"/>
+      <c r="K239" s="10"/>
       <c r="L239" s="11"/>
       <c r="M239" s="11"/>
       <c r="N239" s="11"/>
@@ -10595,7 +9911,7 @@
       <c r="H240" s="4"/>
       <c r="I240" s="4"/>
       <c r="J240" s="9"/>
-      <c r="K240" s="10"/>
+      <c r="K240" s="9"/>
       <c r="L240" s="11"/>
       <c r="M240" s="11"/>
       <c r="N240" s="11"/>
@@ -10617,7 +9933,7 @@
       <c r="H241" s="4"/>
       <c r="I241" s="4"/>
       <c r="J241" s="9"/>
-      <c r="K241" s="9"/>
+      <c r="K241" s="10"/>
       <c r="L241" s="11"/>
       <c r="M241" s="11"/>
       <c r="N241" s="11"/>
@@ -10639,7 +9955,7 @@
       <c r="H242" s="4"/>
       <c r="I242" s="4"/>
       <c r="J242" s="9"/>
-      <c r="K242" s="10"/>
+      <c r="K242" s="9"/>
       <c r="L242" s="11"/>
       <c r="M242" s="11"/>
       <c r="N242" s="11"/>
@@ -10661,7 +9977,7 @@
       <c r="H243" s="4"/>
       <c r="I243" s="4"/>
       <c r="J243" s="9"/>
-      <c r="K243" s="9"/>
+      <c r="K243" s="10"/>
       <c r="L243" s="11"/>
       <c r="M243" s="11"/>
       <c r="N243" s="11"/>
@@ -10683,7 +9999,7 @@
       <c r="H244" s="4"/>
       <c r="I244" s="4"/>
       <c r="J244" s="9"/>
-      <c r="K244" s="10"/>
+      <c r="K244" s="9"/>
       <c r="L244" s="11"/>
       <c r="M244" s="11"/>
       <c r="N244" s="11"/>
@@ -10705,7 +10021,7 @@
       <c r="H245" s="4"/>
       <c r="I245" s="4"/>
       <c r="J245" s="9"/>
-      <c r="K245" s="9"/>
+      <c r="K245" s="10"/>
       <c r="L245" s="11"/>
       <c r="M245" s="11"/>
       <c r="N245" s="11"/>
@@ -10727,7 +10043,7 @@
       <c r="H246" s="4"/>
       <c r="I246" s="4"/>
       <c r="J246" s="9"/>
-      <c r="K246" s="10"/>
+      <c r="K246" s="9"/>
       <c r="L246" s="11"/>
       <c r="M246" s="11"/>
       <c r="N246" s="11"/>
@@ -10749,7 +10065,7 @@
       <c r="H247" s="4"/>
       <c r="I247" s="4"/>
       <c r="J247" s="9"/>
-      <c r="K247" s="9"/>
+      <c r="K247" s="10"/>
       <c r="L247" s="11"/>
       <c r="M247" s="11"/>
       <c r="N247" s="11"/>
@@ -10771,7 +10087,7 @@
       <c r="H248" s="4"/>
       <c r="I248" s="4"/>
       <c r="J248" s="9"/>
-      <c r="K248" s="10"/>
+      <c r="K248" s="9"/>
       <c r="L248" s="11"/>
       <c r="M248" s="11"/>
       <c r="N248" s="11"/>
@@ -10793,7 +10109,7 @@
       <c r="H249" s="4"/>
       <c r="I249" s="4"/>
       <c r="J249" s="9"/>
-      <c r="K249" s="9"/>
+      <c r="K249" s="10"/>
       <c r="L249" s="11"/>
       <c r="M249" s="11"/>
       <c r="N249" s="11"/>
@@ -10815,7 +10131,7 @@
       <c r="H250" s="4"/>
       <c r="I250" s="4"/>
       <c r="J250" s="9"/>
-      <c r="K250" s="10"/>
+      <c r="K250" s="9"/>
       <c r="L250" s="11"/>
       <c r="M250" s="11"/>
       <c r="N250" s="11"/>
@@ -10837,7 +10153,7 @@
       <c r="H251" s="4"/>
       <c r="I251" s="4"/>
       <c r="J251" s="9"/>
-      <c r="K251" s="9"/>
+      <c r="K251" s="10"/>
       <c r="L251" s="11"/>
       <c r="M251" s="11"/>
       <c r="N251" s="11"/>
@@ -10859,7 +10175,7 @@
       <c r="H252" s="4"/>
       <c r="I252" s="4"/>
       <c r="J252" s="9"/>
-      <c r="K252" s="10"/>
+      <c r="K252" s="9"/>
       <c r="L252" s="11"/>
       <c r="M252" s="11"/>
       <c r="N252" s="11"/>
@@ -10881,7 +10197,7 @@
       <c r="H253" s="4"/>
       <c r="I253" s="4"/>
       <c r="J253" s="9"/>
-      <c r="K253" s="9"/>
+      <c r="K253" s="10"/>
       <c r="L253" s="11"/>
       <c r="M253" s="11"/>
       <c r="N253" s="11"/>
@@ -10903,7 +10219,7 @@
       <c r="H254" s="4"/>
       <c r="I254" s="4"/>
       <c r="J254" s="9"/>
-      <c r="K254" s="10"/>
+      <c r="K254" s="9"/>
       <c r="L254" s="11"/>
       <c r="M254" s="11"/>
       <c r="N254" s="11"/>
@@ -10925,7 +10241,7 @@
       <c r="H255" s="4"/>
       <c r="I255" s="4"/>
       <c r="J255" s="9"/>
-      <c r="K255" s="9"/>
+      <c r="K255" s="10"/>
       <c r="L255" s="11"/>
       <c r="M255" s="11"/>
       <c r="N255" s="11"/>
@@ -10947,7 +10263,7 @@
       <c r="H256" s="4"/>
       <c r="I256" s="4"/>
       <c r="J256" s="9"/>
-      <c r="K256" s="10"/>
+      <c r="K256" s="9"/>
       <c r="L256" s="11"/>
       <c r="M256" s="11"/>
       <c r="N256" s="11"/>
@@ -10969,7 +10285,7 @@
       <c r="H257" s="4"/>
       <c r="I257" s="4"/>
       <c r="J257" s="9"/>
-      <c r="K257" s="9"/>
+      <c r="K257" s="10"/>
       <c r="L257" s="11"/>
       <c r="M257" s="11"/>
       <c r="N257" s="11"/>
@@ -10991,7 +10307,7 @@
       <c r="H258" s="4"/>
       <c r="I258" s="4"/>
       <c r="J258" s="9"/>
-      <c r="K258" s="10"/>
+      <c r="K258" s="9"/>
       <c r="L258" s="11"/>
       <c r="M258" s="11"/>
       <c r="N258" s="11"/>
@@ -11013,7 +10329,7 @@
       <c r="H259" s="4"/>
       <c r="I259" s="4"/>
       <c r="J259" s="9"/>
-      <c r="K259" s="9"/>
+      <c r="K259" s="10"/>
       <c r="L259" s="11"/>
       <c r="M259" s="11"/>
       <c r="N259" s="11"/>
@@ -11035,7 +10351,7 @@
       <c r="H260" s="4"/>
       <c r="I260" s="4"/>
       <c r="J260" s="9"/>
-      <c r="K260" s="10"/>
+      <c r="K260" s="9"/>
       <c r="L260" s="11"/>
       <c r="M260" s="11"/>
       <c r="N260" s="11"/>
@@ -11057,7 +10373,7 @@
       <c r="H261" s="4"/>
       <c r="I261" s="4"/>
       <c r="J261" s="9"/>
-      <c r="K261" s="9"/>
+      <c r="K261" s="10"/>
       <c r="L261" s="11"/>
       <c r="M261" s="11"/>
       <c r="N261" s="11"/>
@@ -11079,7 +10395,7 @@
       <c r="H262" s="4"/>
       <c r="I262" s="4"/>
       <c r="J262" s="9"/>
-      <c r="K262" s="10"/>
+      <c r="K262" s="9"/>
       <c r="L262" s="11"/>
       <c r="M262" s="11"/>
       <c r="N262" s="11"/>
@@ -11101,7 +10417,7 @@
       <c r="H263" s="4"/>
       <c r="I263" s="4"/>
       <c r="J263" s="9"/>
-      <c r="K263" s="9"/>
+      <c r="K263" s="10"/>
       <c r="L263" s="11"/>
       <c r="M263" s="11"/>
       <c r="N263" s="11"/>
@@ -11123,7 +10439,7 @@
       <c r="H264" s="4"/>
       <c r="I264" s="4"/>
       <c r="J264" s="9"/>
-      <c r="K264" s="10"/>
+      <c r="K264" s="9"/>
       <c r="L264" s="11"/>
       <c r="M264" s="11"/>
       <c r="N264" s="11"/>
@@ -11145,7 +10461,7 @@
       <c r="H265" s="4"/>
       <c r="I265" s="4"/>
       <c r="J265" s="9"/>
-      <c r="K265" s="9"/>
+      <c r="K265" s="10"/>
       <c r="L265" s="11"/>
       <c r="M265" s="11"/>
       <c r="N265" s="11"/>
@@ -11167,7 +10483,7 @@
       <c r="H266" s="4"/>
       <c r="I266" s="4"/>
       <c r="J266" s="9"/>
-      <c r="K266" s="10"/>
+      <c r="K266" s="9"/>
       <c r="L266" s="11"/>
       <c r="M266" s="11"/>
       <c r="N266" s="11"/>
@@ -11189,7 +10505,7 @@
       <c r="H267" s="4"/>
       <c r="I267" s="4"/>
       <c r="J267" s="9"/>
-      <c r="K267" s="9"/>
+      <c r="K267" s="10"/>
       <c r="L267" s="11"/>
       <c r="M267" s="11"/>
       <c r="N267" s="11"/>
@@ -11211,7 +10527,7 @@
       <c r="H268" s="4"/>
       <c r="I268" s="4"/>
       <c r="J268" s="9"/>
-      <c r="K268" s="10"/>
+      <c r="K268" s="9"/>
       <c r="L268" s="11"/>
       <c r="M268" s="11"/>
       <c r="N268" s="11"/>
@@ -11233,7 +10549,7 @@
       <c r="H269" s="4"/>
       <c r="I269" s="4"/>
       <c r="J269" s="9"/>
-      <c r="K269" s="9"/>
+      <c r="K269" s="10"/>
       <c r="L269" s="11"/>
       <c r="M269" s="11"/>
       <c r="N269" s="11"/>
@@ -11255,7 +10571,7 @@
       <c r="H270" s="4"/>
       <c r="I270" s="4"/>
       <c r="J270" s="9"/>
-      <c r="K270" s="10"/>
+      <c r="K270" s="9"/>
       <c r="L270" s="11"/>
       <c r="M270" s="11"/>
       <c r="N270" s="11"/>
@@ -11277,7 +10593,7 @@
       <c r="H271" s="4"/>
       <c r="I271" s="4"/>
       <c r="J271" s="9"/>
-      <c r="K271" s="9"/>
+      <c r="K271" s="10"/>
       <c r="L271" s="11"/>
       <c r="M271" s="11"/>
       <c r="N271" s="11"/>
@@ -11299,7 +10615,7 @@
       <c r="H272" s="4"/>
       <c r="I272" s="4"/>
       <c r="J272" s="9"/>
-      <c r="K272" s="10"/>
+      <c r="K272" s="9"/>
       <c r="L272" s="11"/>
       <c r="M272" s="11"/>
       <c r="N272" s="11"/>
@@ -11321,7 +10637,7 @@
       <c r="H273" s="4"/>
       <c r="I273" s="4"/>
       <c r="J273" s="9"/>
-      <c r="K273" s="9"/>
+      <c r="K273" s="10"/>
       <c r="L273" s="11"/>
       <c r="M273" s="11"/>
       <c r="N273" s="11"/>
@@ -11343,7 +10659,7 @@
       <c r="H274" s="4"/>
       <c r="I274" s="4"/>
       <c r="J274" s="9"/>
-      <c r="K274" s="10"/>
+      <c r="K274" s="9"/>
       <c r="L274" s="11"/>
       <c r="M274" s="11"/>
       <c r="N274" s="11"/>
@@ -11365,7 +10681,7 @@
       <c r="H275" s="4"/>
       <c r="I275" s="4"/>
       <c r="J275" s="9"/>
-      <c r="K275" s="9"/>
+      <c r="K275" s="10"/>
       <c r="L275" s="11"/>
       <c r="M275" s="11"/>
       <c r="N275" s="11"/>
@@ -11387,7 +10703,7 @@
       <c r="H276" s="4"/>
       <c r="I276" s="4"/>
       <c r="J276" s="9"/>
-      <c r="K276" s="10"/>
+      <c r="K276" s="9"/>
       <c r="L276" s="11"/>
       <c r="M276" s="11"/>
       <c r="N276" s="11"/>
@@ -11409,13 +10725,35 @@
       <c r="H277" s="4"/>
       <c r="I277" s="4"/>
       <c r="J277" s="9"/>
-      <c r="K277" s="9"/>
+      <c r="K277" s="10"/>
       <c r="L277" s="11"/>
       <c r="M277" s="11"/>
       <c r="N277" s="11"/>
       <c r="O277" s="11"/>
       <c r="P277" s="9"/>
       <c r="Q277" s="4"/>
+    </row>
+    <row r="278" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A278" s="8">
+        <f t="shared" si="0"/>
+        <v>276</v>
+      </c>
+      <c r="B278" s="5"/>
+      <c r="C278" s="6"/>
+      <c r="D278" s="6"/>
+      <c r="E278" s="6"/>
+      <c r="F278" s="6"/>
+      <c r="G278" s="7"/>
+      <c r="H278" s="4"/>
+      <c r="I278" s="4"/>
+      <c r="J278" s="9"/>
+      <c r="K278" s="9"/>
+      <c r="L278" s="11"/>
+      <c r="M278" s="11"/>
+      <c r="N278" s="11"/>
+      <c r="O278" s="11"/>
+      <c r="P278" s="9"/>
+      <c r="Q278" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -11431,876 +10769,884 @@
     <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="A108:D108 G108:Q108 A43:H43 E110:I114 E116:E120 J115:J120 A126:D126 J126:Q126 E122:E126 A130:D130 F130:H130 J130:Q130 J43:Q43 A44:Q51 A3:Q35 A36:K36 N36:Q36 A131:Q139 A143:K143 A140:L140 N140:Q140 M143:P143 A144:Q158 A167:Q277">
-    <cfRule type="expression" dxfId="13" priority="269">
+  <conditionalFormatting sqref="A109:D109 G109:Q109 A43:H43 E111:I115 E117:E121 J116:J121 A127:D127 J127:Q127 E123:E127 A131:D131 F131:H131 J131:Q131 J43:Q43 A45:Q52 A36:K36 N36:Q36 A132:Q140 A144:K144 A141:L141 N141:Q141 M144:P144 A145:Q159 A168:Q278 A3:Q35">
+    <cfRule type="expression" dxfId="221" priority="271">
       <formula>$I3="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="270">
+    <cfRule type="expression" dxfId="220" priority="272">
       <formula>$I3="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A129:D129 A127:H127 J127:Q127 F129:H129 J129:Q129">
-    <cfRule type="expression" dxfId="263" priority="267">
-      <formula>$I127="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="262" priority="268">
-      <formula>$I127="SummaryTask"</formula>
+  <conditionalFormatting sqref="A130:D130 A128:H128 J128:Q128 F130:H130 J130:Q130">
+    <cfRule type="expression" dxfId="219" priority="269">
+      <formula>$I128="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="270">
+      <formula>$I128="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A110:D114 J110:Q114">
-    <cfRule type="expression" dxfId="261" priority="197">
-      <formula>$I110="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="260" priority="198">
-      <formula>$I110="SummaryTask"</formula>
+  <conditionalFormatting sqref="A111:D115 J111:Q115">
+    <cfRule type="expression" dxfId="217" priority="199">
+      <formula>$I111="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="216" priority="200">
+      <formula>$I111="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76:D78 J76:Q78">
-    <cfRule type="expression" dxfId="259" priority="259">
-      <formula>$I76="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="258" priority="260">
-      <formula>$I76="SummaryTask"</formula>
+  <conditionalFormatting sqref="A77:D79 J77:Q79">
+    <cfRule type="expression" dxfId="215" priority="261">
+      <formula>$I77="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="214" priority="262">
+      <formula>$I77="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G72:I78 I79 G71:H71">
-    <cfRule type="expression" dxfId="257" priority="255">
-      <formula>$I71="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="256" priority="256">
-      <formula>$I71="SummaryTask"</formula>
+  <conditionalFormatting sqref="G73:I79 I80 G72:H72">
+    <cfRule type="expression" dxfId="213" priority="257">
+      <formula>$I72="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="212" priority="258">
+      <formula>$I72="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:D75 J71:Q75">
-    <cfRule type="expression" dxfId="255" priority="257">
-      <formula>$I71="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="254" priority="258">
-      <formula>$I71="SummaryTask"</formula>
+  <conditionalFormatting sqref="A72:D76 J72:Q76">
+    <cfRule type="expression" dxfId="211" priority="259">
+      <formula>$I72="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="260">
+      <formula>$I72="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68:D70 K68:Q70">
-    <cfRule type="expression" dxfId="253" priority="251">
-      <formula>$I68="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="252" priority="252">
-      <formula>$I68="SummaryTask"</formula>
+  <conditionalFormatting sqref="A69:D71 K69:Q71">
+    <cfRule type="expression" dxfId="209" priority="253">
+      <formula>$I69="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="208" priority="254">
+      <formula>$I69="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E63:I70">
-    <cfRule type="expression" dxfId="251" priority="247">
+  <conditionalFormatting sqref="E64:I71">
+    <cfRule type="expression" dxfId="207" priority="249">
+      <formula>$I64="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="250">
+      <formula>$I64="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:D68 K64:Q68">
+    <cfRule type="expression" dxfId="205" priority="251">
+      <formula>$I64="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="204" priority="252">
+      <formula>$I64="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A117:D121 K117:Q121">
+    <cfRule type="expression" dxfId="203" priority="213">
+      <formula>$I117="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="202" priority="214">
+      <formula>$I117="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:D63 K63:Q63">
+    <cfRule type="expression" dxfId="201" priority="247">
       <formula>$I63="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="248">
+    <cfRule type="expression" dxfId="200" priority="248">
       <formula>$I63="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63:D67 K63:Q67">
-    <cfRule type="expression" dxfId="249" priority="249">
+  <conditionalFormatting sqref="E63:H63">
+    <cfRule type="expression" dxfId="199" priority="245">
       <formula>$I63="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="250">
+    <cfRule type="expression" dxfId="198" priority="246">
       <formula>$I63="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A116:D120 K116:Q120">
-    <cfRule type="expression" dxfId="247" priority="211">
-      <formula>$I116="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="246" priority="212">
-      <formula>$I116="SummaryTask"</formula>
+  <conditionalFormatting sqref="E73:F79 E109:F109">
+    <cfRule type="expression" dxfId="197" priority="243">
+      <formula>$I73="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="196" priority="244">
+      <formula>$I73="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62:D62 K62:Q62">
-    <cfRule type="expression" dxfId="245" priority="245">
-      <formula>$I62="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="244" priority="246">
-      <formula>$I62="SummaryTask"</formula>
+  <conditionalFormatting sqref="E72:F72">
+    <cfRule type="expression" dxfId="195" priority="241">
+      <formula>$I72="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="194" priority="242">
+      <formula>$I72="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E62:H62">
-    <cfRule type="expression" dxfId="243" priority="243">
-      <formula>$I62="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="242" priority="244">
-      <formula>$I62="SummaryTask"</formula>
+  <conditionalFormatting sqref="A53:Q53">
+    <cfRule type="expression" dxfId="193" priority="239">
+      <formula>$I53="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="240">
+      <formula>$I53="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72:F78 E108:F108">
-    <cfRule type="expression" dxfId="241" priority="241">
-      <formula>$I72="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="240" priority="242">
-      <formula>$I72="SummaryTask"</formula>
+  <conditionalFormatting sqref="A60:D62 J60:Q62">
+    <cfRule type="expression" dxfId="191" priority="237">
+      <formula>$I60="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="238">
+      <formula>$I60="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E71:F71">
-    <cfRule type="expression" dxfId="239" priority="239">
-      <formula>$I71="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="238" priority="240">
-      <formula>$I71="SummaryTask"</formula>
+  <conditionalFormatting sqref="A55:D59 J55:Q59">
+    <cfRule type="expression" dxfId="189" priority="235">
+      <formula>$I55="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="188" priority="236">
+      <formula>$I55="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:Q52">
-    <cfRule type="expression" dxfId="237" priority="237">
-      <formula>$I52="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="236" priority="238">
-      <formula>$I52="SummaryTask"</formula>
+  <conditionalFormatting sqref="E55:I62">
+    <cfRule type="expression" dxfId="187" priority="233">
+      <formula>$I55="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="234">
+      <formula>$I55="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59:D61 J59:Q61">
-    <cfRule type="expression" dxfId="235" priority="235">
-      <formula>$I59="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="234" priority="236">
-      <formula>$I59="SummaryTask"</formula>
+  <conditionalFormatting sqref="A54:D54 J54:Q54">
+    <cfRule type="expression" dxfId="185" priority="231">
+      <formula>$I54="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="232">
+      <formula>$I54="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:D58 J54:Q58">
-    <cfRule type="expression" dxfId="233" priority="233">
+  <conditionalFormatting sqref="E54:H54">
+    <cfRule type="expression" dxfId="183" priority="229">
       <formula>$I54="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="234">
+    <cfRule type="expression" dxfId="182" priority="230">
       <formula>$I54="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54:I61">
-    <cfRule type="expression" dxfId="231" priority="231">
-      <formula>$I54="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="230" priority="232">
-      <formula>$I54="SummaryTask"</formula>
+  <conditionalFormatting sqref="J63:J71">
+    <cfRule type="expression" dxfId="181" priority="227">
+      <formula>$I63="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="180" priority="228">
+      <formula>$I63="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53:D53 J53:Q53">
-    <cfRule type="expression" dxfId="229" priority="229">
-      <formula>$I53="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="228" priority="230">
-      <formula>$I53="SummaryTask"</formula>
+  <conditionalFormatting sqref="A80:D80 G80:H80 J80:Q80">
+    <cfRule type="expression" dxfId="179" priority="225">
+      <formula>$I80="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="226">
+      <formula>$I80="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53:H53">
-    <cfRule type="expression" dxfId="227" priority="227">
-      <formula>$I53="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="226" priority="228">
-      <formula>$I53="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J62:J70">
-    <cfRule type="expression" dxfId="225" priority="225">
-      <formula>$I62="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="224" priority="226">
-      <formula>$I62="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A79:D79 G79:H79 J79:Q79">
-    <cfRule type="expression" dxfId="223" priority="223">
-      <formula>$I79="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="222" priority="224">
-      <formula>$I79="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79:F79">
-    <cfRule type="expression" dxfId="221" priority="221">
-      <formula>$I79="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="220" priority="222">
-      <formula>$I79="SummaryTask"</formula>
+  <conditionalFormatting sqref="E80:F80">
+    <cfRule type="expression" dxfId="177" priority="223">
+      <formula>$I80="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="176" priority="224">
+      <formula>$I80="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43">
-    <cfRule type="expression" dxfId="219" priority="117">
+    <cfRule type="expression" dxfId="175" priority="119">
       <formula>$I43="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="118">
+    <cfRule type="expression" dxfId="174" priority="120">
       <formula>$I43="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G121:H121 H122:I126">
-    <cfRule type="expression" dxfId="217" priority="215">
-      <formula>$I121="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="216" priority="216">
-      <formula>$I121="SummaryTask"</formula>
+  <conditionalFormatting sqref="G122:H122 H123:I127">
+    <cfRule type="expression" dxfId="173" priority="217">
+      <formula>$I122="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="218">
+      <formula>$I122="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82:I89">
-    <cfRule type="expression" dxfId="215" priority="151">
+  <conditionalFormatting sqref="E83:I90">
+    <cfRule type="expression" dxfId="171" priority="153">
+      <formula>$I83="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="154">
+      <formula>$I83="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A122:D126 J122:Q126">
+    <cfRule type="expression" dxfId="169" priority="219">
+      <formula>$I122="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="220">
+      <formula>$I122="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H117:I121">
+    <cfRule type="expression" dxfId="167" priority="211">
+      <formula>$I117="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="212">
+      <formula>$I117="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A116:D116 K116:Q116">
+    <cfRule type="expression" dxfId="165" priority="209">
+      <formula>$I116="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="164" priority="210">
+      <formula>$I116="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A108:D108 G108:H108 J108:Q108">
+    <cfRule type="expression" dxfId="163" priority="145">
+      <formula>$I108="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="146">
+      <formula>$I108="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116:H116">
+    <cfRule type="expression" dxfId="161" priority="207">
+      <formula>$I116="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="208">
+      <formula>$I116="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122:F122">
+    <cfRule type="expression" dxfId="159" priority="203">
+      <formula>$I122="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="204">
+      <formula>$I122="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A110:D110 J110:Q110">
+    <cfRule type="expression" dxfId="157" priority="195">
+      <formula>$I110="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="196">
+      <formula>$I110="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110:H110">
+    <cfRule type="expression" dxfId="155" priority="193">
+      <formula>$I110="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="194">
+      <formula>$I110="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81:D81 G81:Q81">
+    <cfRule type="expression" dxfId="153" priority="181">
+      <formula>$I81="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="182">
+      <formula>$I81="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105:D107 J105:Q107">
+    <cfRule type="expression" dxfId="151" priority="177">
+      <formula>$I105="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="178">
+      <formula>$I105="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92:D96 K92:Q96">
+    <cfRule type="expression" dxfId="149" priority="169">
+      <formula>$I92="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="170">
+      <formula>$I92="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:F81">
+    <cfRule type="expression" dxfId="147" priority="179">
+      <formula>$I81="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="180">
+      <formula>$I81="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="expression" dxfId="145" priority="143">
+      <formula>$I108="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="144">
+      <formula>$I108="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F101:F108">
+    <cfRule type="expression" dxfId="143" priority="139">
+      <formula>$I101="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="140">
+      <formula>$I101="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G101:I107 I108 G100:H100">
+    <cfRule type="expression" dxfId="141" priority="173">
+      <formula>$I100="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="174">
+      <formula>$I100="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100:D104 J100:Q104">
+    <cfRule type="expression" dxfId="139" priority="175">
+      <formula>$I100="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="176">
+      <formula>$I100="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97:D99 K97:Q99">
+    <cfRule type="expression" dxfId="137" priority="171">
+      <formula>$I97="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="172">
+      <formula>$I97="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92:E99 G92:I99">
+    <cfRule type="expression" dxfId="135" priority="167">
+      <formula>$I92="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="168">
+      <formula>$I92="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A91:D91 K91:Q91">
+    <cfRule type="expression" dxfId="133" priority="165">
+      <formula>$I91="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="166">
+      <formula>$I91="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91:H91">
+    <cfRule type="expression" dxfId="131" priority="163">
+      <formula>$I91="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="164">
+      <formula>$I91="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101:E107">
+    <cfRule type="expression" dxfId="129" priority="161">
+      <formula>$I101="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="162">
+      <formula>$I101="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100:F100">
+    <cfRule type="expression" dxfId="127" priority="159">
+      <formula>$I100="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="160">
+      <formula>$I100="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A88:D90 J88:Q90">
+    <cfRule type="expression" dxfId="125" priority="157">
+      <formula>$I88="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="158">
+      <formula>$I88="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:D87 J83:Q87">
+    <cfRule type="expression" dxfId="123" priority="155">
+      <formula>$I83="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="156">
+      <formula>$I83="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82:D82 J82:Q82">
+    <cfRule type="expression" dxfId="121" priority="151">
       <formula>$I82="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="152">
+    <cfRule type="expression" dxfId="120" priority="152">
       <formula>$I82="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A121:D125 J121:Q125">
-    <cfRule type="expression" dxfId="213" priority="217">
-      <formula>$I121="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="212" priority="218">
-      <formula>$I121="SummaryTask"</formula>
+  <conditionalFormatting sqref="E82:H82">
+    <cfRule type="expression" dxfId="119" priority="149">
+      <formula>$I82="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="150">
+      <formula>$I82="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H116:I120">
-    <cfRule type="expression" dxfId="211" priority="209">
+  <conditionalFormatting sqref="J91:J99">
+    <cfRule type="expression" dxfId="117" priority="147">
+      <formula>$I91="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="148">
+      <formula>$I91="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F92:F99">
+    <cfRule type="expression" dxfId="115" priority="141">
+      <formula>$I92="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="142">
+      <formula>$I92="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I116">
+    <cfRule type="expression" dxfId="113" priority="137">
       <formula>$I116="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="210">
+    <cfRule type="expression" dxfId="112" priority="138">
       <formula>$I116="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A115:D115 K115:Q115">
-    <cfRule type="expression" dxfId="209" priority="207">
-      <formula>$I115="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="208" priority="208">
-      <formula>$I115="SummaryTask"</formula>
+  <conditionalFormatting sqref="I122">
+    <cfRule type="expression" dxfId="111" priority="135">
+      <formula>$I122="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="136">
+      <formula>$I122="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A107:D107 G107:H107 J107:Q107">
-    <cfRule type="expression" dxfId="207" priority="143">
-      <formula>$I107="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="206" priority="144">
-      <formula>$I107="SummaryTask"</formula>
+  <conditionalFormatting sqref="I100">
+    <cfRule type="expression" dxfId="109" priority="133">
+      <formula>$I100="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="134">
+      <formula>$I100="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E115:H115">
-    <cfRule type="expression" dxfId="205" priority="205">
-      <formula>$I115="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="204" priority="206">
-      <formula>$I115="SummaryTask"</formula>
+  <conditionalFormatting sqref="I91">
+    <cfRule type="expression" dxfId="107" priority="131">
+      <formula>$I91="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="132">
+      <formula>$I91="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E121:F121">
-    <cfRule type="expression" dxfId="203" priority="201">
-      <formula>$I121="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="202" priority="202">
-      <formula>$I121="SummaryTask"</formula>
+  <conditionalFormatting sqref="I72">
+    <cfRule type="expression" dxfId="105" priority="129">
+      <formula>$I72="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="130">
+      <formula>$I72="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A109:D109 J109:Q109">
-    <cfRule type="expression" dxfId="201" priority="193">
-      <formula>$I109="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="200" priority="194">
-      <formula>$I109="SummaryTask"</formula>
+  <conditionalFormatting sqref="I63">
+    <cfRule type="expression" dxfId="103" priority="127">
+      <formula>$I63="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="128">
+      <formula>$I63="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E109:H109">
-    <cfRule type="expression" dxfId="199" priority="191">
-      <formula>$I109="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="198" priority="192">
-      <formula>$I109="SummaryTask"</formula>
+  <conditionalFormatting sqref="I54">
+    <cfRule type="expression" dxfId="101" priority="125">
+      <formula>$I54="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="126">
+      <formula>$I54="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A80:D80 G80:Q80">
-    <cfRule type="expression" dxfId="197" priority="179">
-      <formula>$I80="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="196" priority="180">
-      <formula>$I80="SummaryTask"</formula>
+  <conditionalFormatting sqref="I82">
+    <cfRule type="expression" dxfId="99" priority="123">
+      <formula>$I82="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="124">
+      <formula>$I82="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A104:D106 J104:Q106">
-    <cfRule type="expression" dxfId="195" priority="175">
-      <formula>$I104="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="194" priority="176">
-      <formula>$I104="SummaryTask"</formula>
+  <conditionalFormatting sqref="I110">
+    <cfRule type="expression" dxfId="97" priority="121">
+      <formula>$I110="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="122">
+      <formula>$I110="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A91:D95 K91:Q95">
-    <cfRule type="expression" dxfId="193" priority="167">
-      <formula>$I91="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="192" priority="168">
-      <formula>$I91="SummaryTask"</formula>
+  <conditionalFormatting sqref="F117:G121">
+    <cfRule type="expression" dxfId="95" priority="117">
+      <formula>$I117="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="118">
+      <formula>$I117="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80:F80">
-    <cfRule type="expression" dxfId="191" priority="177">
-      <formula>$I80="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="190" priority="178">
-      <formula>$I80="SummaryTask"</formula>
+  <conditionalFormatting sqref="F123:G127">
+    <cfRule type="expression" dxfId="93" priority="115">
+      <formula>$I123="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="116">
+      <formula>$I123="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="expression" dxfId="189" priority="141">
-      <formula>$I107="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="188" priority="142">
-      <formula>$I107="SummaryTask"</formula>
+  <conditionalFormatting sqref="I128">
+    <cfRule type="expression" dxfId="91" priority="113">
+      <formula>$I128="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="114">
+      <formula>$I128="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F100:F107">
-    <cfRule type="expression" dxfId="187" priority="137">
-      <formula>$I100="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="138">
-      <formula>$I100="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G100:I106 I107 G99:H99">
-    <cfRule type="expression" dxfId="185" priority="171">
-      <formula>$I99="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="172">
-      <formula>$I99="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99:D103 J99:Q103">
-    <cfRule type="expression" dxfId="183" priority="173">
-      <formula>$I99="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="182" priority="174">
-      <formula>$I99="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A96:D98 K96:Q98">
-    <cfRule type="expression" dxfId="181" priority="169">
-      <formula>$I96="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="170">
-      <formula>$I96="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91:E98 G91:I98">
-    <cfRule type="expression" dxfId="179" priority="165">
-      <formula>$I91="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="178" priority="166">
-      <formula>$I91="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A90:D90 K90:Q90">
-    <cfRule type="expression" dxfId="177" priority="163">
-      <formula>$I90="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="176" priority="164">
-      <formula>$I90="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90:H90">
-    <cfRule type="expression" dxfId="175" priority="161">
-      <formula>$I90="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="162">
-      <formula>$I90="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100:E106">
-    <cfRule type="expression" dxfId="173" priority="159">
-      <formula>$I100="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="172" priority="160">
-      <formula>$I100="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99:F99">
-    <cfRule type="expression" dxfId="171" priority="157">
-      <formula>$I99="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="170" priority="158">
-      <formula>$I99="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A87:D89 J87:Q89">
-    <cfRule type="expression" dxfId="169" priority="155">
-      <formula>$I87="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="156">
-      <formula>$I87="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82:D86 J82:Q86">
-    <cfRule type="expression" dxfId="167" priority="153">
-      <formula>$I82="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="166" priority="154">
-      <formula>$I82="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A81:D81 J81:Q81">
-    <cfRule type="expression" dxfId="165" priority="149">
-      <formula>$I81="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="164" priority="150">
-      <formula>$I81="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:H81">
-    <cfRule type="expression" dxfId="163" priority="147">
-      <formula>$I81="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="148">
-      <formula>$I81="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J90:J98">
-    <cfRule type="expression" dxfId="161" priority="145">
-      <formula>$I90="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="160" priority="146">
-      <formula>$I90="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F91:F98">
-    <cfRule type="expression" dxfId="159" priority="139">
-      <formula>$I91="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="158" priority="140">
-      <formula>$I91="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I115">
-    <cfRule type="expression" dxfId="157" priority="135">
-      <formula>$I115="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="136">
-      <formula>$I115="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I121">
-    <cfRule type="expression" dxfId="155" priority="133">
-      <formula>$I121="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="154" priority="134">
-      <formula>$I121="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I99">
-    <cfRule type="expression" dxfId="153" priority="131">
-      <formula>$I99="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="152" priority="132">
-      <formula>$I99="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I90">
-    <cfRule type="expression" dxfId="151" priority="129">
-      <formula>$I90="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="130">
-      <formula>$I90="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
-    <cfRule type="expression" dxfId="149" priority="127">
-      <formula>$I71="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="148" priority="128">
-      <formula>$I71="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I62">
-    <cfRule type="expression" dxfId="147" priority="125">
-      <formula>$I62="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="146" priority="126">
-      <formula>$I62="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I53">
-    <cfRule type="expression" dxfId="145" priority="123">
-      <formula>$I53="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="124">
-      <formula>$I53="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I81">
-    <cfRule type="expression" dxfId="143" priority="121">
-      <formula>$I81="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="122">
-      <formula>$I81="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I109">
-    <cfRule type="expression" dxfId="141" priority="119">
-      <formula>$I109="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="120">
-      <formula>$I109="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F116:G120">
-    <cfRule type="expression" dxfId="139" priority="115">
-      <formula>$I116="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="116">
-      <formula>$I116="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F122:G126">
-    <cfRule type="expression" dxfId="137" priority="113">
-      <formula>$I122="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="114">
-      <formula>$I122="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I127">
-    <cfRule type="expression" dxfId="135" priority="111">
-      <formula>$I127="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="112">
-      <formula>$I127="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I128:I130">
-    <cfRule type="expression" dxfId="133" priority="97">
-      <formula>$I128="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="98">
-      <formula>$I128="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129">
-    <cfRule type="expression" dxfId="131" priority="95">
+  <conditionalFormatting sqref="I129:I131">
+    <cfRule type="expression" dxfId="89" priority="99">
       <formula>$I129="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="96">
+    <cfRule type="expression" dxfId="88" priority="100">
       <formula>$I129="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128:D128 J128:Q128">
-    <cfRule type="expression" dxfId="129" priority="107">
-      <formula>$I128="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="108">
-      <formula>$I128="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="expression" dxfId="127" priority="93">
+    <cfRule type="expression" dxfId="87" priority="97">
       <formula>$I130="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="94">
+    <cfRule type="expression" dxfId="86" priority="98">
       <formula>$I130="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E128:H128">
-    <cfRule type="expression" dxfId="125" priority="101">
-      <formula>$I128="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="102">
-      <formula>$I128="SummaryTask"</formula>
+  <conditionalFormatting sqref="A129:D129 J129:Q129">
+    <cfRule type="expression" dxfId="85" priority="109">
+      <formula>$I129="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="110">
+      <formula>$I129="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A163:Q164 A166:Q166 A165:I165 K165:Q165">
-    <cfRule type="expression" dxfId="123" priority="91">
-      <formula>$I163="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="92">
-      <formula>$I163="SummaryTask"</formula>
+  <conditionalFormatting sqref="E131">
+    <cfRule type="expression" dxfId="83" priority="95">
+      <formula>$I131="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="96">
+      <formula>$I131="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A159:Q160 Q159:Q166 A162:Q162 A161:I161 K161:Q161">
-    <cfRule type="expression" dxfId="121" priority="89">
-      <formula>$I159="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="90">
-      <formula>$I159="SummaryTask"</formula>
+  <conditionalFormatting sqref="E129:H129">
+    <cfRule type="expression" dxfId="81" priority="103">
+      <formula>$I129="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="104">
+      <formula>$I129="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J165">
-    <cfRule type="expression" dxfId="119" priority="85">
-      <formula>$I165="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="86">
-      <formula>$I165="SummaryTask"</formula>
+  <conditionalFormatting sqref="A164:Q165 A167:Q167 A166:I166 K166:Q166">
+    <cfRule type="expression" dxfId="79" priority="93">
+      <formula>$I164="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="94">
+      <formula>$I164="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J161">
-    <cfRule type="expression" dxfId="117" priority="83">
-      <formula>$I161="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="84">
-      <formula>$I161="SummaryTask"</formula>
+  <conditionalFormatting sqref="A160:Q161 Q160:Q167 A163:Q163 A162:I162 K162:Q162">
+    <cfRule type="expression" dxfId="77" priority="91">
+      <formula>$I160="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="92">
+      <formula>$I160="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A141:K142 N141:Q142">
-    <cfRule type="expression" dxfId="115" priority="79">
-      <formula>$I141="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="80">
-      <formula>$I141="SummaryTask"</formula>
+  <conditionalFormatting sqref="J166">
+    <cfRule type="expression" dxfId="75" priority="87">
+      <formula>$I166="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="88">
+      <formula>$I166="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q143">
-    <cfRule type="expression" dxfId="113" priority="75">
-      <formula>$I143="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="76">
-      <formula>$I143="SummaryTask"</formula>
+  <conditionalFormatting sqref="J162">
+    <cfRule type="expression" dxfId="73" priority="85">
+      <formula>$I162="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="86">
+      <formula>$I162="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A142:K143 N142:Q143">
+    <cfRule type="expression" dxfId="71" priority="81">
+      <formula>$I142="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="82">
+      <formula>$I142="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q144">
+    <cfRule type="expression" dxfId="69" priority="77">
+      <formula>$I144="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="78">
+      <formula>$I144="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:Q42 A42:G42">
-    <cfRule type="expression" dxfId="111" priority="73">
+    <cfRule type="expression" dxfId="67" priority="75">
       <formula>$I42="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="74">
+    <cfRule type="expression" dxfId="66" priority="76">
       <formula>$I42="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="expression" dxfId="109" priority="69">
+    <cfRule type="expression" dxfId="65" priority="71">
       <formula>$I42="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="70">
+    <cfRule type="expression" dxfId="64" priority="72">
       <formula>$I42="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="expression" dxfId="107" priority="61">
+    <cfRule type="expression" dxfId="63" priority="63">
       <formula>$I40="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="62">
+    <cfRule type="expression" dxfId="62" priority="64">
       <formula>$I40="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J42">
-    <cfRule type="expression" dxfId="105" priority="67">
+    <cfRule type="expression" dxfId="61" priority="69">
       <formula>$I42="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="68">
+    <cfRule type="expression" dxfId="60" priority="70">
       <formula>$I42="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="expression" dxfId="103" priority="65">
+    <cfRule type="expression" dxfId="59" priority="67">
       <formula>$I42="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="66">
+    <cfRule type="expression" dxfId="58" priority="68">
       <formula>$I42="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="expression" dxfId="101" priority="57">
+    <cfRule type="expression" dxfId="57" priority="59">
       <formula>$I40="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="58">
+    <cfRule type="expression" dxfId="56" priority="60">
       <formula>$I40="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40:Q40 A40:G40">
-    <cfRule type="expression" dxfId="99" priority="63">
+    <cfRule type="expression" dxfId="55" priority="65">
       <formula>$I40="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="64">
+    <cfRule type="expression" dxfId="54" priority="66">
       <formula>$I40="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="expression" dxfId="97" priority="53">
+    <cfRule type="expression" dxfId="53" priority="55">
       <formula>$I39="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="54">
+    <cfRule type="expression" dxfId="52" priority="56">
       <formula>$I39="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40">
-    <cfRule type="expression" dxfId="95" priority="59">
+    <cfRule type="expression" dxfId="51" priority="61">
       <formula>$I40="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="60">
+    <cfRule type="expression" dxfId="50" priority="62">
       <formula>$I40="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="expression" dxfId="93" priority="41">
+    <cfRule type="expression" dxfId="49" priority="43">
       <formula>$I38="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="42">
+    <cfRule type="expression" dxfId="48" priority="44">
       <formula>$I38="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="91" priority="45">
+    <cfRule type="expression" dxfId="47" priority="47">
       <formula>$I38="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="46">
+    <cfRule type="expression" dxfId="46" priority="48">
       <formula>$I38="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:G39 K39:Q39">
-    <cfRule type="expression" dxfId="89" priority="55">
+    <cfRule type="expression" dxfId="45" priority="57">
       <formula>$I39="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="56">
+    <cfRule type="expression" dxfId="44" priority="58">
       <formula>$I39="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="expression" dxfId="87" priority="51">
+    <cfRule type="expression" dxfId="43" priority="53">
       <formula>$I39="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="52">
+    <cfRule type="expression" dxfId="42" priority="54">
       <formula>$I39="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="expression" dxfId="85" priority="37">
+    <cfRule type="expression" dxfId="41" priority="39">
       <formula>$I37="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="38">
+    <cfRule type="expression" dxfId="40" priority="40">
       <formula>$I37="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41">
-    <cfRule type="expression" dxfId="83" priority="27">
+    <cfRule type="expression" dxfId="39" priority="29">
       <formula>$I41="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="28">
+    <cfRule type="expression" dxfId="38" priority="30">
       <formula>$I41="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38:L38 A38:G38 N38:Q38">
-    <cfRule type="expression" dxfId="81" priority="47">
+    <cfRule type="expression" dxfId="37" priority="49">
       <formula>$I38="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="48">
+    <cfRule type="expression" dxfId="36" priority="50">
       <formula>$I38="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="expression" dxfId="79" priority="43">
+    <cfRule type="expression" dxfId="35" priority="45">
       <formula>$I38="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="44">
+    <cfRule type="expression" dxfId="34" priority="46">
       <formula>$I38="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="expression" dxfId="77" priority="19">
+    <cfRule type="expression" dxfId="33" priority="21">
       <formula>$I37="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="20">
+    <cfRule type="expression" dxfId="32" priority="22">
       <formula>$I37="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M36">
-    <cfRule type="expression" dxfId="75" priority="15">
+    <cfRule type="expression" dxfId="31" priority="17">
       <formula>$I36="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="16">
+    <cfRule type="expression" dxfId="30" priority="18">
       <formula>$I36="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:G37 K37:Q37 M38">
-    <cfRule type="expression" dxfId="73" priority="39">
+    <cfRule type="expression" dxfId="29" priority="41">
       <formula>$I37="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="40">
+    <cfRule type="expression" dxfId="28" priority="42">
       <formula>$I37="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="expression" dxfId="71" priority="35">
+    <cfRule type="expression" dxfId="27" priority="37">
       <formula>$I37="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="36">
+    <cfRule type="expression" dxfId="26" priority="38">
       <formula>$I37="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:G41 K41:Q41">
-    <cfRule type="expression" dxfId="69" priority="31">
+    <cfRule type="expression" dxfId="25" priority="33">
       <formula>$I41="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="32">
+    <cfRule type="expression" dxfId="24" priority="34">
       <formula>$I41="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="expression" dxfId="67" priority="29">
+    <cfRule type="expression" dxfId="23" priority="31">
       <formula>$I41="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="30">
+    <cfRule type="expression" dxfId="22" priority="32">
       <formula>$I41="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="expression" dxfId="65" priority="23">
+    <cfRule type="expression" dxfId="21" priority="25">
       <formula>$I41="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="24">
+    <cfRule type="expression" dxfId="20" priority="26">
       <formula>$I41="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="expression" dxfId="63" priority="21">
+    <cfRule type="expression" dxfId="19" priority="23">
       <formula>$I39="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="22">
+    <cfRule type="expression" dxfId="18" priority="24">
       <formula>$I39="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L36">
-    <cfRule type="expression" dxfId="61" priority="17">
+    <cfRule type="expression" dxfId="17" priority="19">
       <formula>$I36="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="18">
+    <cfRule type="expression" dxfId="16" priority="20">
       <formula>$I36="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L143">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>$I143="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>$I143="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M141">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>$I141="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>$I141="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L142">
-    <cfRule type="expression" dxfId="49" priority="13">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>$I142="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="14">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>$I142="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M140">
-    <cfRule type="expression" dxfId="45" priority="11">
-      <formula>$I140="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="12">
-      <formula>$I140="SummaryTask"</formula>
+  <conditionalFormatting sqref="M143">
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>$I143="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>$I143="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L141">
-    <cfRule type="expression" dxfId="37" priority="7">
-      <formula>$I141="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="8">
-      <formula>$I141="SummaryTask"</formula>
+  <conditionalFormatting sqref="L144">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>$I144="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>$I144="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M142">
-    <cfRule type="expression" dxfId="33" priority="5">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>$I142="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="6">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$I142="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L143">
-    <cfRule type="expression" dxfId="29" priority="3">
-      <formula>$I143="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="4">
-      <formula>$I143="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M141">
-    <cfRule type="expression" dxfId="25" priority="1">
-      <formula>$I141="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="2">
-      <formula>$I141="SummaryTask"</formula>
+  <conditionalFormatting sqref="A44:Q44">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$I44="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$I44="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/01_管理/WBS.xlsx
+++ b/Design/01_管理/WBS.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shose\Desktop\開発事業\工場管理システム\Dummy\Design\01_管理\"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="127">
   <si>
     <t>NO</t>
     <phoneticPr fontId="2"/>
@@ -1373,7 +1373,917 @@
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="228">
+  <dxfs count="358">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3252,10 +4162,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q278"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:Q285"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3367,7 +4278,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
-        <f t="shared" ref="A4:A278" si="0">ROW()-2</f>
+        <f t="shared" ref="A4:A285" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="5"/>
@@ -3963,7 +4874,9 @@
       <c r="N20" s="11">
         <v>44394</v>
       </c>
-      <c r="O20" s="11"/>
+      <c r="O20" s="11">
+        <v>44451</v>
+      </c>
       <c r="P20" s="9"/>
       <c r="Q20" s="4"/>
     </row>
@@ -4527,10 +5440,10 @@
       <c r="J37" s="9"/>
       <c r="K37" s="12"/>
       <c r="L37" s="11">
-        <v>44409</v>
+        <v>44451</v>
       </c>
       <c r="M37" s="11">
-        <v>44423</v>
+        <v>44465</v>
       </c>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
@@ -4539,7 +5452,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A38:A45" si="1">ROW()-2</f>
         <v>36</v>
       </c>
       <c r="B38" s="5"/>
@@ -4556,13 +5469,15 @@
       <c r="I38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J38" s="9"/>
+      <c r="J38" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="K38" s="12"/>
       <c r="L38" s="11">
-        <v>44409</v>
+        <v>44451</v>
       </c>
       <c r="M38" s="11">
-        <v>44423</v>
+        <v>44465</v>
       </c>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
@@ -4571,30 +5486,32 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="G39" s="7"/>
       <c r="H39" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J39" s="9"/>
-      <c r="K39" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39" s="13"/>
       <c r="L39" s="11">
-        <v>44409</v>
+        <v>44451</v>
       </c>
       <c r="M39" s="11">
-        <v>44430</v>
+        <v>44465</v>
       </c>
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
@@ -4603,7 +5520,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B40" s="5"/>
@@ -4611,7 +5528,7 @@
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="4" t="s">
@@ -4620,13 +5537,15 @@
       <c r="I40" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="9"/>
+      <c r="J40" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="K40" s="12"/>
       <c r="L40" s="11">
-        <v>44409</v>
+        <v>44451</v>
       </c>
       <c r="M40" s="11">
-        <v>44430</v>
+        <v>44465</v>
       </c>
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
@@ -4635,30 +5554,32 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G41" s="7"/>
       <c r="H41" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J41" s="9"/>
-      <c r="K41" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41" s="13"/>
       <c r="L41" s="11">
-        <v>44409</v>
+        <v>44451</v>
       </c>
       <c r="M41" s="11">
-        <v>44437</v>
+        <v>44465</v>
       </c>
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
@@ -4667,7 +5588,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B42" s="5"/>
@@ -4675,7 +5596,7 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="4" t="s">
@@ -4684,13 +5605,15 @@
       <c r="I42" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J42" s="9"/>
+      <c r="J42" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="K42" s="12"/>
       <c r="L42" s="11">
-        <v>44409</v>
+        <v>44451</v>
       </c>
       <c r="M42" s="11">
-        <v>44437</v>
+        <v>44465</v>
       </c>
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
@@ -4699,59 +5622,67 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
+      <c r="F43" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="G43" s="7"/>
-      <c r="H43" s="4"/>
+      <c r="H43" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="I43" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J43" s="9"/>
-      <c r="K43" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" s="13"/>
       <c r="L43" s="11">
-        <v>44437</v>
+        <v>44451</v>
       </c>
       <c r="M43" s="11">
-        <v>44499</v>
+        <v>44465</v>
       </c>
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="9"/>
-      <c r="Q43" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="Q43" s="4"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="G44" s="7"/>
       <c r="H44" s="4" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J44" s="9"/>
+      <c r="J44" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="K44" s="13"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
+      <c r="L44" s="11">
+        <v>44451</v>
+      </c>
+      <c r="M44" s="11">
+        <v>44465</v>
+      </c>
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
       <c r="P44" s="9"/>
@@ -4759,27 +5690,33 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G45" s="7"/>
       <c r="H45" s="4" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J45" s="9"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
+      <c r="J45" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K45" s="12"/>
+      <c r="L45" s="11">
+        <v>44451</v>
+      </c>
+      <c r="M45" s="11">
+        <v>44465</v>
+      </c>
       <c r="N45" s="11"/>
       <c r="O45" s="11"/>
       <c r="P45" s="9"/>
@@ -4794,20 +5731,24 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="7"/>
       <c r="H46" s="4" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="12"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
+      <c r="L46" s="11">
+        <v>44465</v>
+      </c>
+      <c r="M46" s="11">
+        <v>44430</v>
+      </c>
       <c r="N46" s="11"/>
       <c r="O46" s="11"/>
       <c r="P46" s="9"/>
@@ -4821,21 +5762,27 @@
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="G47" s="7"/>
       <c r="H47" s="4" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J47" s="9"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
+      <c r="J47" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K47" s="12"/>
+      <c r="L47" s="11">
+        <v>44465</v>
+      </c>
+      <c r="M47" s="11">
+        <v>44430</v>
+      </c>
       <c r="N47" s="11"/>
       <c r="O47" s="11"/>
       <c r="P47" s="9"/>
@@ -4850,20 +5797,24 @@
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="7"/>
       <c r="H48" s="4" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J48" s="9"/>
       <c r="K48" s="12"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
+      <c r="L48" s="11">
+        <v>44409</v>
+      </c>
+      <c r="M48" s="11">
+        <v>44437</v>
+      </c>
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
       <c r="P48" s="9"/>
@@ -4877,21 +5828,25 @@
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="G49" s="7"/>
       <c r="H49" s="4" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J49" s="9"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="11">
+        <v>44409</v>
+      </c>
+      <c r="M49" s="11">
+        <v>44437</v>
+      </c>
       <c r="N49" s="11"/>
       <c r="O49" s="11"/>
       <c r="P49" s="9"/>
@@ -4904,26 +5859,30 @@
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="D50" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="7"/>
-      <c r="H50" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="H50" s="4"/>
       <c r="I50" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J50" s="9"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="11">
+        <v>44437</v>
+      </c>
+      <c r="M50" s="11">
+        <v>44499</v>
+      </c>
       <c r="N50" s="11"/>
       <c r="O50" s="11"/>
       <c r="P50" s="9"/>
-      <c r="Q50" s="4"/>
+      <c r="Q50" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
@@ -4934,18 +5893,18 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="7"/>
       <c r="H51" s="4" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J51" s="9"/>
-      <c r="K51" s="12"/>
+      <c r="K51" s="13"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
       <c r="N51" s="11"/>
@@ -4962,7 +5921,7 @@
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="7"/>
@@ -4988,24 +5947,22 @@
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="F53" s="6"/>
       <c r="G53" s="7"/>
-      <c r="H53" s="4"/>
+      <c r="H53" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="I53" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J53" s="9"/>
       <c r="K53" s="12"/>
-      <c r="L53" s="11">
-        <v>44500</v>
-      </c>
-      <c r="M53" s="11">
-        <v>44541</v>
-      </c>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
       <c r="N53" s="11"/>
       <c r="O53" s="11"/>
       <c r="P53" s="9"/>
@@ -5020,22 +5977,20 @@
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="4"/>
+      <c r="H54" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="I54" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J54" s="9"/>
       <c r="K54" s="13"/>
-      <c r="L54" s="11">
-        <v>44500</v>
-      </c>
-      <c r="M54" s="11">
-        <v>44513</v>
-      </c>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
       <c r="N54" s="11"/>
       <c r="O54" s="11"/>
       <c r="P54" s="9"/>
@@ -5049,19 +6004,19 @@
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="E55" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="6"/>
       <c r="G55" s="7"/>
       <c r="H55" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J55" s="9"/>
-      <c r="K55" s="13"/>
+      <c r="K55" s="12"/>
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
@@ -5077,19 +6032,19 @@
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="E56" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="6"/>
       <c r="G56" s="7"/>
       <c r="H56" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J56" s="9"/>
-      <c r="K56" s="12"/>
+      <c r="K56" s="13"/>
       <c r="L56" s="11"/>
       <c r="M56" s="11"/>
       <c r="N56" s="11"/>
@@ -5105,13 +6060,13 @@
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="E57" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="6"/>
       <c r="G57" s="7"/>
       <c r="H57" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>14</v>
@@ -5133,13 +6088,13 @@
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="E58" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" s="6"/>
       <c r="G58" s="7"/>
       <c r="H58" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>14</v>
@@ -5161,13 +6116,13 @@
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="E59" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F59" s="6"/>
       <c r="G59" s="7"/>
       <c r="H59" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>14</v>
@@ -5188,22 +6143,24 @@
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
+      <c r="D60" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="E60" s="6"/>
-      <c r="F60" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="F60" s="6"/>
       <c r="G60" s="7"/>
-      <c r="H60" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="H60" s="4"/>
       <c r="I60" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J60" s="9"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="11">
+        <v>44500</v>
+      </c>
+      <c r="M60" s="11">
+        <v>44541</v>
+      </c>
       <c r="N60" s="11"/>
       <c r="O60" s="11"/>
       <c r="P60" s="9"/>
@@ -5217,21 +6174,23 @@
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E61" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F61" s="6"/>
       <c r="G61" s="7"/>
-      <c r="H61" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="H61" s="4"/>
       <c r="I61" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J61" s="9"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="11">
+        <v>44500</v>
+      </c>
+      <c r="M61" s="11">
+        <v>44513</v>
+      </c>
       <c r="N61" s="11"/>
       <c r="O61" s="11"/>
       <c r="P61" s="9"/>
@@ -5247,7 +6206,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="4" t="s">
@@ -5273,23 +6232,21 @@
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="G63" s="7"/>
-      <c r="H63" s="4"/>
+      <c r="H63" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="I63" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J63" s="9"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="11">
-        <v>44514</v>
-      </c>
-      <c r="M63" s="11">
-        <v>44527</v>
-      </c>
+      <c r="K63" s="12"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
       <c r="N63" s="11"/>
       <c r="O63" s="11"/>
       <c r="P63" s="9"/>
@@ -5305,16 +6262,16 @@
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G64" s="7"/>
-      <c r="H64" s="4"/>
+      <c r="H64" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="I64" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J64" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="J64" s="9"/>
       <c r="K64" s="13"/>
       <c r="L64" s="11"/>
       <c r="M64" s="11"/>
@@ -5333,16 +6290,16 @@
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G65" s="7"/>
-      <c r="H65" s="4"/>
+      <c r="H65" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="I65" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J65" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="J65" s="9"/>
       <c r="K65" s="12"/>
       <c r="L65" s="11"/>
       <c r="M65" s="11"/>
@@ -5361,16 +6318,16 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G66" s="7"/>
-      <c r="H66" s="4"/>
+      <c r="H66" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="I66" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J66" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="J66" s="9"/>
       <c r="K66" s="13"/>
       <c r="L66" s="11"/>
       <c r="M66" s="11"/>
@@ -5389,17 +6346,17 @@
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G67" s="7"/>
-      <c r="H67" s="4"/>
+      <c r="H67" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="I67" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J67" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K67" s="12"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="13"/>
       <c r="L67" s="11"/>
       <c r="M67" s="11"/>
       <c r="N67" s="11"/>
@@ -5417,17 +6374,17 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G68" s="7"/>
-      <c r="H68" s="4"/>
+      <c r="H68" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="I68" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J68" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K68" s="13"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="12"/>
       <c r="L68" s="11"/>
       <c r="M68" s="11"/>
       <c r="N68" s="11"/>
@@ -5445,16 +6402,16 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="G69" s="7"/>
-      <c r="H69" s="4"/>
+      <c r="H69" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="I69" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J69" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="J69" s="9"/>
       <c r="K69" s="13"/>
       <c r="L69" s="11"/>
       <c r="M69" s="11"/>
@@ -5471,21 +6428,23 @@
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E70" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F70" s="6"/>
       <c r="G70" s="7"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J70" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K70" s="12"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="J70" s="9"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="11">
+        <v>44514</v>
+      </c>
+      <c r="M70" s="11">
+        <v>44527</v>
+      </c>
       <c r="N70" s="11"/>
       <c r="O70" s="11"/>
       <c r="P70" s="9"/>
@@ -5501,7 +6460,7 @@
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="4"/>
@@ -5527,23 +6486,21 @@
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="G72" s="7"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J72" s="9"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="11">
-        <v>44528</v>
-      </c>
-      <c r="M72" s="11">
-        <v>44541</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K72" s="12"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
       <c r="N72" s="11"/>
       <c r="O72" s="11"/>
       <c r="P72" s="9"/>
@@ -5559,15 +6516,17 @@
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J73" s="9"/>
-      <c r="K73" s="12"/>
+      <c r="J73" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K73" s="13"/>
       <c r="L73" s="11"/>
       <c r="M73" s="11"/>
       <c r="N73" s="11"/>
@@ -5585,15 +6544,17 @@
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J74" s="9"/>
-      <c r="K74" s="13"/>
+      <c r="J74" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K74" s="12"/>
       <c r="L74" s="11"/>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -5611,15 +6572,17 @@
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J75" s="9"/>
-      <c r="K75" s="12"/>
+      <c r="J75" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K75" s="13"/>
       <c r="L75" s="11"/>
       <c r="M75" s="11"/>
       <c r="N75" s="11"/>
@@ -5637,14 +6600,16 @@
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J76" s="9"/>
+      <c r="J76" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="K76" s="13"/>
       <c r="L76" s="11"/>
       <c r="M76" s="11"/>
@@ -5663,15 +6628,17 @@
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G77" s="7"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J77" s="9"/>
-      <c r="K77" s="13"/>
+      <c r="J77" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K77" s="12"/>
       <c r="L77" s="11"/>
       <c r="M77" s="11"/>
       <c r="N77" s="11"/>
@@ -5689,15 +6656,17 @@
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J78" s="9"/>
-      <c r="K78" s="12"/>
+      <c r="J78" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K78" s="13"/>
       <c r="L78" s="11"/>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
@@ -5713,19 +6682,23 @@
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E79" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F79" s="6"/>
       <c r="G79" s="7"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J79" s="9"/>
       <c r="K79" s="13"/>
-      <c r="L79" s="11"/>
-      <c r="M79" s="11"/>
+      <c r="L79" s="11">
+        <v>44528</v>
+      </c>
+      <c r="M79" s="11">
+        <v>44541</v>
+      </c>
       <c r="N79" s="11"/>
       <c r="O79" s="11"/>
       <c r="P79" s="9"/>
@@ -5741,7 +6714,7 @@
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="G80" s="7"/>
       <c r="H80" s="4"/>
@@ -5764,24 +6737,20 @@
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="D81" s="6"/>
       <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
+      <c r="F81" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="G81" s="7"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J81" s="9"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="11">
-        <v>44542</v>
-      </c>
-      <c r="M81" s="11">
-        <v>44225</v>
-      </c>
+      <c r="K81" s="13"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
       <c r="N81" s="11"/>
       <c r="O81" s="11"/>
       <c r="P81" s="9"/>
@@ -5795,23 +6764,19 @@
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G82" s="7"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J82" s="9"/>
-      <c r="K82" s="13"/>
-      <c r="L82" s="11">
-        <v>44542</v>
-      </c>
-      <c r="M82" s="11">
-        <v>44556</v>
-      </c>
+      <c r="K82" s="12"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
       <c r="N82" s="11"/>
       <c r="O82" s="11"/>
       <c r="P82" s="9"/>
@@ -5827,7 +6792,7 @@
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="4"/>
@@ -5853,7 +6818,7 @@
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="G84" s="7"/>
       <c r="H84" s="4"/>
@@ -5861,7 +6826,7 @@
         <v>14</v>
       </c>
       <c r="J84" s="9"/>
-      <c r="K84" s="12"/>
+      <c r="K84" s="13"/>
       <c r="L84" s="11"/>
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
@@ -5879,7 +6844,7 @@
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="4"/>
@@ -5887,7 +6852,7 @@
         <v>14</v>
       </c>
       <c r="J85" s="9"/>
-      <c r="K85" s="13"/>
+      <c r="K85" s="12"/>
       <c r="L85" s="11"/>
       <c r="M85" s="11"/>
       <c r="N85" s="11"/>
@@ -5905,7 +6870,7 @@
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="4"/>
@@ -5913,7 +6878,7 @@
         <v>14</v>
       </c>
       <c r="J86" s="9"/>
-      <c r="K86" s="12"/>
+      <c r="K86" s="13"/>
       <c r="L86" s="11"/>
       <c r="M86" s="11"/>
       <c r="N86" s="11"/>
@@ -5923,7 +6888,7 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
-        <f t="shared" ref="A87:A108" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="B87" s="5"/>
@@ -5931,7 +6896,7 @@
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="4"/>
@@ -5939,7 +6904,7 @@
         <v>14</v>
       </c>
       <c r="J87" s="9"/>
-      <c r="K87" s="13"/>
+      <c r="K87" s="12"/>
       <c r="L87" s="11"/>
       <c r="M87" s="11"/>
       <c r="N87" s="11"/>
@@ -5949,25 +6914,29 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
+      <c r="D88" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="E88" s="6"/>
-      <c r="F88" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="F88" s="6"/>
       <c r="G88" s="7"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J88" s="9"/>
-      <c r="K88" s="13"/>
-      <c r="L88" s="11"/>
-      <c r="M88" s="11"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="11">
+        <v>44542</v>
+      </c>
+      <c r="M88" s="11">
+        <v>44225</v>
+      </c>
       <c r="N88" s="11"/>
       <c r="O88" s="11"/>
       <c r="P88" s="9"/>
@@ -5975,25 +6944,29 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="E89" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F89" s="6"/>
       <c r="G89" s="7"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J89" s="9"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="11"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="11">
+        <v>44542</v>
+      </c>
+      <c r="M89" s="11">
+        <v>44556</v>
+      </c>
       <c r="N89" s="11"/>
       <c r="O89" s="11"/>
       <c r="P89" s="9"/>
@@ -6001,7 +6974,7 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="B90" s="5"/>
@@ -6009,7 +6982,7 @@
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G90" s="7"/>
       <c r="H90" s="4"/>
@@ -6027,29 +7000,25 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="G91" s="7"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J91" s="9"/>
-      <c r="K91" s="13"/>
-      <c r="L91" s="11">
-        <v>44556</v>
-      </c>
-      <c r="M91" s="11">
-        <v>44576</v>
-      </c>
+      <c r="K91" s="12"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
       <c r="N91" s="11"/>
       <c r="O91" s="11"/>
       <c r="P91" s="9"/>
@@ -6057,7 +7026,7 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="B92" s="5"/>
@@ -6065,16 +7034,14 @@
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G92" s="7"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J92" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="J92" s="9"/>
       <c r="K92" s="13"/>
       <c r="L92" s="11"/>
       <c r="M92" s="11"/>
@@ -6085,7 +7052,7 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="B93" s="5"/>
@@ -6093,16 +7060,14 @@
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G93" s="7"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J93" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="J93" s="9"/>
       <c r="K93" s="12"/>
       <c r="L93" s="11"/>
       <c r="M93" s="11"/>
@@ -6113,7 +7078,7 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A94:A115" si="2">ROW()-2</f>
         <v>92</v>
       </c>
       <c r="B94" s="5"/>
@@ -6121,16 +7086,14 @@
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G94" s="7"/>
       <c r="H94" s="4"/>
       <c r="I94" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J94" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="J94" s="9"/>
       <c r="K94" s="13"/>
       <c r="L94" s="11"/>
       <c r="M94" s="11"/>
@@ -6141,7 +7104,7 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="B95" s="5"/>
@@ -6149,17 +7112,15 @@
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G95" s="7"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J95" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K95" s="12"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="13"/>
       <c r="L95" s="11"/>
       <c r="M95" s="11"/>
       <c r="N95" s="11"/>
@@ -6169,7 +7130,7 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="B96" s="5"/>
@@ -6177,17 +7138,15 @@
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G96" s="7"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J96" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K96" s="13"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="12"/>
       <c r="L96" s="11"/>
       <c r="M96" s="11"/>
       <c r="N96" s="11"/>
@@ -6197,7 +7156,7 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="B97" s="5"/>
@@ -6205,16 +7164,14 @@
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G97" s="7"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J97" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="J97" s="9"/>
       <c r="K97" s="13"/>
       <c r="L97" s="11"/>
       <c r="M97" s="11"/>
@@ -6225,27 +7182,29 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="E98" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F98" s="6"/>
       <c r="G98" s="7"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J98" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K98" s="12"/>
-      <c r="L98" s="11"/>
-      <c r="M98" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="J98" s="9"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="11">
+        <v>44556</v>
+      </c>
+      <c r="M98" s="11">
+        <v>44576</v>
+      </c>
       <c r="N98" s="11"/>
       <c r="O98" s="11"/>
       <c r="P98" s="9"/>
@@ -6253,7 +7212,7 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="B99" s="5"/>
@@ -6261,7 +7220,7 @@
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G99" s="7"/>
       <c r="H99" s="4"/>
@@ -6281,29 +7240,27 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
-      <c r="E100" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="G100" s="7"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J100" s="9"/>
-      <c r="K100" s="13"/>
-      <c r="L100" s="11">
-        <v>44576</v>
-      </c>
-      <c r="M100" s="11">
-        <v>44590</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K100" s="12"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
       <c r="N100" s="11"/>
       <c r="O100" s="11"/>
       <c r="P100" s="9"/>
@@ -6311,7 +7268,7 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="B101" s="5"/>
@@ -6319,15 +7276,17 @@
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G101" s="7"/>
       <c r="H101" s="4"/>
       <c r="I101" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J101" s="9"/>
-      <c r="K101" s="12"/>
+      <c r="J101" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K101" s="13"/>
       <c r="L101" s="11"/>
       <c r="M101" s="11"/>
       <c r="N101" s="11"/>
@@ -6337,7 +7296,7 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="B102" s="5"/>
@@ -6345,15 +7304,17 @@
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G102" s="7"/>
       <c r="H102" s="4"/>
       <c r="I102" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J102" s="9"/>
-      <c r="K102" s="13"/>
+      <c r="J102" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K102" s="12"/>
       <c r="L102" s="11"/>
       <c r="M102" s="11"/>
       <c r="N102" s="11"/>
@@ -6363,7 +7324,7 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
       <c r="B103" s="5"/>
@@ -6371,15 +7332,17 @@
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G103" s="7"/>
       <c r="H103" s="4"/>
       <c r="I103" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J103" s="9"/>
-      <c r="K103" s="12"/>
+      <c r="J103" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K103" s="13"/>
       <c r="L103" s="11"/>
       <c r="M103" s="11"/>
       <c r="N103" s="11"/>
@@ -6389,7 +7352,7 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
       <c r="B104" s="5"/>
@@ -6397,14 +7360,16 @@
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G104" s="7"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J104" s="9"/>
+      <c r="J104" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="K104" s="13"/>
       <c r="L104" s="11"/>
       <c r="M104" s="11"/>
@@ -6415,7 +7380,7 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>103</v>
       </c>
       <c r="B105" s="5"/>
@@ -6423,15 +7388,17 @@
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G105" s="7"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J105" s="9"/>
-      <c r="K105" s="13"/>
+      <c r="J105" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K105" s="12"/>
       <c r="L105" s="11"/>
       <c r="M105" s="11"/>
       <c r="N105" s="11"/>
@@ -6441,7 +7408,7 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>104</v>
       </c>
       <c r="B106" s="5"/>
@@ -6449,15 +7416,17 @@
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G106" s="7"/>
       <c r="H106" s="4"/>
       <c r="I106" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J106" s="9"/>
-      <c r="K106" s="12"/>
+      <c r="J106" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K106" s="13"/>
       <c r="L106" s="11"/>
       <c r="M106" s="11"/>
       <c r="N106" s="11"/>
@@ -6467,25 +7436,29 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
       <c r="B107" s="5"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="E107" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F107" s="6"/>
       <c r="G107" s="7"/>
       <c r="H107" s="4"/>
       <c r="I107" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J107" s="9"/>
       <c r="K107" s="13"/>
-      <c r="L107" s="11"/>
-      <c r="M107" s="11"/>
+      <c r="L107" s="11">
+        <v>44576</v>
+      </c>
+      <c r="M107" s="11">
+        <v>44590</v>
+      </c>
       <c r="N107" s="11"/>
       <c r="O107" s="11"/>
       <c r="P107" s="9"/>
@@ -6493,7 +7466,7 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>106</v>
       </c>
       <c r="B108" s="5"/>
@@ -6501,7 +7474,7 @@
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
       <c r="F108" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G108" s="7"/>
       <c r="H108" s="4"/>
@@ -6519,29 +7492,25 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>107</v>
       </c>
       <c r="B109" s="5"/>
       <c r="C109" s="6"/>
-      <c r="D109" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="D109" s="6"/>
       <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
+      <c r="F109" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="G109" s="7"/>
       <c r="H109" s="4"/>
       <c r="I109" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J109" s="9"/>
-      <c r="K109" s="12"/>
-      <c r="L109" s="11">
-        <v>44591</v>
-      </c>
-      <c r="M109" s="11">
-        <v>44632</v>
-      </c>
+      <c r="K109" s="13"/>
+      <c r="L109" s="11"/>
+      <c r="M109" s="11"/>
       <c r="N109" s="11"/>
       <c r="O109" s="11"/>
       <c r="P109" s="9"/>
@@ -6549,29 +7518,25 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>108</v>
       </c>
       <c r="B110" s="5"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
-      <c r="E110" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G110" s="7"/>
       <c r="H110" s="4"/>
       <c r="I110" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J110" s="9"/>
-      <c r="K110" s="13"/>
-      <c r="L110" s="11">
-        <v>44591</v>
-      </c>
-      <c r="M110" s="11">
-        <v>44604</v>
-      </c>
+      <c r="K110" s="12"/>
+      <c r="L110" s="11"/>
+      <c r="M110" s="11"/>
       <c r="N110" s="11"/>
       <c r="O110" s="11"/>
       <c r="P110" s="9"/>
@@ -6579,7 +7544,7 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
       <c r="B111" s="5"/>
@@ -6587,7 +7552,7 @@
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G111" s="7"/>
       <c r="H111" s="4"/>
@@ -6605,7 +7570,7 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="B112" s="5"/>
@@ -6613,7 +7578,7 @@
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
       <c r="F112" s="6" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G112" s="7"/>
       <c r="H112" s="4"/>
@@ -6621,7 +7586,7 @@
         <v>14</v>
       </c>
       <c r="J112" s="9"/>
-      <c r="K112" s="12"/>
+      <c r="K112" s="13"/>
       <c r="L112" s="11"/>
       <c r="M112" s="11"/>
       <c r="N112" s="11"/>
@@ -6631,7 +7596,7 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>111</v>
       </c>
       <c r="B113" s="5"/>
@@ -6639,7 +7604,7 @@
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
       <c r="F113" s="6" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G113" s="7"/>
       <c r="H113" s="4"/>
@@ -6647,7 +7612,7 @@
         <v>14</v>
       </c>
       <c r="J113" s="9"/>
-      <c r="K113" s="13"/>
+      <c r="K113" s="12"/>
       <c r="L113" s="11"/>
       <c r="M113" s="11"/>
       <c r="N113" s="11"/>
@@ -6657,7 +7622,7 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>112</v>
       </c>
       <c r="B114" s="5"/>
@@ -6665,7 +7630,7 @@
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G114" s="7"/>
       <c r="H114" s="4"/>
@@ -6673,7 +7638,7 @@
         <v>14</v>
       </c>
       <c r="J114" s="9"/>
-      <c r="K114" s="12"/>
+      <c r="K114" s="13"/>
       <c r="L114" s="11"/>
       <c r="M114" s="11"/>
       <c r="N114" s="11"/>
@@ -6683,7 +7648,7 @@
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>113</v>
       </c>
       <c r="B115" s="5"/>
@@ -6691,7 +7656,7 @@
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G115" s="7"/>
       <c r="H115" s="4"/>
@@ -6699,7 +7664,7 @@
         <v>14</v>
       </c>
       <c r="J115" s="9"/>
-      <c r="K115" s="13"/>
+      <c r="K115" s="12"/>
       <c r="L115" s="11"/>
       <c r="M115" s="11"/>
       <c r="N115" s="11"/>
@@ -6714,25 +7679,23 @@
       </c>
       <c r="B116" s="5"/>
       <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="D116" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="6"/>
       <c r="F116" s="6"/>
       <c r="G116" s="7"/>
       <c r="H116" s="4"/>
       <c r="I116" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J116" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K116" s="13"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="12"/>
       <c r="L116" s="11">
-        <v>44605</v>
+        <v>44591</v>
       </c>
       <c r="M116" s="11">
-        <v>44612</v>
+        <v>44632</v>
       </c>
       <c r="N116" s="11"/>
       <c r="O116" s="11"/>
@@ -6747,21 +7710,23 @@
       <c r="B117" s="5"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="E117" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F117" s="6"/>
       <c r="G117" s="7"/>
       <c r="H117" s="4"/>
       <c r="I117" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J117" s="9" t="s">
-        <v>46</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J117" s="9"/>
       <c r="K117" s="13"/>
-      <c r="L117" s="11"/>
-      <c r="M117" s="11"/>
+      <c r="L117" s="11">
+        <v>44591</v>
+      </c>
+      <c r="M117" s="11">
+        <v>44604</v>
+      </c>
       <c r="N117" s="11"/>
       <c r="O117" s="11"/>
       <c r="P117" s="9"/>
@@ -6777,17 +7742,15 @@
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G118" s="7"/>
       <c r="H118" s="4"/>
       <c r="I118" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J118" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K118" s="12"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="13"/>
       <c r="L118" s="11"/>
       <c r="M118" s="11"/>
       <c r="N118" s="11"/>
@@ -6805,17 +7768,15 @@
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G119" s="7"/>
       <c r="H119" s="4"/>
       <c r="I119" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J119" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K119" s="13"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="12"/>
       <c r="L119" s="11"/>
       <c r="M119" s="11"/>
       <c r="N119" s="11"/>
@@ -6833,17 +7794,15 @@
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G120" s="7"/>
       <c r="H120" s="4"/>
       <c r="I120" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J120" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K120" s="12"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="13"/>
       <c r="L120" s="11"/>
       <c r="M120" s="11"/>
       <c r="N120" s="11"/>
@@ -6861,17 +7820,15 @@
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G121" s="7"/>
       <c r="H121" s="4"/>
       <c r="I121" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J121" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K121" s="13"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="12"/>
       <c r="L121" s="11"/>
       <c r="M121" s="11"/>
       <c r="N121" s="11"/>
@@ -6887,23 +7844,19 @@
       <c r="B122" s="5"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
-      <c r="E122" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="G122" s="7"/>
       <c r="H122" s="4"/>
       <c r="I122" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J122" s="9"/>
       <c r="K122" s="13"/>
-      <c r="L122" s="11">
-        <v>44613</v>
-      </c>
-      <c r="M122" s="11">
-        <v>44632</v>
-      </c>
+      <c r="L122" s="11"/>
+      <c r="M122" s="11"/>
       <c r="N122" s="11"/>
       <c r="O122" s="11"/>
       <c r="P122" s="9"/>
@@ -6917,19 +7870,25 @@
       <c r="B123" s="5"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="E123" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F123" s="6"/>
       <c r="G123" s="7"/>
       <c r="H123" s="4"/>
       <c r="I123" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J123" s="9"/>
-      <c r="K123" s="12"/>
-      <c r="L123" s="11"/>
-      <c r="M123" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="J123" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K123" s="13"/>
+      <c r="L123" s="11">
+        <v>44605</v>
+      </c>
+      <c r="M123" s="11">
+        <v>44612</v>
+      </c>
       <c r="N123" s="11"/>
       <c r="O123" s="11"/>
       <c r="P123" s="9"/>
@@ -6945,14 +7904,16 @@
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
       <c r="F124" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G124" s="7"/>
       <c r="H124" s="4"/>
       <c r="I124" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J124" s="9"/>
+      <c r="J124" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="K124" s="13"/>
       <c r="L124" s="11"/>
       <c r="M124" s="11"/>
@@ -6971,14 +7932,16 @@
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
       <c r="F125" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G125" s="7"/>
       <c r="H125" s="4"/>
       <c r="I125" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J125" s="9"/>
+      <c r="J125" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="K125" s="12"/>
       <c r="L125" s="11"/>
       <c r="M125" s="11"/>
@@ -6997,14 +7960,16 @@
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
       <c r="F126" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G126" s="7"/>
       <c r="H126" s="4"/>
       <c r="I126" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J126" s="9"/>
+      <c r="J126" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="K126" s="13"/>
       <c r="L126" s="11"/>
       <c r="M126" s="11"/>
@@ -7023,15 +7988,17 @@
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
       <c r="F127" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G127" s="7"/>
       <c r="H127" s="4"/>
       <c r="I127" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J127" s="9"/>
-      <c r="K127" s="13"/>
+      <c r="J127" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K127" s="12"/>
       <c r="L127" s="11"/>
       <c r="M127" s="11"/>
       <c r="N127" s="11"/>
@@ -7046,24 +8013,22 @@
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="6"/>
-      <c r="D128" s="6" t="s">
-        <v>74</v>
-      </c>
+      <c r="D128" s="6"/>
       <c r="E128" s="6"/>
-      <c r="F128" s="6"/>
+      <c r="F128" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="G128" s="7"/>
       <c r="H128" s="4"/>
       <c r="I128" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J128" s="9"/>
-      <c r="K128" s="12"/>
-      <c r="L128" s="11">
-        <v>44633</v>
-      </c>
-      <c r="M128" s="11">
-        <v>44681</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="J128" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K128" s="13"/>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
       <c r="N128" s="11"/>
       <c r="O128" s="11"/>
       <c r="P128" s="9"/>
@@ -7071,25 +8036,29 @@
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" s="8">
-        <f t="shared" ref="A129" si="2">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>127</v>
       </c>
       <c r="B129" s="5"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
       <c r="E129" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F129" s="6"/>
       <c r="G129" s="7"/>
       <c r="H129" s="4"/>
       <c r="I129" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J129" s="9"/>
-      <c r="K129" s="12"/>
-      <c r="L129" s="11"/>
-      <c r="M129" s="11"/>
+      <c r="K129" s="13"/>
+      <c r="L129" s="11">
+        <v>44613</v>
+      </c>
+      <c r="M129" s="11">
+        <v>44632</v>
+      </c>
       <c r="N129" s="11"/>
       <c r="O129" s="11"/>
       <c r="P129" s="9"/>
@@ -7103,17 +8072,17 @@
       <c r="B130" s="5"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
-      <c r="E130" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="G130" s="7"/>
       <c r="H130" s="4"/>
       <c r="I130" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J130" s="9"/>
-      <c r="K130" s="13"/>
+      <c r="K130" s="12"/>
       <c r="L130" s="11"/>
       <c r="M130" s="11"/>
       <c r="N130" s="11"/>
@@ -7129,18 +8098,16 @@
       <c r="B131" s="5"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
-      <c r="E131" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="G131" s="7"/>
       <c r="H131" s="4"/>
       <c r="I131" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J131" s="9" t="s">
-        <v>78</v>
-      </c>
+      <c r="J131" s="9"/>
       <c r="K131" s="13"/>
       <c r="L131" s="11"/>
       <c r="M131" s="11"/>
@@ -7158,12 +8125,16 @@
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
       <c r="E132" s="6"/>
-      <c r="F132" s="6"/>
+      <c r="F132" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="G132" s="7"/>
       <c r="H132" s="4"/>
-      <c r="I132" s="4"/>
+      <c r="I132" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="J132" s="9"/>
-      <c r="K132" s="10"/>
+      <c r="K132" s="12"/>
       <c r="L132" s="11"/>
       <c r="M132" s="11"/>
       <c r="N132" s="11"/>
@@ -7180,12 +8151,16 @@
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
       <c r="E133" s="6"/>
-      <c r="F133" s="6"/>
+      <c r="F133" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="G133" s="7"/>
       <c r="H133" s="4"/>
-      <c r="I133" s="4"/>
+      <c r="I133" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="J133" s="9"/>
-      <c r="K133" s="9"/>
+      <c r="K133" s="13"/>
       <c r="L133" s="11"/>
       <c r="M133" s="11"/>
       <c r="N133" s="11"/>
@@ -7202,12 +8177,16 @@
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
-      <c r="F134" s="6"/>
+      <c r="F134" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="G134" s="7"/>
       <c r="H134" s="4"/>
-      <c r="I134" s="4"/>
+      <c r="I134" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="J134" s="9"/>
-      <c r="K134" s="10"/>
+      <c r="K134" s="13"/>
       <c r="L134" s="11"/>
       <c r="M134" s="11"/>
       <c r="N134" s="11"/>
@@ -7222,16 +8201,24 @@
       </c>
       <c r="B135" s="5"/>
       <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
+      <c r="D135" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
       <c r="G135" s="7"/>
       <c r="H135" s="4"/>
-      <c r="I135" s="4"/>
+      <c r="I135" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J135" s="9"/>
-      <c r="K135" s="9"/>
-      <c r="L135" s="11"/>
-      <c r="M135" s="11"/>
+      <c r="K135" s="12"/>
+      <c r="L135" s="11">
+        <v>44633</v>
+      </c>
+      <c r="M135" s="11">
+        <v>44681</v>
+      </c>
       <c r="N135" s="11"/>
       <c r="O135" s="11"/>
       <c r="P135" s="9"/>
@@ -7239,20 +8226,20 @@
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A136" si="3">ROW()-2</f>
         <v>134</v>
       </c>
       <c r="B136" s="5"/>
-      <c r="C136" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="C136" s="6"/>
       <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
+      <c r="E136" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="F136" s="6"/>
       <c r="G136" s="7"/>
       <c r="H136" s="4"/>
       <c r="I136" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J136" s="9"/>
       <c r="K136" s="12"/>
@@ -7270,24 +8257,20 @@
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="6"/>
-      <c r="D137" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="F137" s="6"/>
       <c r="G137" s="7"/>
       <c r="H137" s="4"/>
       <c r="I137" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J137" s="9"/>
-      <c r="K137" s="12"/>
-      <c r="L137" s="11">
-        <v>44394</v>
-      </c>
-      <c r="M137" s="11">
-        <v>44465</v>
-      </c>
+      <c r="K137" s="13"/>
+      <c r="L137" s="11"/>
+      <c r="M137" s="11"/>
       <c r="N137" s="11"/>
       <c r="O137" s="11"/>
       <c r="P137" s="9"/>
@@ -7302,7 +8285,7 @@
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
       <c r="E138" s="6" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="7"/>
@@ -7311,24 +8294,14 @@
         <v>14</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="K138" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="L138" s="11">
-        <v>44394</v>
-      </c>
-      <c r="M138" s="11">
-        <v>44465</v>
-      </c>
-      <c r="N138" s="11">
-        <v>44394</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="K138" s="13"/>
+      <c r="L138" s="11"/>
+      <c r="M138" s="11"/>
+      <c r="N138" s="11"/>
       <c r="O138" s="11"/>
-      <c r="P138" s="9">
-        <v>6</v>
-      </c>
+      <c r="P138" s="9"/>
       <c r="Q138" s="4"/>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.2">
@@ -7339,32 +8312,18 @@
       <c r="B139" s="5"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
-      <c r="E139" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="E139" s="6"/>
       <c r="F139" s="6"/>
       <c r="G139" s="7"/>
       <c r="H139" s="4"/>
-      <c r="I139" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J139" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="K139" s="12"/>
-      <c r="L139" s="11">
-        <v>44394</v>
-      </c>
-      <c r="M139" s="11">
-        <v>44465</v>
-      </c>
-      <c r="N139" s="11">
-        <v>44394</v>
-      </c>
+      <c r="I139" s="4"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="10"/>
+      <c r="L139" s="11"/>
+      <c r="M139" s="11"/>
+      <c r="N139" s="11"/>
       <c r="O139" s="11"/>
-      <c r="P139" s="9">
-        <v>2</v>
-      </c>
+      <c r="P139" s="9"/>
       <c r="Q139" s="4"/>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.2">
@@ -7374,24 +8333,16 @@
       </c>
       <c r="B140" s="5"/>
       <c r="C140" s="6"/>
-      <c r="D140" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="D140" s="6"/>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
       <c r="G140" s="7"/>
       <c r="H140" s="4"/>
-      <c r="I140" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="I140" s="4"/>
       <c r="J140" s="9"/>
-      <c r="K140" s="13"/>
-      <c r="L140" s="11">
-        <v>44466</v>
-      </c>
-      <c r="M140" s="11">
-        <v>44528</v>
-      </c>
+      <c r="K140" s="9"/>
+      <c r="L140" s="11"/>
+      <c r="M140" s="11"/>
       <c r="N140" s="11"/>
       <c r="O140" s="11"/>
       <c r="P140" s="9"/>
@@ -7405,33 +8356,19 @@
       <c r="B141" s="5"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
-      <c r="E141" s="6" t="s">
-        <v>109</v>
-      </c>
+      <c r="E141" s="6"/>
       <c r="F141" s="6"/>
       <c r="G141" s="7"/>
-      <c r="H141" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I141" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J141" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K141" s="12"/>
-      <c r="L141" s="11">
-        <v>44466</v>
-      </c>
-      <c r="M141" s="11">
-        <v>44514</v>
-      </c>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="10"/>
+      <c r="L141" s="11"/>
+      <c r="M141" s="11"/>
       <c r="N141" s="11"/>
       <c r="O141" s="11"/>
       <c r="P141" s="9"/>
-      <c r="Q141" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="Q141" s="4"/>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" s="8">
@@ -7441,27 +8378,15 @@
       <c r="B142" s="5"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
-      <c r="E142" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="E142" s="6"/>
       <c r="F142" s="6"/>
       <c r="G142" s="7"/>
-      <c r="H142" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I142" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J142" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K142" s="12"/>
-      <c r="L142" s="11">
-        <v>44514</v>
-      </c>
-      <c r="M142" s="11">
-        <v>44528</v>
-      </c>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c r="L142" s="11"/>
+      <c r="M142" s="11"/>
       <c r="N142" s="11"/>
       <c r="O142" s="11"/>
       <c r="P142" s="9"/>
@@ -7473,35 +8398,25 @@
         <v>141</v>
       </c>
       <c r="B143" s="5"/>
-      <c r="C143" s="6"/>
+      <c r="C143" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="D143" s="6"/>
-      <c r="E143" s="6" t="s">
-        <v>111</v>
-      </c>
+      <c r="E143" s="6"/>
       <c r="F143" s="6"/>
       <c r="G143" s="7"/>
-      <c r="H143" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="H143" s="4"/>
       <c r="I143" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J143" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K143" s="13"/>
-      <c r="L143" s="11">
-        <v>44466</v>
-      </c>
-      <c r="M143" s="11">
-        <v>44514</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J143" s="9"/>
+      <c r="K143" s="12"/>
+      <c r="L143" s="11"/>
+      <c r="M143" s="11"/>
       <c r="N143" s="11"/>
       <c r="O143" s="11"/>
       <c r="P143" s="9"/>
-      <c r="Q143" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="Q143" s="4"/>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" s="8">
@@ -7510,27 +8425,23 @@
       </c>
       <c r="B144" s="5"/>
       <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="D144" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E144" s="6"/>
       <c r="F144" s="6"/>
       <c r="G144" s="7"/>
-      <c r="H144" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="H144" s="4"/>
       <c r="I144" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J144" s="9" t="s">
-        <v>26</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J144" s="9"/>
       <c r="K144" s="12"/>
       <c r="L144" s="11">
-        <v>44514</v>
+        <v>44394</v>
       </c>
       <c r="M144" s="11">
-        <v>44528</v>
+        <v>44465</v>
       </c>
       <c r="N144" s="11"/>
       <c r="O144" s="11"/>
@@ -7544,27 +8455,35 @@
       </c>
       <c r="B145" s="5"/>
       <c r="C145" s="6"/>
-      <c r="D145" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="F145" s="6"/>
       <c r="G145" s="7"/>
       <c r="H145" s="4"/>
       <c r="I145" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J145" s="9"/>
-      <c r="K145" s="13"/>
+        <v>14</v>
+      </c>
+      <c r="J145" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K145" s="13">
+        <v>0.8</v>
+      </c>
       <c r="L145" s="11">
-        <v>44466</v>
+        <v>44394</v>
       </c>
       <c r="M145" s="11">
-        <v>44499</v>
-      </c>
-      <c r="N145" s="11"/>
+        <v>44465</v>
+      </c>
+      <c r="N145" s="11">
+        <v>44394</v>
+      </c>
       <c r="O145" s="11"/>
-      <c r="P145" s="9"/>
+      <c r="P145" s="9">
+        <v>6</v>
+      </c>
       <c r="Q145" s="4"/>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
@@ -7576,7 +8495,7 @@
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
       <c r="E146" s="6" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="7"/>
@@ -7585,18 +8504,22 @@
         <v>14</v>
       </c>
       <c r="J146" s="9" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="K146" s="12"/>
       <c r="L146" s="11">
-        <v>44466</v>
+        <v>44394</v>
       </c>
       <c r="M146" s="11">
-        <v>44483</v>
-      </c>
-      <c r="N146" s="11"/>
+        <v>44465</v>
+      </c>
+      <c r="N146" s="11">
+        <v>44394</v>
+      </c>
       <c r="O146" s="11"/>
-      <c r="P146" s="9"/>
+      <c r="P146" s="9">
+        <v>2</v>
+      </c>
       <c r="Q146" s="4"/>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
@@ -7606,25 +8529,23 @@
       </c>
       <c r="B147" s="5"/>
       <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="D147" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147" s="6"/>
       <c r="F147" s="6"/>
       <c r="G147" s="7"/>
       <c r="H147" s="4"/>
       <c r="I147" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J147" s="9" t="s">
-        <v>46</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J147" s="9"/>
       <c r="K147" s="13"/>
       <c r="L147" s="11">
-        <v>44484</v>
+        <v>44466</v>
       </c>
       <c r="M147" s="11">
-        <v>44491</v>
+        <v>44528</v>
       </c>
       <c r="N147" s="11"/>
       <c r="O147" s="11"/>
@@ -7640,28 +8561,32 @@
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="7"/>
-      <c r="H148" s="4"/>
+      <c r="H148" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="I148" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J148" s="9" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="K148" s="12"/>
       <c r="L148" s="11">
-        <v>44492</v>
+        <v>44466</v>
       </c>
       <c r="M148" s="11">
-        <v>44499</v>
+        <v>44514</v>
       </c>
       <c r="N148" s="11"/>
       <c r="O148" s="11"/>
       <c r="P148" s="9"/>
-      <c r="Q148" s="4"/>
+      <c r="Q148" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" s="8">
@@ -7670,23 +8595,27 @@
       </c>
       <c r="B149" s="5"/>
       <c r="C149" s="6"/>
-      <c r="D149" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="F149" s="6"/>
       <c r="G149" s="7"/>
-      <c r="H149" s="4"/>
+      <c r="H149" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="I149" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J149" s="9"/>
-      <c r="K149" s="13"/>
+        <v>14</v>
+      </c>
+      <c r="J149" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K149" s="12"/>
       <c r="L149" s="11">
-        <v>44529</v>
+        <v>44514</v>
       </c>
       <c r="M149" s="11">
-        <v>44590</v>
+        <v>44528</v>
       </c>
       <c r="N149" s="11"/>
       <c r="O149" s="11"/>
@@ -7702,26 +8631,32 @@
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
       <c r="E150" s="6" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="F150" s="6"/>
       <c r="G150" s="7"/>
-      <c r="H150" s="4"/>
+      <c r="H150" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="I150" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J150" s="9"/>
-      <c r="K150" s="12"/>
+      <c r="J150" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K150" s="13"/>
       <c r="L150" s="11">
-        <v>44529</v>
+        <v>44466</v>
       </c>
       <c r="M150" s="11">
-        <v>44534</v>
+        <v>44514</v>
       </c>
       <c r="N150" s="11"/>
       <c r="O150" s="11"/>
       <c r="P150" s="9"/>
-      <c r="Q150" s="4"/>
+      <c r="Q150" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" s="8">
@@ -7732,21 +8667,25 @@
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
       <c r="E151" s="6" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="F151" s="6"/>
       <c r="G151" s="7"/>
-      <c r="H151" s="4"/>
+      <c r="H151" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="I151" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J151" s="9"/>
-      <c r="K151" s="13"/>
+      <c r="J151" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K151" s="12"/>
       <c r="L151" s="11">
-        <v>44535</v>
+        <v>44514</v>
       </c>
       <c r="M151" s="11">
-        <v>44556</v>
+        <v>44528</v>
       </c>
       <c r="N151" s="11"/>
       <c r="O151" s="11"/>
@@ -7760,23 +8699,23 @@
       </c>
       <c r="B152" s="5"/>
       <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="D152" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E152" s="6"/>
       <c r="F152" s="6"/>
       <c r="G152" s="7"/>
       <c r="H152" s="4"/>
       <c r="I152" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J152" s="9"/>
-      <c r="K152" s="12"/>
+      <c r="K152" s="13"/>
       <c r="L152" s="11">
-        <v>44557</v>
+        <v>44466</v>
       </c>
       <c r="M152" s="11">
-        <v>44576</v>
+        <v>44499</v>
       </c>
       <c r="N152" s="11"/>
       <c r="O152" s="11"/>
@@ -7792,7 +8731,7 @@
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
       <c r="E153" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F153" s="6"/>
       <c r="G153" s="7"/>
@@ -7800,13 +8739,15 @@
       <c r="I153" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J153" s="9"/>
-      <c r="K153" s="13"/>
+      <c r="J153" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="K153" s="12"/>
       <c r="L153" s="11">
-        <v>44557</v>
+        <v>44466</v>
       </c>
       <c r="M153" s="11">
-        <v>44576</v>
+        <v>44483</v>
       </c>
       <c r="N153" s="11"/>
       <c r="O153" s="11"/>
@@ -7822,7 +8763,7 @@
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
       <c r="E154" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F154" s="6"/>
       <c r="G154" s="7"/>
@@ -7830,13 +8771,15 @@
       <c r="I154" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J154" s="9"/>
-      <c r="K154" s="12"/>
+      <c r="J154" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K154" s="13"/>
       <c r="L154" s="11">
-        <v>44576</v>
+        <v>44484</v>
       </c>
       <c r="M154" s="11">
-        <v>44590</v>
+        <v>44491</v>
       </c>
       <c r="N154" s="11"/>
       <c r="O154" s="11"/>
@@ -7850,23 +8793,25 @@
       </c>
       <c r="B155" s="5"/>
       <c r="C155" s="6"/>
-      <c r="D155" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="F155" s="6"/>
       <c r="G155" s="7"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J155" s="9"/>
-      <c r="K155" s="13"/>
+        <v>14</v>
+      </c>
+      <c r="J155" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="K155" s="12"/>
       <c r="L155" s="11">
-        <v>44529</v>
+        <v>44492</v>
       </c>
       <c r="M155" s="11">
-        <v>44605</v>
+        <v>44499</v>
       </c>
       <c r="N155" s="11"/>
       <c r="O155" s="11"/>
@@ -7880,30 +8825,28 @@
       </c>
       <c r="B156" s="5"/>
       <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
-      <c r="E156" s="6" t="s">
-        <v>104</v>
-      </c>
+      <c r="D156" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E156" s="6"/>
       <c r="F156" s="6"/>
       <c r="G156" s="7"/>
       <c r="H156" s="4"/>
       <c r="I156" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J156" s="9"/>
-      <c r="K156" s="12"/>
+      <c r="K156" s="13"/>
       <c r="L156" s="11">
         <v>44529</v>
       </c>
       <c r="M156" s="11">
-        <v>44534</v>
+        <v>44590</v>
       </c>
       <c r="N156" s="11"/>
       <c r="O156" s="11"/>
       <c r="P156" s="9"/>
-      <c r="Q156" s="4" t="s">
-        <v>105</v>
-      </c>
+      <c r="Q156" s="4"/>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" s="8">
@@ -7914,7 +8857,7 @@
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
       <c r="E157" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F157" s="6"/>
       <c r="G157" s="7"/>
@@ -7925,10 +8868,10 @@
       <c r="J157" s="9"/>
       <c r="K157" s="12"/>
       <c r="L157" s="11">
-        <v>44535</v>
+        <v>44529</v>
       </c>
       <c r="M157" s="11">
-        <v>44556</v>
+        <v>44534</v>
       </c>
       <c r="N157" s="11"/>
       <c r="O157" s="11"/>
@@ -7944,7 +8887,7 @@
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
       <c r="E158" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F158" s="6"/>
       <c r="G158" s="7"/>
@@ -7952,15 +8895,13 @@
       <c r="I158" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J158" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="J158" s="9"/>
       <c r="K158" s="13"/>
       <c r="L158" s="11">
+        <v>44535</v>
+      </c>
+      <c r="M158" s="11">
         <v>44556</v>
-      </c>
-      <c r="M158" s="11">
-        <v>44212</v>
       </c>
       <c r="N158" s="11"/>
       <c r="O158" s="11"/>
@@ -7976,7 +8917,7 @@
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
       <c r="E159" s="6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F159" s="6"/>
       <c r="G159" s="7"/>
@@ -7987,10 +8928,10 @@
       <c r="J159" s="9"/>
       <c r="K159" s="12"/>
       <c r="L159" s="11">
-        <v>44213</v>
+        <v>44557</v>
       </c>
       <c r="M159" s="11">
-        <v>44605</v>
+        <v>44576</v>
       </c>
       <c r="N159" s="11"/>
       <c r="O159" s="11"/>
@@ -8004,26 +8945,28 @@
       </c>
       <c r="B160" s="5"/>
       <c r="C160" s="6"/>
-      <c r="D160" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="F160" s="6"/>
       <c r="G160" s="7"/>
       <c r="H160" s="4"/>
       <c r="I160" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J160" s="9"/>
       <c r="K160" s="13"/>
-      <c r="L160" s="11"/>
-      <c r="M160" s="11"/>
+      <c r="L160" s="11">
+        <v>44557</v>
+      </c>
+      <c r="M160" s="11">
+        <v>44576</v>
+      </c>
       <c r="N160" s="11"/>
       <c r="O160" s="11"/>
       <c r="P160" s="9"/>
-      <c r="Q160" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="Q160" s="4"/>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161" s="8">
@@ -8034,7 +8977,7 @@
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
       <c r="E161" s="6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F161" s="6"/>
       <c r="G161" s="7"/>
@@ -8044,14 +8987,16 @@
       </c>
       <c r="J161" s="9"/>
       <c r="K161" s="12"/>
-      <c r="L161" s="11"/>
-      <c r="M161" s="11"/>
+      <c r="L161" s="11">
+        <v>44576</v>
+      </c>
+      <c r="M161" s="11">
+        <v>44590</v>
+      </c>
       <c r="N161" s="11"/>
       <c r="O161" s="11"/>
       <c r="P161" s="9"/>
-      <c r="Q161" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="Q161" s="4"/>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" s="8">
@@ -8060,28 +9005,28 @@
       </c>
       <c r="B162" s="5"/>
       <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
-      <c r="E162" s="6" t="s">
-        <v>97</v>
-      </c>
+      <c r="D162" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E162" s="6"/>
       <c r="F162" s="6"/>
       <c r="G162" s="7"/>
       <c r="H162" s="4"/>
       <c r="I162" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J162" s="9" t="s">
-        <v>46</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J162" s="9"/>
       <c r="K162" s="13"/>
-      <c r="L162" s="11"/>
-      <c r="M162" s="11"/>
+      <c r="L162" s="11">
+        <v>44529</v>
+      </c>
+      <c r="M162" s="11">
+        <v>44605</v>
+      </c>
       <c r="N162" s="11"/>
       <c r="O162" s="11"/>
       <c r="P162" s="9"/>
-      <c r="Q162" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="Q162" s="4"/>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163" s="8">
@@ -8092,7 +9037,7 @@
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
       <c r="E163" s="6" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F163" s="6"/>
       <c r="G163" s="7"/>
@@ -8102,13 +9047,17 @@
       </c>
       <c r="J163" s="9"/>
       <c r="K163" s="12"/>
-      <c r="L163" s="11"/>
-      <c r="M163" s="11"/>
+      <c r="L163" s="11">
+        <v>44529</v>
+      </c>
+      <c r="M163" s="11">
+        <v>44534</v>
+      </c>
       <c r="N163" s="11"/>
       <c r="O163" s="11"/>
       <c r="P163" s="9"/>
       <c r="Q163" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.2">
@@ -8118,26 +9067,28 @@
       </c>
       <c r="B164" s="5"/>
       <c r="C164" s="6"/>
-      <c r="D164" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="F164" s="6"/>
       <c r="G164" s="7"/>
       <c r="H164" s="4"/>
       <c r="I164" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J164" s="9"/>
-      <c r="K164" s="13"/>
-      <c r="L164" s="11"/>
-      <c r="M164" s="11"/>
+      <c r="K164" s="12"/>
+      <c r="L164" s="11">
+        <v>44535</v>
+      </c>
+      <c r="M164" s="11">
+        <v>44556</v>
+      </c>
       <c r="N164" s="11"/>
       <c r="O164" s="11"/>
       <c r="P164" s="9"/>
-      <c r="Q164" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="Q164" s="4"/>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165" s="8">
@@ -8148,7 +9099,7 @@
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
       <c r="E165" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F165" s="6"/>
       <c r="G165" s="7"/>
@@ -8156,16 +9107,20 @@
       <c r="I165" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J165" s="9"/>
-      <c r="K165" s="12"/>
-      <c r="L165" s="11"/>
-      <c r="M165" s="11"/>
+      <c r="J165" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K165" s="13"/>
+      <c r="L165" s="11">
+        <v>44556</v>
+      </c>
+      <c r="M165" s="11">
+        <v>44212</v>
+      </c>
       <c r="N165" s="11"/>
       <c r="O165" s="11"/>
       <c r="P165" s="9"/>
-      <c r="Q165" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="Q165" s="4"/>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166" s="8">
@@ -8176,7 +9131,7 @@
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
       <c r="E166" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F166" s="6"/>
       <c r="G166" s="7"/>
@@ -8184,18 +9139,18 @@
       <c r="I166" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J166" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K166" s="13"/>
-      <c r="L166" s="11"/>
-      <c r="M166" s="11"/>
+      <c r="J166" s="9"/>
+      <c r="K166" s="12"/>
+      <c r="L166" s="11">
+        <v>44213</v>
+      </c>
+      <c r="M166" s="11">
+        <v>44605</v>
+      </c>
       <c r="N166" s="11"/>
       <c r="O166" s="11"/>
       <c r="P166" s="9"/>
-      <c r="Q166" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="Q166" s="4"/>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167" s="8">
@@ -8204,18 +9159,18 @@
       </c>
       <c r="B167" s="5"/>
       <c r="C167" s="6"/>
-      <c r="D167" s="6"/>
-      <c r="E167" s="6" t="s">
-        <v>102</v>
-      </c>
+      <c r="D167" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E167" s="6"/>
       <c r="F167" s="6"/>
       <c r="G167" s="7"/>
       <c r="H167" s="4"/>
       <c r="I167" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J167" s="9"/>
-      <c r="K167" s="12"/>
+      <c r="K167" s="13"/>
       <c r="L167" s="11"/>
       <c r="M167" s="11"/>
       <c r="N167" s="11"/>
@@ -8232,28 +9187,26 @@
       </c>
       <c r="B168" s="5"/>
       <c r="C168" s="6"/>
-      <c r="D168" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="F168" s="6"/>
       <c r="G168" s="7"/>
       <c r="H168" s="4"/>
       <c r="I168" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J168" s="9"/>
-      <c r="K168" s="13"/>
-      <c r="L168" s="11">
-        <v>44591</v>
-      </c>
-      <c r="M168" s="11">
-        <v>44625</v>
-      </c>
+      <c r="K168" s="12"/>
+      <c r="L168" s="11"/>
+      <c r="M168" s="11"/>
       <c r="N168" s="11"/>
       <c r="O168" s="11"/>
       <c r="P168" s="9"/>
-      <c r="Q168" s="4"/>
+      <c r="Q168" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169" s="8">
@@ -8264,7 +9217,7 @@
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
       <c r="E169" s="6" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F169" s="6"/>
       <c r="G169" s="7"/>
@@ -8272,18 +9225,18 @@
       <c r="I169" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J169" s="9"/>
-      <c r="K169" s="12"/>
-      <c r="L169" s="11">
-        <v>44591</v>
-      </c>
-      <c r="M169" s="11">
-        <v>44604</v>
-      </c>
+      <c r="J169" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K169" s="13"/>
+      <c r="L169" s="11"/>
+      <c r="M169" s="11"/>
       <c r="N169" s="11"/>
       <c r="O169" s="11"/>
       <c r="P169" s="9"/>
-      <c r="Q169" s="4"/>
+      <c r="Q169" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A170" s="8">
@@ -8294,7 +9247,7 @@
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
       <c r="E170" s="6" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F170" s="6"/>
       <c r="G170" s="7"/>
@@ -8302,20 +9255,16 @@
       <c r="I170" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J170" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K170" s="13"/>
-      <c r="L170" s="11">
-        <v>44605</v>
-      </c>
-      <c r="M170" s="11">
-        <v>44618</v>
-      </c>
+      <c r="J170" s="9"/>
+      <c r="K170" s="12"/>
+      <c r="L170" s="11"/>
+      <c r="M170" s="11"/>
       <c r="N170" s="11"/>
       <c r="O170" s="11"/>
       <c r="P170" s="9"/>
-      <c r="Q170" s="4"/>
+      <c r="Q170" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171" s="8">
@@ -8324,28 +9273,26 @@
       </c>
       <c r="B171" s="5"/>
       <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
-      <c r="E171" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="D171" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E171" s="6"/>
       <c r="F171" s="6"/>
       <c r="G171" s="7"/>
       <c r="H171" s="4"/>
       <c r="I171" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J171" s="9"/>
-      <c r="K171" s="12"/>
-      <c r="L171" s="11">
-        <v>44619</v>
-      </c>
-      <c r="M171" s="11">
-        <v>44625</v>
-      </c>
+      <c r="K171" s="13"/>
+      <c r="L171" s="11"/>
+      <c r="M171" s="11"/>
       <c r="N171" s="11"/>
       <c r="O171" s="11"/>
       <c r="P171" s="9"/>
-      <c r="Q171" s="4"/>
+      <c r="Q171" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172" s="8">
@@ -8354,28 +9301,26 @@
       </c>
       <c r="B172" s="5"/>
       <c r="C172" s="6"/>
-      <c r="D172" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="F172" s="6"/>
       <c r="G172" s="7"/>
       <c r="H172" s="4"/>
       <c r="I172" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J172" s="9"/>
-      <c r="K172" s="13"/>
-      <c r="L172" s="11">
-        <v>44654</v>
-      </c>
-      <c r="M172" s="11">
-        <v>44688</v>
-      </c>
+      <c r="K172" s="12"/>
+      <c r="L172" s="11"/>
+      <c r="M172" s="11"/>
       <c r="N172" s="11"/>
       <c r="O172" s="11"/>
       <c r="P172" s="9"/>
-      <c r="Q172" s="4"/>
+      <c r="Q172" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173" s="8">
@@ -8386,7 +9331,7 @@
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
       <c r="E173" s="6" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F173" s="6"/>
       <c r="G173" s="7"/>
@@ -8394,18 +9339,18 @@
       <c r="I173" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J173" s="9"/>
-      <c r="K173" s="12"/>
-      <c r="L173" s="11">
-        <v>44654</v>
-      </c>
-      <c r="M173" s="11">
-        <v>44668</v>
-      </c>
+      <c r="J173" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K173" s="13"/>
+      <c r="L173" s="11"/>
+      <c r="M173" s="11"/>
       <c r="N173" s="11"/>
       <c r="O173" s="11"/>
       <c r="P173" s="9"/>
-      <c r="Q173" s="4"/>
+      <c r="Q173" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174" s="8">
@@ -8416,7 +9361,7 @@
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
       <c r="E174" s="6" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F174" s="6"/>
       <c r="G174" s="7"/>
@@ -8424,20 +9369,16 @@
       <c r="I174" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J174" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K174" s="13"/>
-      <c r="L174" s="11">
-        <v>44669</v>
-      </c>
-      <c r="M174" s="11">
-        <v>44675</v>
-      </c>
+      <c r="J174" s="9"/>
+      <c r="K174" s="12"/>
+      <c r="L174" s="11"/>
+      <c r="M174" s="11"/>
       <c r="N174" s="11"/>
       <c r="O174" s="11"/>
       <c r="P174" s="9"/>
-      <c r="Q174" s="4"/>
+      <c r="Q174" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175" s="8">
@@ -8446,23 +9387,23 @@
       </c>
       <c r="B175" s="5"/>
       <c r="C175" s="6"/>
-      <c r="D175" s="6"/>
-      <c r="E175" s="6" t="s">
-        <v>95</v>
-      </c>
+      <c r="D175" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E175" s="6"/>
       <c r="F175" s="6"/>
       <c r="G175" s="7"/>
       <c r="H175" s="4"/>
       <c r="I175" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J175" s="9"/>
-      <c r="K175" s="12"/>
+      <c r="K175" s="13"/>
       <c r="L175" s="11">
-        <v>44676</v>
+        <v>44591</v>
       </c>
       <c r="M175" s="11">
-        <v>44688</v>
+        <v>44625</v>
       </c>
       <c r="N175" s="11"/>
       <c r="O175" s="11"/>
@@ -8477,15 +9418,23 @@
       <c r="B176" s="5"/>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
-      <c r="E176" s="6"/>
+      <c r="E176" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="F176" s="6"/>
       <c r="G176" s="7"/>
       <c r="H176" s="4"/>
-      <c r="I176" s="4"/>
+      <c r="I176" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="J176" s="9"/>
-      <c r="K176" s="13"/>
-      <c r="L176" s="11"/>
-      <c r="M176" s="11"/>
+      <c r="K176" s="12"/>
+      <c r="L176" s="11">
+        <v>44591</v>
+      </c>
+      <c r="M176" s="11">
+        <v>44604</v>
+      </c>
       <c r="N176" s="11"/>
       <c r="O176" s="11"/>
       <c r="P176" s="9"/>
@@ -8497,21 +9446,27 @@
         <v>175</v>
       </c>
       <c r="B177" s="5"/>
-      <c r="C177" s="6" t="s">
-        <v>112</v>
-      </c>
+      <c r="C177" s="6"/>
       <c r="D177" s="6"/>
-      <c r="E177" s="6"/>
+      <c r="E177" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="F177" s="6"/>
       <c r="G177" s="7"/>
       <c r="H177" s="4"/>
       <c r="I177" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J177" s="9"/>
-      <c r="K177" s="12"/>
-      <c r="L177" s="11"/>
-      <c r="M177" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="J177" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K177" s="13"/>
+      <c r="L177" s="11">
+        <v>44605</v>
+      </c>
+      <c r="M177" s="11">
+        <v>44618</v>
+      </c>
       <c r="N177" s="11"/>
       <c r="O177" s="11"/>
       <c r="P177" s="9"/>
@@ -8524,22 +9479,24 @@
       </c>
       <c r="B178" s="5"/>
       <c r="C178" s="6"/>
-      <c r="D178" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E178" s="6"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="F178" s="6"/>
       <c r="G178" s="7"/>
-      <c r="H178" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="H178" s="4"/>
       <c r="I178" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J178" s="9"/>
-      <c r="K178" s="13"/>
-      <c r="L178" s="11"/>
-      <c r="M178" s="11"/>
+      <c r="K178" s="12"/>
+      <c r="L178" s="11">
+        <v>44619</v>
+      </c>
+      <c r="M178" s="11">
+        <v>44625</v>
+      </c>
       <c r="N178" s="11"/>
       <c r="O178" s="11"/>
       <c r="P178" s="9"/>
@@ -8553,21 +9510,23 @@
       <c r="B179" s="5"/>
       <c r="C179" s="6"/>
       <c r="D179" s="6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
       <c r="G179" s="7"/>
-      <c r="H179" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="H179" s="4"/>
       <c r="I179" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J179" s="9"/>
-      <c r="K179" s="12"/>
-      <c r="L179" s="11"/>
-      <c r="M179" s="11"/>
+      <c r="K179" s="13"/>
+      <c r="L179" s="11">
+        <v>44654</v>
+      </c>
+      <c r="M179" s="11">
+        <v>44688</v>
+      </c>
       <c r="N179" s="11"/>
       <c r="O179" s="11"/>
       <c r="P179" s="9"/>
@@ -8580,10 +9539,10 @@
       </c>
       <c r="B180" s="5"/>
       <c r="C180" s="6"/>
-      <c r="D180" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="F180" s="6"/>
       <c r="G180" s="7"/>
       <c r="H180" s="4"/>
@@ -8591,9 +9550,13 @@
         <v>14</v>
       </c>
       <c r="J180" s="9"/>
-      <c r="K180" s="13"/>
-      <c r="L180" s="11"/>
-      <c r="M180" s="11"/>
+      <c r="K180" s="12"/>
+      <c r="L180" s="11">
+        <v>44654</v>
+      </c>
+      <c r="M180" s="11">
+        <v>44668</v>
+      </c>
       <c r="N180" s="11"/>
       <c r="O180" s="11"/>
       <c r="P180" s="9"/>
@@ -8607,15 +9570,25 @@
       <c r="B181" s="5"/>
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
-      <c r="E181" s="6"/>
+      <c r="E181" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="F181" s="6"/>
       <c r="G181" s="7"/>
       <c r="H181" s="4"/>
-      <c r="I181" s="4"/>
-      <c r="J181" s="9"/>
-      <c r="K181" s="10"/>
-      <c r="L181" s="11"/>
-      <c r="M181" s="11"/>
+      <c r="I181" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J181" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K181" s="13"/>
+      <c r="L181" s="11">
+        <v>44669</v>
+      </c>
+      <c r="M181" s="11">
+        <v>44675</v>
+      </c>
       <c r="N181" s="11"/>
       <c r="O181" s="11"/>
       <c r="P181" s="9"/>
@@ -8629,15 +9602,23 @@
       <c r="B182" s="5"/>
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
-      <c r="E182" s="6"/>
+      <c r="E182" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="F182" s="6"/>
       <c r="G182" s="7"/>
       <c r="H182" s="4"/>
-      <c r="I182" s="4"/>
+      <c r="I182" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="J182" s="9"/>
-      <c r="K182" s="9"/>
-      <c r="L182" s="11"/>
-      <c r="M182" s="11"/>
+      <c r="K182" s="12"/>
+      <c r="L182" s="11">
+        <v>44676</v>
+      </c>
+      <c r="M182" s="11">
+        <v>44688</v>
+      </c>
       <c r="N182" s="11"/>
       <c r="O182" s="11"/>
       <c r="P182" s="9"/>
@@ -8657,7 +9638,7 @@
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
       <c r="J183" s="9"/>
-      <c r="K183" s="10"/>
+      <c r="K183" s="13"/>
       <c r="L183" s="11"/>
       <c r="M183" s="11"/>
       <c r="N183" s="11"/>
@@ -8671,15 +9652,19 @@
         <v>182</v>
       </c>
       <c r="B184" s="5"/>
-      <c r="C184" s="6"/>
+      <c r="C184" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="D184" s="6"/>
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
       <c r="G184" s="7"/>
       <c r="H184" s="4"/>
-      <c r="I184" s="4"/>
+      <c r="I184" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J184" s="9"/>
-      <c r="K184" s="9"/>
+      <c r="K184" s="12"/>
       <c r="L184" s="11"/>
       <c r="M184" s="11"/>
       <c r="N184" s="11"/>
@@ -8694,14 +9679,20 @@
       </c>
       <c r="B185" s="5"/>
       <c r="C185" s="6"/>
-      <c r="D185" s="6"/>
+      <c r="D185" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
       <c r="G185" s="7"/>
-      <c r="H185" s="4"/>
-      <c r="I185" s="4"/>
+      <c r="H185" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I185" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="J185" s="9"/>
-      <c r="K185" s="10"/>
+      <c r="K185" s="13"/>
       <c r="L185" s="11"/>
       <c r="M185" s="11"/>
       <c r="N185" s="11"/>
@@ -8716,14 +9707,20 @@
       </c>
       <c r="B186" s="5"/>
       <c r="C186" s="6"/>
-      <c r="D186" s="6"/>
+      <c r="D186" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
       <c r="G186" s="7"/>
-      <c r="H186" s="4"/>
-      <c r="I186" s="4"/>
+      <c r="H186" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I186" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="J186" s="9"/>
-      <c r="K186" s="9"/>
+      <c r="K186" s="12"/>
       <c r="L186" s="11"/>
       <c r="M186" s="11"/>
       <c r="N186" s="11"/>
@@ -8738,14 +9735,18 @@
       </c>
       <c r="B187" s="5"/>
       <c r="C187" s="6"/>
-      <c r="D187" s="6"/>
+      <c r="D187" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
       <c r="G187" s="7"/>
       <c r="H187" s="4"/>
-      <c r="I187" s="4"/>
+      <c r="I187" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="J187" s="9"/>
-      <c r="K187" s="10"/>
+      <c r="K187" s="13"/>
       <c r="L187" s="11"/>
       <c r="M187" s="11"/>
       <c r="N187" s="11"/>
@@ -8767,7 +9768,7 @@
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
       <c r="J188" s="9"/>
-      <c r="K188" s="9"/>
+      <c r="K188" s="10"/>
       <c r="L188" s="11"/>
       <c r="M188" s="11"/>
       <c r="N188" s="11"/>
@@ -8789,7 +9790,7 @@
       <c r="H189" s="4"/>
       <c r="I189" s="4"/>
       <c r="J189" s="9"/>
-      <c r="K189" s="10"/>
+      <c r="K189" s="9"/>
       <c r="L189" s="11"/>
       <c r="M189" s="11"/>
       <c r="N189" s="11"/>
@@ -8811,7 +9812,7 @@
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
       <c r="J190" s="9"/>
-      <c r="K190" s="9"/>
+      <c r="K190" s="10"/>
       <c r="L190" s="11"/>
       <c r="M190" s="11"/>
       <c r="N190" s="11"/>
@@ -8833,7 +9834,7 @@
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
       <c r="J191" s="9"/>
-      <c r="K191" s="10"/>
+      <c r="K191" s="9"/>
       <c r="L191" s="11"/>
       <c r="M191" s="11"/>
       <c r="N191" s="11"/>
@@ -8855,7 +9856,7 @@
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
       <c r="J192" s="9"/>
-      <c r="K192" s="9"/>
+      <c r="K192" s="10"/>
       <c r="L192" s="11"/>
       <c r="M192" s="11"/>
       <c r="N192" s="11"/>
@@ -8877,7 +9878,7 @@
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
       <c r="J193" s="9"/>
-      <c r="K193" s="10"/>
+      <c r="K193" s="9"/>
       <c r="L193" s="11"/>
       <c r="M193" s="11"/>
       <c r="N193" s="11"/>
@@ -8899,7 +9900,7 @@
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
       <c r="J194" s="9"/>
-      <c r="K194" s="9"/>
+      <c r="K194" s="10"/>
       <c r="L194" s="11"/>
       <c r="M194" s="11"/>
       <c r="N194" s="11"/>
@@ -8921,7 +9922,7 @@
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
       <c r="J195" s="9"/>
-      <c r="K195" s="10"/>
+      <c r="K195" s="9"/>
       <c r="L195" s="11"/>
       <c r="M195" s="11"/>
       <c r="N195" s="11"/>
@@ -8943,7 +9944,7 @@
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
       <c r="J196" s="9"/>
-      <c r="K196" s="9"/>
+      <c r="K196" s="10"/>
       <c r="L196" s="11"/>
       <c r="M196" s="11"/>
       <c r="N196" s="11"/>
@@ -8965,7 +9966,7 @@
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
       <c r="J197" s="9"/>
-      <c r="K197" s="10"/>
+      <c r="K197" s="9"/>
       <c r="L197" s="11"/>
       <c r="M197" s="11"/>
       <c r="N197" s="11"/>
@@ -8987,7 +9988,7 @@
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
       <c r="J198" s="9"/>
-      <c r="K198" s="9"/>
+      <c r="K198" s="10"/>
       <c r="L198" s="11"/>
       <c r="M198" s="11"/>
       <c r="N198" s="11"/>
@@ -9009,7 +10010,7 @@
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
       <c r="J199" s="9"/>
-      <c r="K199" s="10"/>
+      <c r="K199" s="9"/>
       <c r="L199" s="11"/>
       <c r="M199" s="11"/>
       <c r="N199" s="11"/>
@@ -9031,7 +10032,7 @@
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
       <c r="J200" s="9"/>
-      <c r="K200" s="9"/>
+      <c r="K200" s="10"/>
       <c r="L200" s="11"/>
       <c r="M200" s="11"/>
       <c r="N200" s="11"/>
@@ -9053,7 +10054,7 @@
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
       <c r="J201" s="9"/>
-      <c r="K201" s="10"/>
+      <c r="K201" s="9"/>
       <c r="L201" s="11"/>
       <c r="M201" s="11"/>
       <c r="N201" s="11"/>
@@ -9075,7 +10076,7 @@
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
       <c r="J202" s="9"/>
-      <c r="K202" s="9"/>
+      <c r="K202" s="10"/>
       <c r="L202" s="11"/>
       <c r="M202" s="11"/>
       <c r="N202" s="11"/>
@@ -9097,7 +10098,7 @@
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
       <c r="J203" s="9"/>
-      <c r="K203" s="10"/>
+      <c r="K203" s="9"/>
       <c r="L203" s="11"/>
       <c r="M203" s="11"/>
       <c r="N203" s="11"/>
@@ -9119,7 +10120,7 @@
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
       <c r="J204" s="9"/>
-      <c r="K204" s="9"/>
+      <c r="K204" s="10"/>
       <c r="L204" s="11"/>
       <c r="M204" s="11"/>
       <c r="N204" s="11"/>
@@ -9141,7 +10142,7 @@
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
       <c r="J205" s="9"/>
-      <c r="K205" s="10"/>
+      <c r="K205" s="9"/>
       <c r="L205" s="11"/>
       <c r="M205" s="11"/>
       <c r="N205" s="11"/>
@@ -9163,7 +10164,7 @@
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
       <c r="J206" s="9"/>
-      <c r="K206" s="9"/>
+      <c r="K206" s="10"/>
       <c r="L206" s="11"/>
       <c r="M206" s="11"/>
       <c r="N206" s="11"/>
@@ -9185,7 +10186,7 @@
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
       <c r="J207" s="9"/>
-      <c r="K207" s="10"/>
+      <c r="K207" s="9"/>
       <c r="L207" s="11"/>
       <c r="M207" s="11"/>
       <c r="N207" s="11"/>
@@ -9207,7 +10208,7 @@
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
       <c r="J208" s="9"/>
-      <c r="K208" s="9"/>
+      <c r="K208" s="10"/>
       <c r="L208" s="11"/>
       <c r="M208" s="11"/>
       <c r="N208" s="11"/>
@@ -9229,7 +10230,7 @@
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
       <c r="J209" s="9"/>
-      <c r="K209" s="10"/>
+      <c r="K209" s="9"/>
       <c r="L209" s="11"/>
       <c r="M209" s="11"/>
       <c r="N209" s="11"/>
@@ -9251,7 +10252,7 @@
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
       <c r="J210" s="9"/>
-      <c r="K210" s="9"/>
+      <c r="K210" s="10"/>
       <c r="L210" s="11"/>
       <c r="M210" s="11"/>
       <c r="N210" s="11"/>
@@ -9273,7 +10274,7 @@
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
       <c r="J211" s="9"/>
-      <c r="K211" s="10"/>
+      <c r="K211" s="9"/>
       <c r="L211" s="11"/>
       <c r="M211" s="11"/>
       <c r="N211" s="11"/>
@@ -9295,7 +10296,7 @@
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
       <c r="J212" s="9"/>
-      <c r="K212" s="9"/>
+      <c r="K212" s="10"/>
       <c r="L212" s="11"/>
       <c r="M212" s="11"/>
       <c r="N212" s="11"/>
@@ -9317,7 +10318,7 @@
       <c r="H213" s="4"/>
       <c r="I213" s="4"/>
       <c r="J213" s="9"/>
-      <c r="K213" s="10"/>
+      <c r="K213" s="9"/>
       <c r="L213" s="11"/>
       <c r="M213" s="11"/>
       <c r="N213" s="11"/>
@@ -9339,7 +10340,7 @@
       <c r="H214" s="4"/>
       <c r="I214" s="4"/>
       <c r="J214" s="9"/>
-      <c r="K214" s="9"/>
+      <c r="K214" s="10"/>
       <c r="L214" s="11"/>
       <c r="M214" s="11"/>
       <c r="N214" s="11"/>
@@ -9361,7 +10362,7 @@
       <c r="H215" s="4"/>
       <c r="I215" s="4"/>
       <c r="J215" s="9"/>
-      <c r="K215" s="10"/>
+      <c r="K215" s="9"/>
       <c r="L215" s="11"/>
       <c r="M215" s="11"/>
       <c r="N215" s="11"/>
@@ -9383,7 +10384,7 @@
       <c r="H216" s="4"/>
       <c r="I216" s="4"/>
       <c r="J216" s="9"/>
-      <c r="K216" s="9"/>
+      <c r="K216" s="10"/>
       <c r="L216" s="11"/>
       <c r="M216" s="11"/>
       <c r="N216" s="11"/>
@@ -9405,7 +10406,7 @@
       <c r="H217" s="4"/>
       <c r="I217" s="4"/>
       <c r="J217" s="9"/>
-      <c r="K217" s="10"/>
+      <c r="K217" s="9"/>
       <c r="L217" s="11"/>
       <c r="M217" s="11"/>
       <c r="N217" s="11"/>
@@ -9427,7 +10428,7 @@
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
       <c r="J218" s="9"/>
-      <c r="K218" s="9"/>
+      <c r="K218" s="10"/>
       <c r="L218" s="11"/>
       <c r="M218" s="11"/>
       <c r="N218" s="11"/>
@@ -9449,7 +10450,7 @@
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
       <c r="J219" s="9"/>
-      <c r="K219" s="10"/>
+      <c r="K219" s="9"/>
       <c r="L219" s="11"/>
       <c r="M219" s="11"/>
       <c r="N219" s="11"/>
@@ -9471,7 +10472,7 @@
       <c r="H220" s="4"/>
       <c r="I220" s="4"/>
       <c r="J220" s="9"/>
-      <c r="K220" s="9"/>
+      <c r="K220" s="10"/>
       <c r="L220" s="11"/>
       <c r="M220" s="11"/>
       <c r="N220" s="11"/>
@@ -9493,7 +10494,7 @@
       <c r="H221" s="4"/>
       <c r="I221" s="4"/>
       <c r="J221" s="9"/>
-      <c r="K221" s="10"/>
+      <c r="K221" s="9"/>
       <c r="L221" s="11"/>
       <c r="M221" s="11"/>
       <c r="N221" s="11"/>
@@ -9515,7 +10516,7 @@
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
       <c r="J222" s="9"/>
-      <c r="K222" s="9"/>
+      <c r="K222" s="10"/>
       <c r="L222" s="11"/>
       <c r="M222" s="11"/>
       <c r="N222" s="11"/>
@@ -9537,7 +10538,7 @@
       <c r="H223" s="4"/>
       <c r="I223" s="4"/>
       <c r="J223" s="9"/>
-      <c r="K223" s="10"/>
+      <c r="K223" s="9"/>
       <c r="L223" s="11"/>
       <c r="M223" s="11"/>
       <c r="N223" s="11"/>
@@ -9559,7 +10560,7 @@
       <c r="H224" s="4"/>
       <c r="I224" s="4"/>
       <c r="J224" s="9"/>
-      <c r="K224" s="9"/>
+      <c r="K224" s="10"/>
       <c r="L224" s="11"/>
       <c r="M224" s="11"/>
       <c r="N224" s="11"/>
@@ -9581,7 +10582,7 @@
       <c r="H225" s="4"/>
       <c r="I225" s="4"/>
       <c r="J225" s="9"/>
-      <c r="K225" s="10"/>
+      <c r="K225" s="9"/>
       <c r="L225" s="11"/>
       <c r="M225" s="11"/>
       <c r="N225" s="11"/>
@@ -9603,7 +10604,7 @@
       <c r="H226" s="4"/>
       <c r="I226" s="4"/>
       <c r="J226" s="9"/>
-      <c r="K226" s="9"/>
+      <c r="K226" s="10"/>
       <c r="L226" s="11"/>
       <c r="M226" s="11"/>
       <c r="N226" s="11"/>
@@ -9625,7 +10626,7 @@
       <c r="H227" s="4"/>
       <c r="I227" s="4"/>
       <c r="J227" s="9"/>
-      <c r="K227" s="10"/>
+      <c r="K227" s="9"/>
       <c r="L227" s="11"/>
       <c r="M227" s="11"/>
       <c r="N227" s="11"/>
@@ -9647,7 +10648,7 @@
       <c r="H228" s="4"/>
       <c r="I228" s="4"/>
       <c r="J228" s="9"/>
-      <c r="K228" s="9"/>
+      <c r="K228" s="10"/>
       <c r="L228" s="11"/>
       <c r="M228" s="11"/>
       <c r="N228" s="11"/>
@@ -9669,7 +10670,7 @@
       <c r="H229" s="4"/>
       <c r="I229" s="4"/>
       <c r="J229" s="9"/>
-      <c r="K229" s="10"/>
+      <c r="K229" s="9"/>
       <c r="L229" s="11"/>
       <c r="M229" s="11"/>
       <c r="N229" s="11"/>
@@ -9691,7 +10692,7 @@
       <c r="H230" s="4"/>
       <c r="I230" s="4"/>
       <c r="J230" s="9"/>
-      <c r="K230" s="9"/>
+      <c r="K230" s="10"/>
       <c r="L230" s="11"/>
       <c r="M230" s="11"/>
       <c r="N230" s="11"/>
@@ -9713,7 +10714,7 @@
       <c r="H231" s="4"/>
       <c r="I231" s="4"/>
       <c r="J231" s="9"/>
-      <c r="K231" s="10"/>
+      <c r="K231" s="9"/>
       <c r="L231" s="11"/>
       <c r="M231" s="11"/>
       <c r="N231" s="11"/>
@@ -9735,7 +10736,7 @@
       <c r="H232" s="4"/>
       <c r="I232" s="4"/>
       <c r="J232" s="9"/>
-      <c r="K232" s="9"/>
+      <c r="K232" s="10"/>
       <c r="L232" s="11"/>
       <c r="M232" s="11"/>
       <c r="N232" s="11"/>
@@ -9757,7 +10758,7 @@
       <c r="H233" s="4"/>
       <c r="I233" s="4"/>
       <c r="J233" s="9"/>
-      <c r="K233" s="10"/>
+      <c r="K233" s="9"/>
       <c r="L233" s="11"/>
       <c r="M233" s="11"/>
       <c r="N233" s="11"/>
@@ -9779,7 +10780,7 @@
       <c r="H234" s="4"/>
       <c r="I234" s="4"/>
       <c r="J234" s="9"/>
-      <c r="K234" s="9"/>
+      <c r="K234" s="10"/>
       <c r="L234" s="11"/>
       <c r="M234" s="11"/>
       <c r="N234" s="11"/>
@@ -9801,7 +10802,7 @@
       <c r="H235" s="4"/>
       <c r="I235" s="4"/>
       <c r="J235" s="9"/>
-      <c r="K235" s="10"/>
+      <c r="K235" s="9"/>
       <c r="L235" s="11"/>
       <c r="M235" s="11"/>
       <c r="N235" s="11"/>
@@ -9823,7 +10824,7 @@
       <c r="H236" s="4"/>
       <c r="I236" s="4"/>
       <c r="J236" s="9"/>
-      <c r="K236" s="9"/>
+      <c r="K236" s="10"/>
       <c r="L236" s="11"/>
       <c r="M236" s="11"/>
       <c r="N236" s="11"/>
@@ -9845,7 +10846,7 @@
       <c r="H237" s="4"/>
       <c r="I237" s="4"/>
       <c r="J237" s="9"/>
-      <c r="K237" s="10"/>
+      <c r="K237" s="9"/>
       <c r="L237" s="11"/>
       <c r="M237" s="11"/>
       <c r="N237" s="11"/>
@@ -9867,7 +10868,7 @@
       <c r="H238" s="4"/>
       <c r="I238" s="4"/>
       <c r="J238" s="9"/>
-      <c r="K238" s="9"/>
+      <c r="K238" s="10"/>
       <c r="L238" s="11"/>
       <c r="M238" s="11"/>
       <c r="N238" s="11"/>
@@ -9889,7 +10890,7 @@
       <c r="H239" s="4"/>
       <c r="I239" s="4"/>
       <c r="J239" s="9"/>
-      <c r="K239" s="10"/>
+      <c r="K239" s="9"/>
       <c r="L239" s="11"/>
       <c r="M239" s="11"/>
       <c r="N239" s="11"/>
@@ -9911,7 +10912,7 @@
       <c r="H240" s="4"/>
       <c r="I240" s="4"/>
       <c r="J240" s="9"/>
-      <c r="K240" s="9"/>
+      <c r="K240" s="10"/>
       <c r="L240" s="11"/>
       <c r="M240" s="11"/>
       <c r="N240" s="11"/>
@@ -9933,7 +10934,7 @@
       <c r="H241" s="4"/>
       <c r="I241" s="4"/>
       <c r="J241" s="9"/>
-      <c r="K241" s="10"/>
+      <c r="K241" s="9"/>
       <c r="L241" s="11"/>
       <c r="M241" s="11"/>
       <c r="N241" s="11"/>
@@ -9955,7 +10956,7 @@
       <c r="H242" s="4"/>
       <c r="I242" s="4"/>
       <c r="J242" s="9"/>
-      <c r="K242" s="9"/>
+      <c r="K242" s="10"/>
       <c r="L242" s="11"/>
       <c r="M242" s="11"/>
       <c r="N242" s="11"/>
@@ -9977,7 +10978,7 @@
       <c r="H243" s="4"/>
       <c r="I243" s="4"/>
       <c r="J243" s="9"/>
-      <c r="K243" s="10"/>
+      <c r="K243" s="9"/>
       <c r="L243" s="11"/>
       <c r="M243" s="11"/>
       <c r="N243" s="11"/>
@@ -9999,7 +11000,7 @@
       <c r="H244" s="4"/>
       <c r="I244" s="4"/>
       <c r="J244" s="9"/>
-      <c r="K244" s="9"/>
+      <c r="K244" s="10"/>
       <c r="L244" s="11"/>
       <c r="M244" s="11"/>
       <c r="N244" s="11"/>
@@ -10021,7 +11022,7 @@
       <c r="H245" s="4"/>
       <c r="I245" s="4"/>
       <c r="J245" s="9"/>
-      <c r="K245" s="10"/>
+      <c r="K245" s="9"/>
       <c r="L245" s="11"/>
       <c r="M245" s="11"/>
       <c r="N245" s="11"/>
@@ -10043,7 +11044,7 @@
       <c r="H246" s="4"/>
       <c r="I246" s="4"/>
       <c r="J246" s="9"/>
-      <c r="K246" s="9"/>
+      <c r="K246" s="10"/>
       <c r="L246" s="11"/>
       <c r="M246" s="11"/>
       <c r="N246" s="11"/>
@@ -10065,7 +11066,7 @@
       <c r="H247" s="4"/>
       <c r="I247" s="4"/>
       <c r="J247" s="9"/>
-      <c r="K247" s="10"/>
+      <c r="K247" s="9"/>
       <c r="L247" s="11"/>
       <c r="M247" s="11"/>
       <c r="N247" s="11"/>
@@ -10087,7 +11088,7 @@
       <c r="H248" s="4"/>
       <c r="I248" s="4"/>
       <c r="J248" s="9"/>
-      <c r="K248" s="9"/>
+      <c r="K248" s="10"/>
       <c r="L248" s="11"/>
       <c r="M248" s="11"/>
       <c r="N248" s="11"/>
@@ -10109,7 +11110,7 @@
       <c r="H249" s="4"/>
       <c r="I249" s="4"/>
       <c r="J249" s="9"/>
-      <c r="K249" s="10"/>
+      <c r="K249" s="9"/>
       <c r="L249" s="11"/>
       <c r="M249" s="11"/>
       <c r="N249" s="11"/>
@@ -10131,7 +11132,7 @@
       <c r="H250" s="4"/>
       <c r="I250" s="4"/>
       <c r="J250" s="9"/>
-      <c r="K250" s="9"/>
+      <c r="K250" s="10"/>
       <c r="L250" s="11"/>
       <c r="M250" s="11"/>
       <c r="N250" s="11"/>
@@ -10153,7 +11154,7 @@
       <c r="H251" s="4"/>
       <c r="I251" s="4"/>
       <c r="J251" s="9"/>
-      <c r="K251" s="10"/>
+      <c r="K251" s="9"/>
       <c r="L251" s="11"/>
       <c r="M251" s="11"/>
       <c r="N251" s="11"/>
@@ -10175,7 +11176,7 @@
       <c r="H252" s="4"/>
       <c r="I252" s="4"/>
       <c r="J252" s="9"/>
-      <c r="K252" s="9"/>
+      <c r="K252" s="10"/>
       <c r="L252" s="11"/>
       <c r="M252" s="11"/>
       <c r="N252" s="11"/>
@@ -10197,7 +11198,7 @@
       <c r="H253" s="4"/>
       <c r="I253" s="4"/>
       <c r="J253" s="9"/>
-      <c r="K253" s="10"/>
+      <c r="K253" s="9"/>
       <c r="L253" s="11"/>
       <c r="M253" s="11"/>
       <c r="N253" s="11"/>
@@ -10219,7 +11220,7 @@
       <c r="H254" s="4"/>
       <c r="I254" s="4"/>
       <c r="J254" s="9"/>
-      <c r="K254" s="9"/>
+      <c r="K254" s="10"/>
       <c r="L254" s="11"/>
       <c r="M254" s="11"/>
       <c r="N254" s="11"/>
@@ -10241,7 +11242,7 @@
       <c r="H255" s="4"/>
       <c r="I255" s="4"/>
       <c r="J255" s="9"/>
-      <c r="K255" s="10"/>
+      <c r="K255" s="9"/>
       <c r="L255" s="11"/>
       <c r="M255" s="11"/>
       <c r="N255" s="11"/>
@@ -10263,7 +11264,7 @@
       <c r="H256" s="4"/>
       <c r="I256" s="4"/>
       <c r="J256" s="9"/>
-      <c r="K256" s="9"/>
+      <c r="K256" s="10"/>
       <c r="L256" s="11"/>
       <c r="M256" s="11"/>
       <c r="N256" s="11"/>
@@ -10285,7 +11286,7 @@
       <c r="H257" s="4"/>
       <c r="I257" s="4"/>
       <c r="J257" s="9"/>
-      <c r="K257" s="10"/>
+      <c r="K257" s="9"/>
       <c r="L257" s="11"/>
       <c r="M257" s="11"/>
       <c r="N257" s="11"/>
@@ -10307,7 +11308,7 @@
       <c r="H258" s="4"/>
       <c r="I258" s="4"/>
       <c r="J258" s="9"/>
-      <c r="K258" s="9"/>
+      <c r="K258" s="10"/>
       <c r="L258" s="11"/>
       <c r="M258" s="11"/>
       <c r="N258" s="11"/>
@@ -10329,7 +11330,7 @@
       <c r="H259" s="4"/>
       <c r="I259" s="4"/>
       <c r="J259" s="9"/>
-      <c r="K259" s="10"/>
+      <c r="K259" s="9"/>
       <c r="L259" s="11"/>
       <c r="M259" s="11"/>
       <c r="N259" s="11"/>
@@ -10351,7 +11352,7 @@
       <c r="H260" s="4"/>
       <c r="I260" s="4"/>
       <c r="J260" s="9"/>
-      <c r="K260" s="9"/>
+      <c r="K260" s="10"/>
       <c r="L260" s="11"/>
       <c r="M260" s="11"/>
       <c r="N260" s="11"/>
@@ -10373,7 +11374,7 @@
       <c r="H261" s="4"/>
       <c r="I261" s="4"/>
       <c r="J261" s="9"/>
-      <c r="K261" s="10"/>
+      <c r="K261" s="9"/>
       <c r="L261" s="11"/>
       <c r="M261" s="11"/>
       <c r="N261" s="11"/>
@@ -10395,7 +11396,7 @@
       <c r="H262" s="4"/>
       <c r="I262" s="4"/>
       <c r="J262" s="9"/>
-      <c r="K262" s="9"/>
+      <c r="K262" s="10"/>
       <c r="L262" s="11"/>
       <c r="M262" s="11"/>
       <c r="N262" s="11"/>
@@ -10417,7 +11418,7 @@
       <c r="H263" s="4"/>
       <c r="I263" s="4"/>
       <c r="J263" s="9"/>
-      <c r="K263" s="10"/>
+      <c r="K263" s="9"/>
       <c r="L263" s="11"/>
       <c r="M263" s="11"/>
       <c r="N263" s="11"/>
@@ -10439,7 +11440,7 @@
       <c r="H264" s="4"/>
       <c r="I264" s="4"/>
       <c r="J264" s="9"/>
-      <c r="K264" s="9"/>
+      <c r="K264" s="10"/>
       <c r="L264" s="11"/>
       <c r="M264" s="11"/>
       <c r="N264" s="11"/>
@@ -10461,7 +11462,7 @@
       <c r="H265" s="4"/>
       <c r="I265" s="4"/>
       <c r="J265" s="9"/>
-      <c r="K265" s="10"/>
+      <c r="K265" s="9"/>
       <c r="L265" s="11"/>
       <c r="M265" s="11"/>
       <c r="N265" s="11"/>
@@ -10483,7 +11484,7 @@
       <c r="H266" s="4"/>
       <c r="I266" s="4"/>
       <c r="J266" s="9"/>
-      <c r="K266" s="9"/>
+      <c r="K266" s="10"/>
       <c r="L266" s="11"/>
       <c r="M266" s="11"/>
       <c r="N266" s="11"/>
@@ -10505,7 +11506,7 @@
       <c r="H267" s="4"/>
       <c r="I267" s="4"/>
       <c r="J267" s="9"/>
-      <c r="K267" s="10"/>
+      <c r="K267" s="9"/>
       <c r="L267" s="11"/>
       <c r="M267" s="11"/>
       <c r="N267" s="11"/>
@@ -10527,7 +11528,7 @@
       <c r="H268" s="4"/>
       <c r="I268" s="4"/>
       <c r="J268" s="9"/>
-      <c r="K268" s="9"/>
+      <c r="K268" s="10"/>
       <c r="L268" s="11"/>
       <c r="M268" s="11"/>
       <c r="N268" s="11"/>
@@ -10549,7 +11550,7 @@
       <c r="H269" s="4"/>
       <c r="I269" s="4"/>
       <c r="J269" s="9"/>
-      <c r="K269" s="10"/>
+      <c r="K269" s="9"/>
       <c r="L269" s="11"/>
       <c r="M269" s="11"/>
       <c r="N269" s="11"/>
@@ -10571,7 +11572,7 @@
       <c r="H270" s="4"/>
       <c r="I270" s="4"/>
       <c r="J270" s="9"/>
-      <c r="K270" s="9"/>
+      <c r="K270" s="10"/>
       <c r="L270" s="11"/>
       <c r="M270" s="11"/>
       <c r="N270" s="11"/>
@@ -10593,7 +11594,7 @@
       <c r="H271" s="4"/>
       <c r="I271" s="4"/>
       <c r="J271" s="9"/>
-      <c r="K271" s="10"/>
+      <c r="K271" s="9"/>
       <c r="L271" s="11"/>
       <c r="M271" s="11"/>
       <c r="N271" s="11"/>
@@ -10615,7 +11616,7 @@
       <c r="H272" s="4"/>
       <c r="I272" s="4"/>
       <c r="J272" s="9"/>
-      <c r="K272" s="9"/>
+      <c r="K272" s="10"/>
       <c r="L272" s="11"/>
       <c r="M272" s="11"/>
       <c r="N272" s="11"/>
@@ -10637,7 +11638,7 @@
       <c r="H273" s="4"/>
       <c r="I273" s="4"/>
       <c r="J273" s="9"/>
-      <c r="K273" s="10"/>
+      <c r="K273" s="9"/>
       <c r="L273" s="11"/>
       <c r="M273" s="11"/>
       <c r="N273" s="11"/>
@@ -10659,7 +11660,7 @@
       <c r="H274" s="4"/>
       <c r="I274" s="4"/>
       <c r="J274" s="9"/>
-      <c r="K274" s="9"/>
+      <c r="K274" s="10"/>
       <c r="L274" s="11"/>
       <c r="M274" s="11"/>
       <c r="N274" s="11"/>
@@ -10681,7 +11682,7 @@
       <c r="H275" s="4"/>
       <c r="I275" s="4"/>
       <c r="J275" s="9"/>
-      <c r="K275" s="10"/>
+      <c r="K275" s="9"/>
       <c r="L275" s="11"/>
       <c r="M275" s="11"/>
       <c r="N275" s="11"/>
@@ -10703,7 +11704,7 @@
       <c r="H276" s="4"/>
       <c r="I276" s="4"/>
       <c r="J276" s="9"/>
-      <c r="K276" s="9"/>
+      <c r="K276" s="10"/>
       <c r="L276" s="11"/>
       <c r="M276" s="11"/>
       <c r="N276" s="11"/>
@@ -10725,7 +11726,7 @@
       <c r="H277" s="4"/>
       <c r="I277" s="4"/>
       <c r="J277" s="9"/>
-      <c r="K277" s="10"/>
+      <c r="K277" s="9"/>
       <c r="L277" s="11"/>
       <c r="M277" s="11"/>
       <c r="N277" s="11"/>
@@ -10747,13 +11748,167 @@
       <c r="H278" s="4"/>
       <c r="I278" s="4"/>
       <c r="J278" s="9"/>
-      <c r="K278" s="9"/>
+      <c r="K278" s="10"/>
       <c r="L278" s="11"/>
       <c r="M278" s="11"/>
       <c r="N278" s="11"/>
       <c r="O278" s="11"/>
       <c r="P278" s="9"/>
       <c r="Q278" s="4"/>
+    </row>
+    <row r="279" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A279" s="8">
+        <f t="shared" si="0"/>
+        <v>277</v>
+      </c>
+      <c r="B279" s="5"/>
+      <c r="C279" s="6"/>
+      <c r="D279" s="6"/>
+      <c r="E279" s="6"/>
+      <c r="F279" s="6"/>
+      <c r="G279" s="7"/>
+      <c r="H279" s="4"/>
+      <c r="I279" s="4"/>
+      <c r="J279" s="9"/>
+      <c r="K279" s="9"/>
+      <c r="L279" s="11"/>
+      <c r="M279" s="11"/>
+      <c r="N279" s="11"/>
+      <c r="O279" s="11"/>
+      <c r="P279" s="9"/>
+      <c r="Q279" s="4"/>
+    </row>
+    <row r="280" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A280" s="8">
+        <f t="shared" si="0"/>
+        <v>278</v>
+      </c>
+      <c r="B280" s="5"/>
+      <c r="C280" s="6"/>
+      <c r="D280" s="6"/>
+      <c r="E280" s="6"/>
+      <c r="F280" s="6"/>
+      <c r="G280" s="7"/>
+      <c r="H280" s="4"/>
+      <c r="I280" s="4"/>
+      <c r="J280" s="9"/>
+      <c r="K280" s="10"/>
+      <c r="L280" s="11"/>
+      <c r="M280" s="11"/>
+      <c r="N280" s="11"/>
+      <c r="O280" s="11"/>
+      <c r="P280" s="9"/>
+      <c r="Q280" s="4"/>
+    </row>
+    <row r="281" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A281" s="8">
+        <f t="shared" si="0"/>
+        <v>279</v>
+      </c>
+      <c r="B281" s="5"/>
+      <c r="C281" s="6"/>
+      <c r="D281" s="6"/>
+      <c r="E281" s="6"/>
+      <c r="F281" s="6"/>
+      <c r="G281" s="7"/>
+      <c r="H281" s="4"/>
+      <c r="I281" s="4"/>
+      <c r="J281" s="9"/>
+      <c r="K281" s="9"/>
+      <c r="L281" s="11"/>
+      <c r="M281" s="11"/>
+      <c r="N281" s="11"/>
+      <c r="O281" s="11"/>
+      <c r="P281" s="9"/>
+      <c r="Q281" s="4"/>
+    </row>
+    <row r="282" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A282" s="8">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="B282" s="5"/>
+      <c r="C282" s="6"/>
+      <c r="D282" s="6"/>
+      <c r="E282" s="6"/>
+      <c r="F282" s="6"/>
+      <c r="G282" s="7"/>
+      <c r="H282" s="4"/>
+      <c r="I282" s="4"/>
+      <c r="J282" s="9"/>
+      <c r="K282" s="10"/>
+      <c r="L282" s="11"/>
+      <c r="M282" s="11"/>
+      <c r="N282" s="11"/>
+      <c r="O282" s="11"/>
+      <c r="P282" s="9"/>
+      <c r="Q282" s="4"/>
+    </row>
+    <row r="283" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A283" s="8">
+        <f t="shared" si="0"/>
+        <v>281</v>
+      </c>
+      <c r="B283" s="5"/>
+      <c r="C283" s="6"/>
+      <c r="D283" s="6"/>
+      <c r="E283" s="6"/>
+      <c r="F283" s="6"/>
+      <c r="G283" s="7"/>
+      <c r="H283" s="4"/>
+      <c r="I283" s="4"/>
+      <c r="J283" s="9"/>
+      <c r="K283" s="9"/>
+      <c r="L283" s="11"/>
+      <c r="M283" s="11"/>
+      <c r="N283" s="11"/>
+      <c r="O283" s="11"/>
+      <c r="P283" s="9"/>
+      <c r="Q283" s="4"/>
+    </row>
+    <row r="284" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A284" s="8">
+        <f t="shared" si="0"/>
+        <v>282</v>
+      </c>
+      <c r="B284" s="5"/>
+      <c r="C284" s="6"/>
+      <c r="D284" s="6"/>
+      <c r="E284" s="6"/>
+      <c r="F284" s="6"/>
+      <c r="G284" s="7"/>
+      <c r="H284" s="4"/>
+      <c r="I284" s="4"/>
+      <c r="J284" s="9"/>
+      <c r="K284" s="10"/>
+      <c r="L284" s="11"/>
+      <c r="M284" s="11"/>
+      <c r="N284" s="11"/>
+      <c r="O284" s="11"/>
+      <c r="P284" s="9"/>
+      <c r="Q284" s="4"/>
+    </row>
+    <row r="285" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A285" s="8">
+        <f t="shared" si="0"/>
+        <v>283</v>
+      </c>
+      <c r="B285" s="5"/>
+      <c r="C285" s="6"/>
+      <c r="D285" s="6"/>
+      <c r="E285" s="6"/>
+      <c r="F285" s="6"/>
+      <c r="G285" s="7"/>
+      <c r="H285" s="4"/>
+      <c r="I285" s="4"/>
+      <c r="J285" s="9"/>
+      <c r="K285" s="9"/>
+      <c r="L285" s="11"/>
+      <c r="M285" s="11"/>
+      <c r="N285" s="11"/>
+      <c r="O285" s="11"/>
+      <c r="P285" s="9"/>
+      <c r="Q285" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -10769,884 +11924,924 @@
     <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="A109:D109 G109:Q109 A43:H43 E111:I115 E117:E121 J116:J121 A127:D127 J127:Q127 E123:E127 A131:D131 F131:H131 J131:Q131 J43:Q43 A45:Q52 A36:K36 N36:Q36 A132:Q140 A144:K144 A141:L141 N141:Q141 M144:P144 A145:Q159 A168:Q278 A3:Q35">
-    <cfRule type="expression" dxfId="221" priority="271">
+  <conditionalFormatting sqref="A116:D116 G116:Q116 A50:H50 E118:I122 E124:E128 J123:J128 A134:D134 J134:Q134 E130:E134 A138:D138 F138:H138 J138:Q138 J50:Q50 A52:Q59 A36:K36 N36:Q36 A139:Q147 A151:K151 A148:L148 N148:Q148 M151:P151 A152:Q166 A175:Q285 A3:Q35">
+    <cfRule type="expression" dxfId="303" priority="333">
       <formula>$I3="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="272">
+    <cfRule type="expression" dxfId="302" priority="334">
       <formula>$I3="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A130:D130 A128:H128 J128:Q128 F130:H130 J130:Q130">
-    <cfRule type="expression" dxfId="219" priority="269">
-      <formula>$I128="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="218" priority="270">
-      <formula>$I128="SummaryTask"</formula>
+  <conditionalFormatting sqref="A137:D137 A135:H135 J135:Q135 F137:H137 J137:Q137">
+    <cfRule type="expression" dxfId="301" priority="331">
+      <formula>$I135="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="300" priority="332">
+      <formula>$I135="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A111:D115 J111:Q115">
-    <cfRule type="expression" dxfId="217" priority="199">
-      <formula>$I111="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="216" priority="200">
-      <formula>$I111="SummaryTask"</formula>
+  <conditionalFormatting sqref="A118:D122 J118:Q122">
+    <cfRule type="expression" dxfId="299" priority="261">
+      <formula>$I118="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="298" priority="262">
+      <formula>$I118="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77:D79 J77:Q79">
-    <cfRule type="expression" dxfId="215" priority="261">
-      <formula>$I77="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="214" priority="262">
-      <formula>$I77="SummaryTask"</formula>
+  <conditionalFormatting sqref="A84:D86 J84:Q86">
+    <cfRule type="expression" dxfId="297" priority="323">
+      <formula>$I84="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="296" priority="324">
+      <formula>$I84="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G73:I79 I80 G72:H72">
-    <cfRule type="expression" dxfId="213" priority="257">
-      <formula>$I72="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="212" priority="258">
-      <formula>$I72="SummaryTask"</formula>
+  <conditionalFormatting sqref="G80:I86 I87 G79:H79">
+    <cfRule type="expression" dxfId="295" priority="319">
+      <formula>$I79="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="294" priority="320">
+      <formula>$I79="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:D76 J72:Q76">
-    <cfRule type="expression" dxfId="211" priority="259">
-      <formula>$I72="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="210" priority="260">
-      <formula>$I72="SummaryTask"</formula>
+  <conditionalFormatting sqref="A79:D83 J79:Q83">
+    <cfRule type="expression" dxfId="293" priority="321">
+      <formula>$I79="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="292" priority="322">
+      <formula>$I79="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69:D71 K69:Q71">
-    <cfRule type="expression" dxfId="209" priority="253">
-      <formula>$I69="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="208" priority="254">
-      <formula>$I69="SummaryTask"</formula>
+  <conditionalFormatting sqref="A76:D78 K76:Q78">
+    <cfRule type="expression" dxfId="291" priority="315">
+      <formula>$I76="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="290" priority="316">
+      <formula>$I76="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E64:I71">
-    <cfRule type="expression" dxfId="207" priority="249">
-      <formula>$I64="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="206" priority="250">
-      <formula>$I64="SummaryTask"</formula>
+  <conditionalFormatting sqref="E71:I78">
+    <cfRule type="expression" dxfId="289" priority="311">
+      <formula>$I71="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="288" priority="312">
+      <formula>$I71="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64:D68 K64:Q68">
-    <cfRule type="expression" dxfId="205" priority="251">
-      <formula>$I64="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="204" priority="252">
-      <formula>$I64="SummaryTask"</formula>
+  <conditionalFormatting sqref="A71:D75 K71:Q75">
+    <cfRule type="expression" dxfId="287" priority="313">
+      <formula>$I71="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="286" priority="314">
+      <formula>$I71="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A117:D121 K117:Q121">
+  <conditionalFormatting sqref="A124:D128 K124:Q128">
+    <cfRule type="expression" dxfId="285" priority="275">
+      <formula>$I124="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="284" priority="276">
+      <formula>$I124="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:D70 K70:Q70">
+    <cfRule type="expression" dxfId="283" priority="309">
+      <formula>$I70="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="282" priority="310">
+      <formula>$I70="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70:H70">
+    <cfRule type="expression" dxfId="281" priority="307">
+      <formula>$I70="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="280" priority="308">
+      <formula>$I70="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80:F86 E116:F116">
+    <cfRule type="expression" dxfId="279" priority="305">
+      <formula>$I80="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="278" priority="306">
+      <formula>$I80="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79:F79">
+    <cfRule type="expression" dxfId="277" priority="303">
+      <formula>$I79="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="276" priority="304">
+      <formula>$I79="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:Q60">
+    <cfRule type="expression" dxfId="275" priority="301">
+      <formula>$I60="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="274" priority="302">
+      <formula>$I60="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:D69 J67:Q69">
+    <cfRule type="expression" dxfId="273" priority="299">
+      <formula>$I67="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="272" priority="300">
+      <formula>$I67="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:D66 J62:Q66">
+    <cfRule type="expression" dxfId="271" priority="297">
+      <formula>$I62="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="270" priority="298">
+      <formula>$I62="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62:I69">
+    <cfRule type="expression" dxfId="269" priority="295">
+      <formula>$I62="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="268" priority="296">
+      <formula>$I62="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:D61 J61:Q61">
+    <cfRule type="expression" dxfId="267" priority="293">
+      <formula>$I61="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="266" priority="294">
+      <formula>$I61="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61:H61">
+    <cfRule type="expression" dxfId="265" priority="291">
+      <formula>$I61="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="264" priority="292">
+      <formula>$I61="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J70:J78">
+    <cfRule type="expression" dxfId="263" priority="289">
+      <formula>$I70="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="262" priority="290">
+      <formula>$I70="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:D87 G87:H87 J87:Q87">
+    <cfRule type="expression" dxfId="261" priority="287">
+      <formula>$I87="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="260" priority="288">
+      <formula>$I87="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87:F87">
+    <cfRule type="expression" dxfId="259" priority="285">
+      <formula>$I87="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="258" priority="286">
+      <formula>$I87="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50">
+    <cfRule type="expression" dxfId="257" priority="181">
+      <formula>$I50="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="256" priority="182">
+      <formula>$I50="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G129:H129 H130:I134">
+    <cfRule type="expression" dxfId="255" priority="279">
+      <formula>$I129="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="254" priority="280">
+      <formula>$I129="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90:I97">
+    <cfRule type="expression" dxfId="253" priority="215">
+      <formula>$I90="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="252" priority="216">
+      <formula>$I90="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A129:D133 J129:Q133">
+    <cfRule type="expression" dxfId="251" priority="281">
+      <formula>$I129="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="250" priority="282">
+      <formula>$I129="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H124:I128">
+    <cfRule type="expression" dxfId="249" priority="273">
+      <formula>$I124="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="248" priority="274">
+      <formula>$I124="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123:D123 K123:Q123">
+    <cfRule type="expression" dxfId="247" priority="271">
+      <formula>$I123="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="246" priority="272">
+      <formula>$I123="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A115:D115 G115:H115 J115:Q115">
+    <cfRule type="expression" dxfId="245" priority="207">
+      <formula>$I115="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="244" priority="208">
+      <formula>$I115="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123:H123">
+    <cfRule type="expression" dxfId="243" priority="269">
+      <formula>$I123="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="242" priority="270">
+      <formula>$I123="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E129:F129">
+    <cfRule type="expression" dxfId="241" priority="265">
+      <formula>$I129="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="240" priority="266">
+      <formula>$I129="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A117:D117 J117:Q117">
+    <cfRule type="expression" dxfId="239" priority="257">
+      <formula>$I117="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="238" priority="258">
+      <formula>$I117="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E117:H117">
+    <cfRule type="expression" dxfId="237" priority="255">
+      <formula>$I117="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="236" priority="256">
+      <formula>$I117="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A88:D88 G88:Q88">
+    <cfRule type="expression" dxfId="235" priority="243">
+      <formula>$I88="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="234" priority="244">
+      <formula>$I88="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A112:D114 J112:Q114">
+    <cfRule type="expression" dxfId="233" priority="239">
+      <formula>$I112="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="232" priority="240">
+      <formula>$I112="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99:D103 K99:Q103">
+    <cfRule type="expression" dxfId="231" priority="231">
+      <formula>$I99="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="230" priority="232">
+      <formula>$I99="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88:F88">
+    <cfRule type="expression" dxfId="229" priority="241">
+      <formula>$I88="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="228" priority="242">
+      <formula>$I88="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E115">
+    <cfRule type="expression" dxfId="227" priority="205">
+      <formula>$I115="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="226" priority="206">
+      <formula>$I115="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F108:F115">
+    <cfRule type="expression" dxfId="225" priority="201">
+      <formula>$I108="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="224" priority="202">
+      <formula>$I108="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G108:I114 I115 G107:H107">
+    <cfRule type="expression" dxfId="223" priority="235">
+      <formula>$I107="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="222" priority="236">
+      <formula>$I107="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A107:D111 J107:Q111">
+    <cfRule type="expression" dxfId="221" priority="237">
+      <formula>$I107="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="220" priority="238">
+      <formula>$I107="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104:D106 K104:Q106">
+    <cfRule type="expression" dxfId="219" priority="233">
+      <formula>$I104="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="234">
+      <formula>$I104="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99:E106 G99:I106">
+    <cfRule type="expression" dxfId="217" priority="229">
+      <formula>$I99="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="216" priority="230">
+      <formula>$I99="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A98:D98 K98:Q98">
+    <cfRule type="expression" dxfId="215" priority="227">
+      <formula>$I98="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="214" priority="228">
+      <formula>$I98="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98:H98">
+    <cfRule type="expression" dxfId="213" priority="225">
+      <formula>$I98="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="212" priority="226">
+      <formula>$I98="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108:E114">
+    <cfRule type="expression" dxfId="211" priority="223">
+      <formula>$I108="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="224">
+      <formula>$I108="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107:F107">
+    <cfRule type="expression" dxfId="209" priority="221">
+      <formula>$I107="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="208" priority="222">
+      <formula>$I107="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:D97 J95:Q97">
+    <cfRule type="expression" dxfId="207" priority="219">
+      <formula>$I95="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="220">
+      <formula>$I95="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90:D94 J90:Q94">
+    <cfRule type="expression" dxfId="205" priority="217">
+      <formula>$I90="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="204" priority="218">
+      <formula>$I90="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A89:D89 J89:Q89">
     <cfRule type="expression" dxfId="203" priority="213">
+      <formula>$I89="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="202" priority="214">
+      <formula>$I89="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89:H89">
+    <cfRule type="expression" dxfId="201" priority="211">
+      <formula>$I89="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="200" priority="212">
+      <formula>$I89="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J98:J106">
+    <cfRule type="expression" dxfId="199" priority="209">
+      <formula>$I98="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="210">
+      <formula>$I98="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F99:F106">
+    <cfRule type="expression" dxfId="197" priority="203">
+      <formula>$I99="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="196" priority="204">
+      <formula>$I99="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I123">
+    <cfRule type="expression" dxfId="195" priority="199">
+      <formula>$I123="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="194" priority="200">
+      <formula>$I123="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I129">
+    <cfRule type="expression" dxfId="193" priority="197">
+      <formula>$I129="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="198">
+      <formula>$I129="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I107">
+    <cfRule type="expression" dxfId="191" priority="195">
+      <formula>$I107="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="196">
+      <formula>$I107="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I98">
+    <cfRule type="expression" dxfId="189" priority="193">
+      <formula>$I98="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="188" priority="194">
+      <formula>$I98="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I79">
+    <cfRule type="expression" dxfId="187" priority="191">
+      <formula>$I79="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="192">
+      <formula>$I79="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I70">
+    <cfRule type="expression" dxfId="185" priority="189">
+      <formula>$I70="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="190">
+      <formula>$I70="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61">
+    <cfRule type="expression" dxfId="183" priority="187">
+      <formula>$I61="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="182" priority="188">
+      <formula>$I61="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I89">
+    <cfRule type="expression" dxfId="181" priority="185">
+      <formula>$I89="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="180" priority="186">
+      <formula>$I89="SummaryTask"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I117">
+    <cfRule type="expression" dxfId="179" priority="183">
       <formula>$I117="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="214">
+    <cfRule type="expression" dxfId="178" priority="184">
       <formula>$I117="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63:D63 K63:Q63">
-    <cfRule type="expression" dxfId="201" priority="247">
-      <formula>$I63="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="200" priority="248">
-      <formula>$I63="SummaryTask"</formula>
+  <conditionalFormatting sqref="F124:G128">
+    <cfRule type="expression" dxfId="177" priority="179">
+      <formula>$I124="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="176" priority="180">
+      <formula>$I124="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E63:H63">
-    <cfRule type="expression" dxfId="199" priority="245">
-      <formula>$I63="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="198" priority="246">
-      <formula>$I63="SummaryTask"</formula>
+  <conditionalFormatting sqref="F130:G134">
+    <cfRule type="expression" dxfId="175" priority="177">
+      <formula>$I130="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="178">
+      <formula>$I130="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E73:F79 E109:F109">
-    <cfRule type="expression" dxfId="197" priority="243">
-      <formula>$I73="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="196" priority="244">
-      <formula>$I73="SummaryTask"</formula>
+  <conditionalFormatting sqref="I135">
+    <cfRule type="expression" dxfId="173" priority="175">
+      <formula>$I135="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="176">
+      <formula>$I135="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72:F72">
-    <cfRule type="expression" dxfId="195" priority="241">
-      <formula>$I72="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="194" priority="242">
-      <formula>$I72="SummaryTask"</formula>
+  <conditionalFormatting sqref="I136:I138">
+    <cfRule type="expression" dxfId="171" priority="161">
+      <formula>$I136="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="162">
+      <formula>$I136="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53:Q53">
-    <cfRule type="expression" dxfId="193" priority="239">
-      <formula>$I53="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="192" priority="240">
-      <formula>$I53="SummaryTask"</formula>
+  <conditionalFormatting sqref="E137">
+    <cfRule type="expression" dxfId="169" priority="159">
+      <formula>$I137="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="160">
+      <formula>$I137="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60:D62 J60:Q62">
-    <cfRule type="expression" dxfId="191" priority="237">
-      <formula>$I60="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="190" priority="238">
-      <formula>$I60="SummaryTask"</formula>
+  <conditionalFormatting sqref="A136:D136 J136:Q136">
+    <cfRule type="expression" dxfId="167" priority="171">
+      <formula>$I136="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="172">
+      <formula>$I136="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55:D59 J55:Q59">
-    <cfRule type="expression" dxfId="189" priority="235">
-      <formula>$I55="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="188" priority="236">
-      <formula>$I55="SummaryTask"</formula>
+  <conditionalFormatting sqref="E138">
+    <cfRule type="expression" dxfId="165" priority="157">
+      <formula>$I138="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="164" priority="158">
+      <formula>$I138="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E55:I62">
-    <cfRule type="expression" dxfId="187" priority="233">
-      <formula>$I55="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="234">
-      <formula>$I55="SummaryTask"</formula>
+  <conditionalFormatting sqref="E136:H136">
+    <cfRule type="expression" dxfId="163" priority="165">
+      <formula>$I136="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="166">
+      <formula>$I136="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:D54 J54:Q54">
-    <cfRule type="expression" dxfId="185" priority="231">
-      <formula>$I54="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="232">
-      <formula>$I54="SummaryTask"</formula>
+  <conditionalFormatting sqref="A171:Q172 A174:Q174 A173:I173 K173:Q173">
+    <cfRule type="expression" dxfId="161" priority="155">
+      <formula>$I171="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="156">
+      <formula>$I171="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54:H54">
-    <cfRule type="expression" dxfId="183" priority="229">
-      <formula>$I54="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="182" priority="230">
-      <formula>$I54="SummaryTask"</formula>
+  <conditionalFormatting sqref="A167:Q168 Q167:Q174 A170:Q170 A169:I169 K169:Q169">
+    <cfRule type="expression" dxfId="159" priority="153">
+      <formula>$I167="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="154">
+      <formula>$I167="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J63:J71">
-    <cfRule type="expression" dxfId="181" priority="227">
-      <formula>$I63="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="228">
-      <formula>$I63="SummaryTask"</formula>
+  <conditionalFormatting sqref="J173">
+    <cfRule type="expression" dxfId="157" priority="149">
+      <formula>$I173="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="150">
+      <formula>$I173="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A80:D80 G80:H80 J80:Q80">
-    <cfRule type="expression" dxfId="179" priority="225">
-      <formula>$I80="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="178" priority="226">
-      <formula>$I80="SummaryTask"</formula>
+  <conditionalFormatting sqref="J169">
+    <cfRule type="expression" dxfId="155" priority="147">
+      <formula>$I169="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="148">
+      <formula>$I169="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80:F80">
-    <cfRule type="expression" dxfId="177" priority="223">
-      <formula>$I80="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="176" priority="224">
-      <formula>$I80="SummaryTask"</formula>
+  <conditionalFormatting sqref="A149:K150 N149:Q150">
+    <cfRule type="expression" dxfId="153" priority="143">
+      <formula>$I149="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="144">
+      <formula>$I149="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
-    <cfRule type="expression" dxfId="175" priority="119">
-      <formula>$I43="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="120">
-      <formula>$I43="SummaryTask"</formula>
+  <conditionalFormatting sqref="Q151">
+    <cfRule type="expression" dxfId="151" priority="139">
+      <formula>$I151="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="140">
+      <formula>$I151="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G122:H122 H123:I127">
-    <cfRule type="expression" dxfId="173" priority="217">
-      <formula>$I122="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="172" priority="218">
-      <formula>$I122="SummaryTask"</formula>
+  <conditionalFormatting sqref="K49:Q49 A49:G49">
+    <cfRule type="expression" dxfId="149" priority="137">
+      <formula>$I49="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="138">
+      <formula>$I49="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E83:I90">
-    <cfRule type="expression" dxfId="171" priority="153">
-      <formula>$I83="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="170" priority="154">
-      <formula>$I83="SummaryTask"</formula>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="expression" dxfId="147" priority="133">
+      <formula>$I49="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="134">
+      <formula>$I49="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A122:D126 J122:Q126">
-    <cfRule type="expression" dxfId="169" priority="219">
-      <formula>$I122="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="220">
-      <formula>$I122="SummaryTask"</formula>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="expression" dxfId="145" priority="125">
+      <formula>$I47="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="126">
+      <formula>$I47="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H117:I121">
-    <cfRule type="expression" dxfId="167" priority="211">
-      <formula>$I117="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="166" priority="212">
-      <formula>$I117="SummaryTask"</formula>
+  <conditionalFormatting sqref="I49">
+    <cfRule type="expression" dxfId="143" priority="129">
+      <formula>$I49="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="130">
+      <formula>$I49="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A116:D116 K116:Q116">
-    <cfRule type="expression" dxfId="165" priority="209">
-      <formula>$I116="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="164" priority="210">
-      <formula>$I116="SummaryTask"</formula>
+  <conditionalFormatting sqref="A46:G46 K46 M46:Q46">
+    <cfRule type="expression" dxfId="141" priority="119">
+      <formula>$I46="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="120">
+      <formula>$I46="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A108:D108 G108:H108 J108:Q108">
-    <cfRule type="expression" dxfId="163" priority="145">
-      <formula>$I108="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="146">
-      <formula>$I108="SummaryTask"</formula>
+  <conditionalFormatting sqref="I47">
+    <cfRule type="expression" dxfId="139" priority="121">
+      <formula>$I47="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="122">
+      <formula>$I47="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E116:H116">
-    <cfRule type="expression" dxfId="161" priority="207">
-      <formula>$I116="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="160" priority="208">
-      <formula>$I116="SummaryTask"</formula>
+  <conditionalFormatting sqref="K47 A47:G47 M47:Q47">
+    <cfRule type="expression" dxfId="137" priority="127">
+      <formula>$I47="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="128">
+      <formula>$I47="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E122:F122">
-    <cfRule type="expression" dxfId="159" priority="203">
-      <formula>$I122="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="158" priority="204">
-      <formula>$I122="SummaryTask"</formula>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="expression" dxfId="135" priority="117">
+      <formula>$I46="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="118">
+      <formula>$I46="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A110:D110 J110:Q110">
-    <cfRule type="expression" dxfId="157" priority="195">
-      <formula>$I110="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="196">
-      <formula>$I110="SummaryTask"</formula>
+  <conditionalFormatting sqref="J47">
+    <cfRule type="expression" dxfId="133" priority="123">
+      <formula>$I47="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="124">
+      <formula>$I47="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E110:H110">
-    <cfRule type="expression" dxfId="155" priority="193">
-      <formula>$I110="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="154" priority="194">
-      <formula>$I110="SummaryTask"</formula>
+  <conditionalFormatting sqref="J37">
+    <cfRule type="expression" dxfId="127" priority="99">
+      <formula>$I37="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="100">
+      <formula>$I37="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81:D81 G81:Q81">
-    <cfRule type="expression" dxfId="153" priority="181">
-      <formula>$I81="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="152" priority="182">
-      <formula>$I81="SummaryTask"</formula>
+  <conditionalFormatting sqref="J46">
+    <cfRule type="expression" dxfId="125" priority="115">
+      <formula>$I46="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="116">
+      <formula>$I46="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A105:D107 J105:Q107">
-    <cfRule type="expression" dxfId="151" priority="177">
-      <formula>$I105="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="178">
-      <formula>$I105="SummaryTask"</formula>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="expression" dxfId="123" priority="101">
+      <formula>$I37="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="102">
+      <formula>$I37="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A92:D96 K92:Q96">
-    <cfRule type="expression" dxfId="149" priority="169">
-      <formula>$I92="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="148" priority="170">
-      <formula>$I92="SummaryTask"</formula>
+  <conditionalFormatting sqref="J48">
+    <cfRule type="expression" dxfId="121" priority="91">
+      <formula>$I48="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="92">
+      <formula>$I48="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E81:F81">
-    <cfRule type="expression" dxfId="147" priority="179">
-      <formula>$I81="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="146" priority="180">
-      <formula>$I81="SummaryTask"</formula>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="expression" dxfId="115" priority="83">
+      <formula>$I37="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="84">
+      <formula>$I37="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="expression" dxfId="145" priority="143">
-      <formula>$I108="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="144">
-      <formula>$I108="SummaryTask"</formula>
+  <conditionalFormatting sqref="M36">
+    <cfRule type="expression" dxfId="113" priority="79">
+      <formula>$I36="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="80">
+      <formula>$I36="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F101:F108">
-    <cfRule type="expression" dxfId="143" priority="139">
-      <formula>$I101="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="140">
-      <formula>$I101="SummaryTask"</formula>
+  <conditionalFormatting sqref="A37:G37 K37:Q37 L38:M40">
+    <cfRule type="expression" dxfId="111" priority="103">
+      <formula>$I37="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="104">
+      <formula>$I37="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G101:I107 I108 G100:H100">
-    <cfRule type="expression" dxfId="141" priority="173">
-      <formula>$I100="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="174">
-      <formula>$I100="SummaryTask"</formula>
+  <conditionalFormatting sqref="L150">
+    <cfRule type="expression" dxfId="109" priority="77">
+      <formula>$I150="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="78">
+      <formula>$I150="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A100:D104 J100:Q104">
-    <cfRule type="expression" dxfId="139" priority="175">
-      <formula>$I100="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="176">
-      <formula>$I100="SummaryTask"</formula>
+  <conditionalFormatting sqref="A48:G48 K48:Q48">
+    <cfRule type="expression" dxfId="107" priority="95">
+      <formula>$I48="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="96">
+      <formula>$I48="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A97:D99 K97:Q99">
-    <cfRule type="expression" dxfId="137" priority="171">
-      <formula>$I97="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="172">
-      <formula>$I97="SummaryTask"</formula>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="expression" dxfId="105" priority="93">
+      <formula>$I48="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="94">
+      <formula>$I48="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E92:E99 G92:I99">
-    <cfRule type="expression" dxfId="135" priority="167">
-      <formula>$I92="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="168">
-      <formula>$I92="SummaryTask"</formula>
+  <conditionalFormatting sqref="I48">
+    <cfRule type="expression" dxfId="103" priority="87">
+      <formula>$I48="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="88">
+      <formula>$I48="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A91:D91 K91:Q91">
-    <cfRule type="expression" dxfId="133" priority="165">
-      <formula>$I91="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="166">
-      <formula>$I91="SummaryTask"</formula>
+  <conditionalFormatting sqref="I46">
+    <cfRule type="expression" dxfId="101" priority="85">
+      <formula>$I46="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="86">
+      <formula>$I46="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E91:H91">
-    <cfRule type="expression" dxfId="131" priority="163">
-      <formula>$I91="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="164">
-      <formula>$I91="SummaryTask"</formula>
+  <conditionalFormatting sqref="L36">
+    <cfRule type="expression" dxfId="99" priority="81">
+      <formula>$I36="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="82">
+      <formula>$I36="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E101:E107">
-    <cfRule type="expression" dxfId="129" priority="161">
-      <formula>$I101="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="162">
-      <formula>$I101="SummaryTask"</formula>
+  <conditionalFormatting sqref="M148">
+    <cfRule type="expression" dxfId="95" priority="75">
+      <formula>$I148="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="76">
+      <formula>$I148="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E100:F100">
-    <cfRule type="expression" dxfId="127" priority="159">
-      <formula>$I100="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="160">
-      <formula>$I100="SummaryTask"</formula>
+  <conditionalFormatting sqref="L149">
+    <cfRule type="expression" dxfId="93" priority="71">
+      <formula>$I149="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="72">
+      <formula>$I149="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A88:D90 J88:Q90">
-    <cfRule type="expression" dxfId="125" priority="157">
-      <formula>$I88="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="158">
-      <formula>$I88="SummaryTask"</formula>
+  <conditionalFormatting sqref="M150">
+    <cfRule type="expression" dxfId="91" priority="69">
+      <formula>$I150="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="70">
+      <formula>$I150="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A83:D87 J83:Q87">
-    <cfRule type="expression" dxfId="123" priority="155">
-      <formula>$I83="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="156">
-      <formula>$I83="SummaryTask"</formula>
+  <conditionalFormatting sqref="L151">
+    <cfRule type="expression" dxfId="89" priority="67">
+      <formula>$I151="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="68">
+      <formula>$I151="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82:D82 J82:Q82">
-    <cfRule type="expression" dxfId="121" priority="151">
-      <formula>$I82="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="152">
-      <formula>$I82="SummaryTask"</formula>
+  <conditionalFormatting sqref="M149">
+    <cfRule type="expression" dxfId="87" priority="65">
+      <formula>$I149="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="66">
+      <formula>$I149="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82:H82">
-    <cfRule type="expression" dxfId="119" priority="149">
-      <formula>$I82="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="150">
-      <formula>$I82="SummaryTask"</formula>
+  <conditionalFormatting sqref="A51:Q51">
+    <cfRule type="expression" dxfId="85" priority="63">
+      <formula>$I51="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="64">
+      <formula>$I51="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J91:J99">
-    <cfRule type="expression" dxfId="117" priority="147">
-      <formula>$I91="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="148">
-      <formula>$I91="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F92:F99">
-    <cfRule type="expression" dxfId="115" priority="141">
-      <formula>$I92="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="142">
-      <formula>$I92="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I116">
-    <cfRule type="expression" dxfId="113" priority="137">
-      <formula>$I116="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="138">
-      <formula>$I116="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I122">
-    <cfRule type="expression" dxfId="111" priority="135">
-      <formula>$I122="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="136">
-      <formula>$I122="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I100">
-    <cfRule type="expression" dxfId="109" priority="133">
-      <formula>$I100="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="134">
-      <formula>$I100="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I91">
-    <cfRule type="expression" dxfId="107" priority="131">
-      <formula>$I91="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="132">
-      <formula>$I91="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I72">
-    <cfRule type="expression" dxfId="105" priority="129">
-      <formula>$I72="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="130">
-      <formula>$I72="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63">
-    <cfRule type="expression" dxfId="103" priority="127">
-      <formula>$I63="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="128">
-      <formula>$I63="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54">
-    <cfRule type="expression" dxfId="101" priority="125">
-      <formula>$I54="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="126">
-      <formula>$I54="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I82">
-    <cfRule type="expression" dxfId="99" priority="123">
-      <formula>$I82="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="124">
-      <formula>$I82="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I110">
-    <cfRule type="expression" dxfId="97" priority="121">
-      <formula>$I110="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="122">
-      <formula>$I110="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F117:G121">
-    <cfRule type="expression" dxfId="95" priority="117">
-      <formula>$I117="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="118">
-      <formula>$I117="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F123:G127">
-    <cfRule type="expression" dxfId="93" priority="115">
-      <formula>$I123="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="116">
-      <formula>$I123="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I128">
-    <cfRule type="expression" dxfId="91" priority="113">
-      <formula>$I128="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="114">
-      <formula>$I128="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I129:I131">
-    <cfRule type="expression" dxfId="89" priority="99">
-      <formula>$I129="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="100">
-      <formula>$I129="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="expression" dxfId="87" priority="97">
-      <formula>$I130="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="98">
-      <formula>$I130="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A129:D129 J129:Q129">
-    <cfRule type="expression" dxfId="85" priority="109">
-      <formula>$I129="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="110">
-      <formula>$I129="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E131">
-    <cfRule type="expression" dxfId="83" priority="95">
-      <formula>$I131="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="96">
-      <formula>$I131="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E129:H129">
-    <cfRule type="expression" dxfId="81" priority="103">
-      <formula>$I129="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="104">
-      <formula>$I129="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A164:Q165 A167:Q167 A166:I166 K166:Q166">
-    <cfRule type="expression" dxfId="79" priority="93">
-      <formula>$I164="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="94">
-      <formula>$I164="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A160:Q161 Q160:Q167 A163:Q163 A162:I162 K162:Q162">
-    <cfRule type="expression" dxfId="77" priority="91">
-      <formula>$I160="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="92">
-      <formula>$I160="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J166">
-    <cfRule type="expression" dxfId="75" priority="87">
-      <formula>$I166="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="88">
-      <formula>$I166="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J162">
-    <cfRule type="expression" dxfId="73" priority="85">
-      <formula>$I162="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="86">
-      <formula>$I162="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A142:K143 N142:Q143">
-    <cfRule type="expression" dxfId="71" priority="81">
-      <formula>$I142="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="82">
-      <formula>$I142="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q144">
-    <cfRule type="expression" dxfId="69" priority="77">
-      <formula>$I144="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="78">
-      <formula>$I144="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K42:Q42 A42:G42">
-    <cfRule type="expression" dxfId="67" priority="75">
-      <formula>$I42="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="76">
-      <formula>$I42="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="expression" dxfId="65" priority="71">
-      <formula>$I42="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="72">
-      <formula>$I42="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="expression" dxfId="63" priority="63">
-      <formula>$I40="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="64">
-      <formula>$I40="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J42">
-    <cfRule type="expression" dxfId="61" priority="69">
-      <formula>$I42="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="70">
-      <formula>$I42="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
-    <cfRule type="expression" dxfId="59" priority="67">
-      <formula>$I42="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="68">
-      <formula>$I42="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
-    <cfRule type="expression" dxfId="57" priority="59">
-      <formula>$I40="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="60">
-      <formula>$I40="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K40:Q40 A40:G40">
-    <cfRule type="expression" dxfId="55" priority="65">
-      <formula>$I40="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="66">
-      <formula>$I40="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="expression" dxfId="53" priority="55">
-      <formula>$I39="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="56">
-      <formula>$I39="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
-    <cfRule type="expression" dxfId="51" priority="61">
-      <formula>$I40="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="62">
-      <formula>$I40="SummaryTask"</formula>
+  <conditionalFormatting sqref="J49">
+    <cfRule type="expression" dxfId="83" priority="61">
+      <formula>$I49="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="62">
+      <formula>$I49="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="expression" dxfId="49" priority="43">
+    <cfRule type="expression" dxfId="41" priority="13">
       <formula>$I38="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="44">
+    <cfRule type="expression" dxfId="40" priority="14">
       <formula>$I38="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="47" priority="47">
+    <cfRule type="expression" dxfId="39" priority="17">
       <formula>$I38="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="48">
+    <cfRule type="expression" dxfId="38" priority="18">
       <formula>$I38="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:G39 K39:Q39">
-    <cfRule type="expression" dxfId="45" priority="57">
-      <formula>$I39="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="58">
-      <formula>$I39="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39">
-    <cfRule type="expression" dxfId="43" priority="53">
-      <formula>$I39="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="54">
-      <formula>$I39="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="expression" dxfId="41" priority="39">
-      <formula>$I37="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="40">
-      <formula>$I37="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41">
-    <cfRule type="expression" dxfId="39" priority="29">
-      <formula>$I41="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="30">
-      <formula>$I41="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K38:L38 A38:G38 N38:Q38">
-    <cfRule type="expression" dxfId="37" priority="49">
+  <conditionalFormatting sqref="K38 A38:G38 N38:Q38">
+    <cfRule type="expression" dxfId="37" priority="19">
       <formula>$I38="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="50">
+    <cfRule type="expression" dxfId="36" priority="20">
       <formula>$I38="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="expression" dxfId="35" priority="45">
+    <cfRule type="expression" dxfId="35" priority="15">
       <formula>$I38="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="46">
+    <cfRule type="expression" dxfId="34" priority="16">
       <formula>$I38="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
-    <cfRule type="expression" dxfId="33" priority="21">
-      <formula>$I37="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="22">
-      <formula>$I37="SummaryTask"</formula>
+  <conditionalFormatting sqref="A39:G45 I39:I45 N39:Q45 K39:K45">
+    <cfRule type="expression" dxfId="31" priority="9">
+      <formula>$I39="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="10">
+      <formula>$I39="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M36">
-    <cfRule type="expression" dxfId="31" priority="17">
-      <formula>$I36="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="18">
-      <formula>$I36="SummaryTask"</formula>
+  <conditionalFormatting sqref="H39:H45">
+    <cfRule type="expression" dxfId="27" priority="7">
+      <formula>$I39="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="8">
+      <formula>$I39="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:G37 K37:Q37 M38">
-    <cfRule type="expression" dxfId="29" priority="41">
-      <formula>$I37="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="42">
-      <formula>$I37="SummaryTask"</formula>
+  <conditionalFormatting sqref="L41:M45">
+    <cfRule type="expression" dxfId="11" priority="5">
+      <formula>$I41="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="6">
+      <formula>$I41="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
-    <cfRule type="expression" dxfId="27" priority="37">
-      <formula>$I37="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="38">
-      <formula>$I37="SummaryTask"</formula>
+  <conditionalFormatting sqref="L46:L47">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>$I46="Task"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>$I46="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:G41 K41:Q41">
-    <cfRule type="expression" dxfId="25" priority="33">
-      <formula>$I41="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="34">
-      <formula>$I41="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="expression" dxfId="23" priority="31">
-      <formula>$I41="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="32">
-      <formula>$I41="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41">
-    <cfRule type="expression" dxfId="21" priority="25">
-      <formula>$I41="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="26">
-      <formula>$I41="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
-    <cfRule type="expression" dxfId="19" priority="23">
+  <conditionalFormatting sqref="J39:J45">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$I39="Task"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="24">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$I39="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L36">
-    <cfRule type="expression" dxfId="17" priority="19">
-      <formula>$I36="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="20">
-      <formula>$I36="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L143">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>$I143="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
-      <formula>$I143="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M141">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>$I141="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
-      <formula>$I141="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L142">
-    <cfRule type="expression" dxfId="11" priority="9">
-      <formula>$I142="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10">
-      <formula>$I142="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M143">
-    <cfRule type="expression" dxfId="9" priority="7">
-      <formula>$I143="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
-      <formula>$I143="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L144">
-    <cfRule type="expression" dxfId="7" priority="5">
-      <formula>$I144="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>$I144="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M142">
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>$I142="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>$I142="SummaryTask"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:Q44">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$I44="Task"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$I44="SummaryTask"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
